--- a/src/Head.xlsx
+++ b/src/Head.xlsx
@@ -586,7 +586,7 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>2025-10-02T10:23:34-05:00</t>
+    <t>2025-10-08T11:11:03-05:00</t>
   </si>
   <si>
     <t>&lt;?xml version='1.0' encoding='UTF-8'?&gt;</t>
@@ -32780,11 +32780,11 @@
     <row r="6" spans="1:5">
       <c r="A6" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B6,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B6" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C6" s="111"/>
       <c r="E6" s="110"/>
@@ -32851,11 +32851,11 @@
     <row r="13" spans="1:5">
       <c r="A13" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B13,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B13" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C13" s="111"/>
       <c r="E13" s="110"/>
@@ -32915,11 +32915,11 @@
     <row r="19" spans="1:5">
       <c r="A19" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B19,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B19" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C19" s="111"/>
       <c r="E19" s="110"/>
@@ -32979,11 +32979,11 @@
     <row r="25" spans="1:5">
       <c r="A25" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B25,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B25" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C25" s="111"/>
       <c r="E25" s="110"/>
@@ -33043,11 +33043,11 @@
     <row r="31" spans="1:5">
       <c r="A31" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B31,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B31" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C31" s="111"/>
       <c r="E31" s="110"/>
@@ -33107,11 +33107,11 @@
     <row r="37" spans="1:5">
       <c r="A37" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B37,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B37" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C37" s="111"/>
       <c r="E37" s="110"/>
@@ -33171,11 +33171,11 @@
     <row r="43" spans="1:5">
       <c r="A43" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B43,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B43" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C43" s="111"/>
       <c r="E43" s="110"/>
@@ -33235,11 +33235,11 @@
     <row r="49" spans="1:5">
       <c r="A49" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B49,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B49" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C49" s="111"/>
       <c r="E49" s="110"/>
@@ -33299,11 +33299,11 @@
     <row r="55" spans="1:5">
       <c r="A55" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B55,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B55" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C55" s="111"/>
       <c r="E55" s="110"/>
@@ -33371,11 +33371,11 @@
     <row r="62" spans="1:5">
       <c r="A62" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B62,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B62" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C62" s="111"/>
       <c r="E62" s="110"/>
@@ -33435,11 +33435,11 @@
     <row r="68" spans="1:5">
       <c r="A68" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B68,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B68" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C68" s="111"/>
       <c r="E68" s="110"/>
@@ -33507,11 +33507,11 @@
     <row r="75" spans="1:5">
       <c r="A75" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B75,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B75" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C75" s="111"/>
       <c r="E75" s="110"/>
@@ -33571,11 +33571,11 @@
     <row r="81" spans="1:5">
       <c r="A81" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B81,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B81" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C81" s="111"/>
       <c r="E81" s="110"/>
@@ -33635,11 +33635,11 @@
     <row r="87" spans="1:5">
       <c r="A87" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B87,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B87" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C87" s="111"/>
       <c r="E87" s="110"/>
@@ -33699,11 +33699,11 @@
     <row r="93" spans="1:5">
       <c r="A93" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B93,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B93" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C93" s="111"/>
       <c r="E93" s="110"/>
@@ -33762,11 +33762,11 @@
     <row r="99" spans="1:5">
       <c r="A99" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B99,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B99" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C99" s="111"/>
       <c r="E99" s="110"/>
@@ -33826,11 +33826,11 @@
     <row r="105" spans="1:5">
       <c r="A105" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B105,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B105" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C105" s="111"/>
       <c r="E105" s="110"/>
@@ -33898,11 +33898,11 @@
     <row r="112" spans="1:5">
       <c r="A112" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B112,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B112" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C112" s="111"/>
       <c r="E112" s="110"/>
@@ -33964,11 +33964,11 @@
     <row r="118" spans="1:5">
       <c r="A118" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B118,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B118" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C118" s="111"/>
       <c r="E118" s="110"/>
@@ -34036,11 +34036,11 @@
     <row r="125" spans="1:5">
       <c r="A125" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B125,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B125" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C125" s="111"/>
       <c r="E125" s="110"/>
@@ -34100,11 +34100,11 @@
     <row r="131" spans="1:5">
       <c r="A131" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B131,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B131" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C131" s="111"/>
       <c r="E131" s="110"/>
@@ -34164,11 +34164,11 @@
     <row r="137" spans="1:5">
       <c r="A137" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B137,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B137" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C137" s="111"/>
       <c r="E137" s="110"/>
@@ -34228,11 +34228,11 @@
     <row r="143" spans="1:5">
       <c r="A143" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B143,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B143" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C143" s="111"/>
       <c r="E143" s="110"/>
@@ -34292,11 +34292,11 @@
     <row r="149" spans="1:5">
       <c r="A149" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B149,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B149" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C149" s="111"/>
       <c r="E149" s="110"/>
@@ -34356,11 +34356,11 @@
     <row r="155" spans="1:5">
       <c r="A155" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B155,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B155" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C155" s="111"/>
       <c r="E155" s="110"/>
@@ -34420,11 +34420,11 @@
     <row r="161" spans="1:5">
       <c r="A161" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B161,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B161" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C161" s="111"/>
       <c r="E161" s="110"/>
@@ -34484,11 +34484,11 @@
     <row r="167" spans="1:5">
       <c r="A167" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B167,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B167" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C167" s="111"/>
       <c r="E167" s="110"/>
@@ -34548,11 +34548,11 @@
     <row r="173" spans="1:5">
       <c r="A173" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B173,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B173" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C173" s="111"/>
       <c r="E173" s="110"/>
@@ -34612,11 +34612,11 @@
     <row r="179" spans="1:5">
       <c r="A179" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B179,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B179" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C179" s="111"/>
       <c r="E179" s="110"/>
@@ -34676,11 +34676,11 @@
     <row r="185" spans="1:5">
       <c r="A185" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B185,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B185" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C185" s="111"/>
       <c r="E185" s="110"/>
@@ -34740,11 +34740,11 @@
     <row r="191" spans="1:5">
       <c r="A191" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B191,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B191" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C191" s="111"/>
       <c r="E191" s="110"/>
@@ -34804,11 +34804,11 @@
     <row r="197" spans="1:5">
       <c r="A197" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B197,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B197" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C197" s="111"/>
       <c r="E197" s="110"/>
@@ -34868,11 +34868,11 @@
     <row r="203" spans="1:5">
       <c r="A203" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B203,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B203" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C203" s="111"/>
       <c r="E203" s="110"/>
@@ -34932,11 +34932,11 @@
     <row r="209" spans="1:5">
       <c r="A209" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B209,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B209" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C209" s="111"/>
       <c r="E209" s="110"/>
@@ -34995,11 +34995,11 @@
     <row r="215" spans="1:5">
       <c r="A215" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B215,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B215" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C215" s="111"/>
       <c r="E215" s="110"/>
@@ -35067,11 +35067,11 @@
     <row r="222" spans="1:5">
       <c r="A222" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B222,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B222" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C222" s="111"/>
       <c r="E222" s="110"/>
@@ -35137,11 +35137,11 @@
     <row r="229" spans="1:5">
       <c r="A229" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B229,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B229" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C229" s="111"/>
       <c r="E229" s="110"/>
@@ -35209,11 +35209,11 @@
     <row r="236" spans="1:5">
       <c r="A236" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B236,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B236" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C236" s="111"/>
       <c r="E236" s="110"/>
@@ -35273,11 +35273,11 @@
     <row r="242" spans="1:5">
       <c r="A242" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B242,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B242" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C242" s="111"/>
       <c r="E242" s="110"/>
@@ -35337,11 +35337,11 @@
     <row r="248" spans="1:5">
       <c r="A248" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B248,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B248" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C248" s="111"/>
       <c r="E248" s="110"/>
@@ -35401,11 +35401,11 @@
     <row r="254" spans="1:5">
       <c r="A254" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B254,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B254" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C254" s="111"/>
       <c r="E254" s="110"/>
@@ -35465,11 +35465,11 @@
     <row r="260" spans="1:5">
       <c r="A260" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B260,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B260" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C260" s="111"/>
       <c r="E260" s="110"/>
@@ -35529,11 +35529,11 @@
     <row r="266" spans="1:5">
       <c r="A266" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B266,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B266" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C266" s="111"/>
       <c r="E266" s="110"/>
@@ -35593,11 +35593,11 @@
     <row r="272" spans="1:5">
       <c r="A272" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B272,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B272" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C272" s="111"/>
       <c r="E272" s="110"/>
@@ -35657,11 +35657,11 @@
     <row r="278" spans="1:5">
       <c r="A278" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B278,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B278" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C278" s="111"/>
       <c r="E278" s="110"/>
@@ -35721,11 +35721,11 @@
     <row r="284" spans="1:5">
       <c r="A284" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B284,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B284" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C284" s="111"/>
       <c r="E284" s="110"/>
@@ -35785,11 +35785,11 @@
     <row r="290" spans="1:5">
       <c r="A290" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B290,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B290" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C290" s="111"/>
       <c r="E290" s="110"/>
@@ -35849,11 +35849,11 @@
     <row r="296" spans="1:5">
       <c r="A296" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B296,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B296" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C296" s="111"/>
       <c r="E296" s="110"/>
@@ -35913,11 +35913,11 @@
     <row r="302" spans="1:5">
       <c r="A302" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B302,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B302" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C302" s="111"/>
       <c r="E302" s="110"/>
@@ -35977,11 +35977,11 @@
     <row r="308" spans="1:5">
       <c r="A308" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B308,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B308" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C308" s="111"/>
       <c r="E308" s="110"/>
@@ -36041,11 +36041,11 @@
     <row r="314" spans="1:5">
       <c r="A314" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B314,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B314" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C314" s="111"/>
       <c r="E314" s="110"/>
@@ -36105,11 +36105,11 @@
     <row r="320" spans="1:5">
       <c r="A320" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B320,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B320" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C320" s="111"/>
       <c r="E320" s="110"/>
@@ -36169,11 +36169,11 @@
     <row r="326" spans="1:5">
       <c r="A326" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B326,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B326" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C326" s="111"/>
       <c r="E326" s="110"/>
@@ -36233,11 +36233,11 @@
     <row r="332" spans="1:5">
       <c r="A332" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B332,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B332" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C332" s="111"/>
       <c r="E332" s="110"/>
@@ -36297,11 +36297,11 @@
     <row r="338" spans="1:5">
       <c r="A338" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B338,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B338" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C338" s="111"/>
       <c r="E338" s="110"/>
@@ -36361,11 +36361,11 @@
     <row r="344" spans="1:5">
       <c r="A344" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B344,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B344" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C344" s="111"/>
       <c r="E344" s="110"/>
@@ -36425,11 +36425,11 @@
     <row r="350" spans="1:5">
       <c r="A350" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B350,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B350" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C350" s="111"/>
       <c r="E350" s="110"/>
@@ -36489,11 +36489,11 @@
     <row r="356" spans="1:5">
       <c r="A356" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B356,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B356" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C356" s="111"/>
       <c r="E356" s="110"/>
@@ -36553,11 +36553,11 @@
     <row r="362" spans="1:5">
       <c r="A362" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B362,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B362" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C362" s="111"/>
       <c r="E362" s="110"/>
@@ -36617,11 +36617,11 @@
     <row r="368" spans="1:5">
       <c r="A368" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B368,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B368" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C368" s="111"/>
       <c r="E368" s="110"/>
@@ -36681,11 +36681,11 @@
     <row r="374" spans="1:5">
       <c r="A374" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B374,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B374" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C374" s="111"/>
       <c r="E374" s="110"/>
@@ -36745,11 +36745,11 @@
     <row r="380" spans="1:5">
       <c r="A380" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B380,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B380" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C380" s="111"/>
       <c r="E380" s="110"/>
@@ -36809,11 +36809,11 @@
     <row r="386" spans="1:5">
       <c r="A386" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B386,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B386" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C386" s="111"/>
       <c r="E386" s="110"/>
@@ -36873,11 +36873,11 @@
     <row r="392" spans="1:5">
       <c r="A392" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B392,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B392" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C392" s="111"/>
       <c r="E392" s="110"/>
@@ -36937,11 +36937,11 @@
     <row r="398" spans="1:5">
       <c r="A398" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B398,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B398" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C398" s="111"/>
       <c r="E398" s="110"/>
@@ -37001,11 +37001,11 @@
     <row r="404" spans="1:5">
       <c r="A404" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B404,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B404" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C404" s="111"/>
       <c r="E404" s="110"/>
@@ -37065,11 +37065,11 @@
     <row r="410" spans="1:5">
       <c r="A410" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B410,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B410" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C410" s="111"/>
       <c r="E410" s="110"/>
@@ -37129,11 +37129,11 @@
     <row r="416" spans="1:5">
       <c r="A416" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B416,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B416" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C416" s="111"/>
       <c r="E416" s="110"/>
@@ -37193,11 +37193,11 @@
     <row r="422" spans="1:5">
       <c r="A422" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B422,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B422" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C422" s="111"/>
       <c r="E422" s="110"/>
@@ -37257,11 +37257,11 @@
     <row r="428" spans="1:5">
       <c r="A428" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B428,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B428" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C428" s="111"/>
       <c r="E428" s="110"/>
@@ -37321,11 +37321,11 @@
     <row r="434" spans="1:5">
       <c r="A434" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B434,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B434" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C434" s="111"/>
       <c r="E434" s="110"/>
@@ -37385,11 +37385,11 @@
     <row r="440" spans="1:5">
       <c r="A440" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B440,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B440" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C440" s="111"/>
       <c r="E440" s="110"/>
@@ -37449,11 +37449,11 @@
     <row r="446" spans="1:5">
       <c r="A446" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B446,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B446" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C446" s="111"/>
       <c r="E446" s="110"/>
@@ -37513,11 +37513,11 @@
     <row r="452" spans="1:5">
       <c r="A452" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B452,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B452" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C452" s="111"/>
       <c r="E452" s="110"/>
@@ -37576,11 +37576,11 @@
     <row r="458" spans="1:3">
       <c r="A458" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B458,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B458" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C458" s="111"/>
     </row>
@@ -37645,11 +37645,11 @@
     <row r="465" spans="1:5">
       <c r="A465" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B465,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B465" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C465" s="111"/>
       <c r="E465" s="110"/>
@@ -37709,11 +37709,11 @@
     <row r="471" spans="1:5">
       <c r="A471" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B471,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B471" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C471" s="111"/>
       <c r="E471" s="110"/>
@@ -37773,11 +37773,11 @@
     <row r="477" spans="1:5">
       <c r="A477" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B477,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B477" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C477" s="111"/>
       <c r="E477" s="110"/>
@@ -37837,11 +37837,11 @@
     <row r="483" spans="1:5">
       <c r="A483" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B483,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B483" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C483" s="111"/>
       <c r="E483" s="110"/>
@@ -37901,11 +37901,11 @@
     <row r="489" spans="1:5">
       <c r="A489" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B489,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B489" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C489" s="111"/>
       <c r="E489" s="110"/>
@@ -37965,11 +37965,11 @@
     <row r="495" spans="1:5">
       <c r="A495" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B495,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B495" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C495" s="111"/>
       <c r="E495" s="110"/>
@@ -38029,11 +38029,11 @@
     <row r="501" spans="1:5">
       <c r="A501" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B501,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B501" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C501" s="111"/>
       <c r="E501" s="110"/>
@@ -38093,11 +38093,11 @@
     <row r="507" spans="1:5">
       <c r="A507" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B507,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B507" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C507" s="111"/>
       <c r="E507" s="110"/>
@@ -38157,11 +38157,11 @@
     <row r="513" spans="1:5">
       <c r="A513" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B513,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B513" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C513" s="111"/>
       <c r="E513" s="110"/>
@@ -38221,11 +38221,11 @@
     <row r="519" spans="1:5">
       <c r="A519" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B519,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B519" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C519" s="111"/>
       <c r="E519" s="110"/>
@@ -38285,11 +38285,11 @@
     <row r="525" spans="1:5">
       <c r="A525" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B525,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B525" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C525" s="111"/>
       <c r="E525" s="110"/>
@@ -38349,11 +38349,11 @@
     <row r="531" spans="1:5">
       <c r="A531" s="107" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B531,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2025-10-02T10:23:34-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-08T11:11:03-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B531" s="108" t="str">
         <f>$C$1</f>
-        <v>2025-10-02T10:23:34-05:00</v>
+        <v>2025-10-08T11:11:03-05:00</v>
       </c>
       <c r="C531" s="111"/>
       <c r="E531" s="110"/>

--- a/src/Head.xlsx
+++ b/src/Head.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="10451" tabRatio="692" activeTab="6"/>
+    <workbookView windowWidth="22188" windowHeight="10451" tabRatio="692" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="5" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2491" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="571">
   <si>
     <t>Título</t>
   </si>
@@ -704,10 +704,16 @@
     <t>&lt;li&gt;q&lt;/li&gt;</t>
   </si>
   <si>
-    <t>Evitar variables globales cuando sea posible.</t>
+    <t>Números (enteros, flotantes y complejos)</t>
   </si>
   <si>
-    <t>Retornar valores útiles en lugar de imprimir directamente dentro de la función.</t>
+    <t>Cadenas de Texto (Strings)</t>
+  </si>
+  <si>
+    <t>Booleanos (True, False)</t>
+  </si>
+  <si>
+    <t>Conversión de Tipos (Casting)</t>
   </si>
   <si>
     <t>&lt;li&gt;&lt;code&gt;a&lt;/code&gt;: e&lt;/li&gt;</t>
@@ -716,10 +722,19 @@
     <t>&lt;code class="language-py"&gt;</t>
   </si>
   <si>
-    <t>*args: Para argumentos posicionales variables.</t>
+    <t>Listas (list) :</t>
   </si>
   <si>
-    <t>**kwargs: Para argumentos con nombre variables.</t>
+    <t>Tuplas (tuple) :</t>
+  </si>
+  <si>
+    <t>Diccionarios (dict) :</t>
+  </si>
+  <si>
+    <t>Conjuntos (set):</t>
+  </si>
+  <si>
+    <t>Cadenas de texto (str):</t>
   </si>
   <si>
     <t>&lt;p&gt;&lt;b&gt;Errores comunes:&lt;/b&gt; ggdgd&lt;/p&gt;</t>
@@ -749,7 +764,7 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>2028-10-08T10:01:49-05:00</t>
+    <t>2025-10-28T10:49:04-05:00</t>
   </si>
   <si>
     <t>&lt;?xml version='1.0' encoding='UTF-8'?&gt;</t>
@@ -1082,7 +1097,25 @@
     <t>&lt;!-- Analisis de Datos --&gt;</t>
   </si>
   <si>
-    <t>analisis-de-datos-0002_fundamento_de_python.htmlml</t>
+    <t>analisis-de-datos-0002_fundamento_de_python.html</t>
+  </si>
+  <si>
+    <t>analisis-de-datos-0003_tipos_de_datos_simples_en_python.html</t>
+  </si>
+  <si>
+    <t>analisis-de-datos-0004_estructuras_de_datos_en_Python.html</t>
+  </si>
+  <si>
+    <t>analisis-de-datos-0005_operadores_basicos_en_python.html</t>
+  </si>
+  <si>
+    <t>analisis-de-datos-0006_funciones_de_entrada_y_salida_en_python.html</t>
+  </si>
+  <si>
+    <t>analisis-de-datos-0007_condicionales_en_python.html</t>
+  </si>
+  <si>
+    <t>analisis-de-datos-0008_bucles_en_python.html</t>
   </si>
   <si>
     <t>&lt;/urlset&gt;</t>
@@ -4366,120 +4399,120 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" s="36" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="37"/>
       <c r="B4" s="36" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="38" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="38" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="38"/>
       <c r="B7" s="36" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="38" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>112</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="38" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="37"/>
       <c r="B10" s="36" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="37"/>
       <c r="B11" s="36" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="37"/>
       <c r="B12" s="36" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="37"/>
       <c r="B13" s="36" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="38"/>
       <c r="B14" s="36" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4488,51 +4521,51 @@
         <v>119</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="38"/>
       <c r="D16" s="36" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="38"/>
       <c r="D17" s="36" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="38"/>
       <c r="D18" s="36" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" s="36" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="39"/>
       <c r="D20" s="36" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" s="36" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" s="36" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" s="36" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -4563,11 +4596,11 @@
     <row r="1" ht="14.55"/>
     <row r="2" s="4" customFormat="1" ht="18.15" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="B2" s="6"/>
       <c r="D2" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="4" t="str">
@@ -4577,10 +4610,10 @@
     </row>
     <row r="3" s="4" customFormat="1" ht="18.15" spans="4:6">
       <c r="D3" s="8" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="F3" s="4" t="str">
         <f>""</f>
@@ -4589,14 +4622,14 @@
     </row>
     <row r="4" s="4" customFormat="1" ht="17.4" spans="1:6">
       <c r="A4" s="9" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="B4" s="10"/>
       <c r="D4" s="8" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="F4" s="4" t="str">
         <f>""</f>
@@ -4605,16 +4638,16 @@
     </row>
     <row r="5" s="4" customFormat="1" ht="17.4" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="F5" s="4" t="str">
         <f>""</f>
@@ -4623,10 +4656,10 @@
     </row>
     <row r="6" s="4" customFormat="1" ht="17.4" spans="1:5">
       <c r="A6" s="13" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -4643,10 +4676,10 @@
     </row>
     <row r="8" s="4" customFormat="1" ht="18.15" spans="1:5">
       <c r="A8" s="14" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -4657,7 +4690,7 @@
     </row>
     <row r="10" s="4" customFormat="1" ht="17.4" spans="1:5">
       <c r="A10" s="9" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="B10" s="10"/>
       <c r="D10" s="8"/>
@@ -4665,40 +4698,40 @@
     </row>
     <row r="11" s="4" customFormat="1" ht="17.4" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
     <row r="12" s="4" customFormat="1" ht="17.4" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
     <row r="13" s="4" customFormat="1" ht="17.4" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
     </row>
     <row r="14" s="4" customFormat="1" ht="17.4" spans="1:5">
       <c r="A14" s="11" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -4719,90 +4752,90 @@
     </row>
     <row r="17" s="4" customFormat="1" ht="17.4" spans="1:5">
       <c r="A17" s="9" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
     <row r="18" s="4" customFormat="1" ht="17.4" spans="1:5">
       <c r="A18" s="11" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
     </row>
     <row r="19" s="4" customFormat="1" ht="17.4" spans="1:5">
       <c r="A19" s="11" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
     </row>
     <row r="20" s="4" customFormat="1" ht="17.4" spans="1:5">
       <c r="A20" s="11" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
     </row>
     <row r="21" s="4" customFormat="1" ht="17.4" spans="1:5">
       <c r="A21" s="11" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
     </row>
     <row r="22" s="4" customFormat="1" ht="17.4" spans="1:5">
       <c r="A22" s="11" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
     </row>
     <row r="23" s="4" customFormat="1" ht="17.4" spans="1:5">
       <c r="A23" s="11" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
     </row>
     <row r="24" s="4" customFormat="1" ht="17.4" spans="1:5">
       <c r="A24" s="11" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
     </row>
     <row r="25" s="4" customFormat="1" ht="17.4" spans="1:5">
       <c r="A25" s="11" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="8"/>
@@ -4810,10 +4843,10 @@
     </row>
     <row r="26" s="4" customFormat="1" ht="18.15" spans="1:5">
       <c r="A26" s="16" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -4824,30 +4857,30 @@
     </row>
     <row r="28" s="4" customFormat="1" ht="17.4" spans="1:5">
       <c r="A28" s="9" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
     </row>
     <row r="29" s="4" customFormat="1" ht="17.4" spans="1:5">
       <c r="A29" s="11" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
     </row>
     <row r="30" s="4" customFormat="1" ht="18.15" spans="1:5">
       <c r="A30" s="16" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -4858,199 +4891,199 @@
     </row>
     <row r="32" s="4" customFormat="1" ht="17.4" spans="1:5">
       <c r="A32" s="18" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
     </row>
     <row r="33" s="4" customFormat="1" ht="17.4" spans="1:5">
       <c r="A33" s="20" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
     </row>
     <row r="34" s="4" customFormat="1" spans="1:2">
       <c r="A34" s="20" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
     </row>
     <row r="35" s="4" customFormat="1" spans="1:2">
       <c r="A35" s="20" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
     </row>
     <row r="36" s="4" customFormat="1" ht="14.55" spans="1:2">
       <c r="A36" s="22" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
     </row>
     <row r="37" ht="14.55"/>
     <row r="38" s="4" customFormat="1" ht="17.4" spans="1:5">
       <c r="A38" s="9" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
     </row>
     <row r="39" s="4" customFormat="1" spans="1:2">
       <c r="A39" s="11" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
     </row>
     <row r="40" s="4" customFormat="1" spans="1:2">
       <c r="A40" s="11" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
     </row>
     <row r="41" s="4" customFormat="1" spans="1:2">
       <c r="A41" s="11" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
     </row>
     <row r="42" s="4" customFormat="1" spans="1:2">
       <c r="A42" s="11" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
     </row>
     <row r="43" s="4" customFormat="1" spans="1:2">
       <c r="A43" s="11" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="44" s="4" customFormat="1" spans="1:2">
       <c r="A44" s="11" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
     </row>
     <row r="45" s="4" customFormat="1" spans="1:4">
       <c r="A45" s="11" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="D45" s="24"/>
     </row>
     <row r="46" s="4" customFormat="1" spans="1:4">
       <c r="A46" s="11" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="D46" s="24"/>
     </row>
     <row r="47" s="4" customFormat="1" spans="1:4">
       <c r="A47" s="11" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="D47" s="24"/>
     </row>
     <row r="48" s="4" customFormat="1" spans="1:4">
       <c r="A48" s="11" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="D48" s="24"/>
     </row>
     <row r="49" s="4" customFormat="1" spans="1:2">
       <c r="A49" s="11" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50" s="4" customFormat="1" ht="17.4" spans="1:4">
       <c r="A50" s="11" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="D50" s="25"/>
     </row>
     <row r="51" s="4" customFormat="1" spans="1:2">
       <c r="A51" s="11" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
     </row>
     <row r="52" s="4" customFormat="1" spans="1:2">
       <c r="A52" s="11" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
     </row>
     <row r="53" s="4" customFormat="1" spans="1:2">
       <c r="A53" s="20" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
     </row>
     <row r="54" s="4" customFormat="1" ht="14.55" spans="1:2">
       <c r="A54" s="26" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
     </row>
     <row r="55" ht="14.55"/>
     <row r="56" s="4" customFormat="1" ht="17.4" spans="1:5">
       <c r="A56" s="9" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -5065,172 +5098,172 @@
     </row>
     <row r="58" s="4" customFormat="1" spans="1:4">
       <c r="A58" s="11" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="24"/>
     </row>
     <row r="59" s="4" customFormat="1" spans="1:4">
       <c r="A59" s="11" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="D59" s="24"/>
     </row>
     <row r="60" s="4" customFormat="1" spans="1:4">
       <c r="A60" s="11" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="D60" s="24"/>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="11" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
     </row>
     <row r="62" s="4" customFormat="1" ht="14.55" spans="1:2">
       <c r="A62" s="16" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
     </row>
     <row r="63" ht="14.55"/>
     <row r="64" s="4" customFormat="1" ht="17.4" spans="1:2">
       <c r="A64" s="9" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
     </row>
     <row r="65" s="4" customFormat="1" spans="1:2">
       <c r="A65" s="11" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
     </row>
     <row r="66" s="4" customFormat="1" spans="1:2">
       <c r="A66" s="11" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
     </row>
     <row r="67" s="4" customFormat="1" spans="1:2">
       <c r="A67" s="11" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
     </row>
     <row r="68" s="4" customFormat="1" spans="1:2">
       <c r="A68" s="11" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="69" s="4" customFormat="1" ht="17.4" spans="1:4">
       <c r="A69" s="11" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="D69" s="25"/>
     </row>
     <row r="70" s="4" customFormat="1" spans="1:2">
       <c r="A70" s="11" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
     </row>
     <row r="71" s="4" customFormat="1" spans="1:2">
       <c r="A71" s="11" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="72" s="4" customFormat="1" spans="1:2">
       <c r="A72" s="11" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="11" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
     </row>
     <row r="74" s="4" customFormat="1" spans="1:2">
       <c r="A74" s="28" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="28" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="B75" s="29"/>
     </row>
     <row r="76" s="4" customFormat="1" ht="14.55" spans="1:2">
       <c r="A76" s="30" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="B76" s="31"/>
     </row>
     <row r="77" ht="14.55"/>
     <row r="78" s="4" customFormat="1" ht="17.4" spans="1:4">
       <c r="A78" s="9" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="B78" s="17"/>
       <c r="D78" s="24"/>
     </row>
     <row r="79" s="4" customFormat="1" spans="1:2">
       <c r="A79" s="11" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
     </row>
     <row r="80" s="4" customFormat="1" spans="1:4">
       <c r="A80" s="11" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="D80" s="24"/>
     </row>
@@ -5245,107 +5278,107 @@
     </row>
     <row r="82" s="4" customFormat="1" spans="1:2">
       <c r="A82" s="11" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
     </row>
     <row r="83" s="4" customFormat="1" spans="1:2">
       <c r="A83" s="11" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
     </row>
     <row r="84" s="4" customFormat="1" spans="1:2">
       <c r="A84" s="11" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
     </row>
     <row r="85" s="4" customFormat="1" spans="1:2">
       <c r="A85" s="4" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
     </row>
     <row r="87" s="4" customFormat="1" spans="1:2">
       <c r="A87" s="32" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="B87" s="33" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
     </row>
     <row r="88" s="4" customFormat="1" spans="1:2">
       <c r="A88" s="32" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="B88" s="33" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
     </row>
     <row r="89" s="4" customFormat="1" ht="14.55" spans="1:2">
       <c r="A89" s="26" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
     </row>
     <row r="90" s="4" customFormat="1" ht="14.55" spans="2:2">
       <c r="B90" s="4" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
     </row>
     <row r="91" s="4" customFormat="1" ht="17.4" spans="1:2">
       <c r="A91" s="9" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="B91" s="17"/>
     </row>
     <row r="92" s="4" customFormat="1" spans="1:4">
       <c r="A92" s="11" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="D92" s="24"/>
     </row>
     <row r="93" s="4" customFormat="1" spans="1:4">
       <c r="A93" s="11" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="D93" s="24"/>
     </row>
     <row r="94" s="4" customFormat="1" spans="1:4">
       <c r="A94" s="11" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="B94" s="12"/>
       <c r="D94" s="24"/>
     </row>
     <row r="95" s="4" customFormat="1" ht="14.55" spans="1:4">
       <c r="A95" s="16" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="B95" s="15"/>
       <c r="D95" s="24"/>
@@ -5355,123 +5388,123 @@
     </row>
     <row r="97" s="4" customFormat="1" ht="17.4" spans="1:2">
       <c r="A97" s="9" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
     </row>
     <row r="98" s="4" customFormat="1" spans="1:2">
       <c r="A98" s="11" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
     </row>
     <row r="99" s="4" customFormat="1" spans="1:2">
       <c r="A99" s="11" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
     </row>
     <row r="100" s="4" customFormat="1" spans="1:2">
       <c r="A100" s="11" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
     </row>
     <row r="101" s="4" customFormat="1" spans="1:2">
       <c r="A101" s="11" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
     </row>
     <row r="102" s="4" customFormat="1" spans="1:2">
       <c r="A102" s="11" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
     </row>
     <row r="103" s="4" customFormat="1" spans="1:2">
       <c r="A103" s="11" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
     </row>
     <row r="104" s="4" customFormat="1" ht="17.4" spans="1:4">
       <c r="A104" s="11" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="D104" s="25"/>
     </row>
     <row r="105" s="4" customFormat="1" spans="1:2">
       <c r="A105" s="11" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
     </row>
     <row r="106" s="4" customFormat="1" spans="1:2">
       <c r="A106" s="11" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
     </row>
     <row r="107" s="4" customFormat="1" spans="1:2">
       <c r="A107" s="11" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="11" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
     </row>
     <row r="109" s="4" customFormat="1" spans="1:2">
       <c r="A109" s="32" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="B109" s="33" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="32" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="B110" s="33" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
     </row>
     <row r="111" s="4" customFormat="1" ht="14.55" spans="1:2">
       <c r="A111" s="26" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="112" s="4" customFormat="1" ht="18.15" spans="4:4">
@@ -5479,75 +5512,75 @@
     </row>
     <row r="113" ht="17.4" spans="1:2">
       <c r="A113" s="9" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="11" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
     </row>
     <row r="115" s="4" customFormat="1" spans="1:2">
       <c r="A115" s="11" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
     </row>
     <row r="116" ht="14.55" spans="1:2">
       <c r="A116" s="16" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
     </row>
     <row r="117" ht="14.55"/>
     <row r="118" s="4" customFormat="1" ht="17.4" spans="1:2">
       <c r="A118" s="9" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
     </row>
     <row r="119" s="4" customFormat="1" spans="1:2">
       <c r="A119" s="11" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
     </row>
     <row r="120" s="4" customFormat="1" spans="1:2">
       <c r="A120" s="11" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="11" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
     </row>
     <row r="122" s="4" customFormat="1" ht="14.55" spans="1:2">
       <c r="A122" s="16" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
     </row>
     <row r="123" s="4" customFormat="1" ht="14.55" spans="1:1">
@@ -5555,205 +5588,205 @@
     </row>
     <row r="124" s="4" customFormat="1" ht="17.4" spans="1:2">
       <c r="A124" s="9" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
     </row>
     <row r="125" s="4" customFormat="1" spans="1:2">
       <c r="A125" s="11" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
     </row>
     <row r="126" s="4" customFormat="1" ht="13" customHeight="1" spans="1:2">
       <c r="A126" s="11" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
     </row>
     <row r="127" s="4" customFormat="1" ht="14.55" spans="1:2">
       <c r="A127" s="16" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
     </row>
     <row r="128" ht="14.55"/>
     <row r="129" s="4" customFormat="1" ht="17.4" spans="1:2">
       <c r="A129" s="34" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="B129" s="35" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
     </row>
     <row r="130" s="4" customFormat="1" ht="14.55" spans="1:2">
       <c r="A130" s="26" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="B130" s="27" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
     </row>
     <row r="131" ht="14.55"/>
     <row r="132" s="4" customFormat="1" ht="17.4" spans="1:2">
       <c r="A132" s="34" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="B132" s="35" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
     </row>
     <row r="133" s="4" customFormat="1" ht="14.55" spans="1:2">
       <c r="A133" s="26" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="B133" s="27" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
     </row>
     <row r="134" ht="14.55"/>
     <row r="135" s="4" customFormat="1" ht="17.4" spans="1:2">
       <c r="A135" s="34" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="B135" s="35" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
     </row>
     <row r="136" s="4" customFormat="1" spans="1:2">
       <c r="A136" s="32" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="B136" s="33" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
     </row>
     <row r="137" s="4" customFormat="1" spans="1:2">
       <c r="A137" s="32" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="B137" s="33" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
     </row>
     <row r="138" s="4" customFormat="1" spans="1:2">
       <c r="A138" s="32" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="B138" s="33" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
     </row>
     <row r="139" s="4" customFormat="1" spans="1:2">
       <c r="A139" s="32" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="B139" s="33" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
     </row>
     <row r="140" s="4" customFormat="1" spans="1:2">
       <c r="A140" s="32" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="B140" s="33" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
     </row>
     <row r="141" s="4" customFormat="1" spans="1:2">
       <c r="A141" s="32" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="B141" s="33" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
     </row>
     <row r="142" s="4" customFormat="1" spans="1:2">
       <c r="A142" s="32" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="B142" s="33" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
     </row>
     <row r="143" s="4" customFormat="1" spans="1:2">
       <c r="A143" s="32" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="B143" s="33" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="144" s="4" customFormat="1" spans="1:2">
       <c r="A144" s="32" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="B144" s="33" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
     </row>
     <row r="145" s="4" customFormat="1" spans="1:2">
       <c r="A145" s="32" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="B145" s="33" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
     </row>
     <row r="146" s="4" customFormat="1" spans="1:2">
       <c r="A146" s="32" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="B146" s="33" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
     </row>
     <row r="147" s="4" customFormat="1" spans="1:2">
       <c r="A147" s="32" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="B147" s="33" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
     </row>
     <row r="148" s="4" customFormat="1" spans="1:2">
       <c r="A148" s="32" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="B148" s="33" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
     </row>
     <row r="149" s="4" customFormat="1" spans="1:2">
       <c r="A149" s="32" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="B149" s="33" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
     </row>
     <row r="150" s="4" customFormat="1" spans="1:2">
       <c r="A150" s="32" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="B150" s="33" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
     </row>
     <row r="151" s="4" customFormat="1" ht="14.55" spans="1:2">
       <c r="A151" s="26" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="B151" s="27" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -6449,147 +6482,147 @@
   <sheetData>
     <row r="1" ht="22.8" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="3" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="3" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="3" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="3" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
     </row>
     <row r="26" ht="22.8" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="2" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="3" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="2" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="3" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="3" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="3" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="2" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="3" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="3" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="3" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -31268,7 +31301,7 @@
     <row r="156" spans="1:6">
       <c r="A156" s="130"/>
       <c r="B156" s="133" t="str">
-        <f t="shared" ref="B156:B159" si="29">""</f>
+        <f t="shared" ref="B156:B160" si="29">""</f>
         <v/>
       </c>
       <c r="C156" s="129" t="str">
@@ -31332,7 +31365,7 @@
     <row r="160" spans="1:6">
       <c r="A160" s="138"/>
       <c r="B160" s="139" t="str">
-        <f>""</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C160" s="123" t="s">
@@ -32653,10 +32686,10 @@
   <sheetPr/>
   <dimension ref="A1:L213"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+      <selection pane="bottomLeft" activeCell="D177" sqref="D177:D179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" zeroHeight="1"/>
@@ -34701,7 +34734,7 @@
     <row r="129" spans="1:6">
       <c r="A129" s="138"/>
       <c r="B129" s="139" t="str">
-        <f>""</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="C129" s="115" t="str">
@@ -34709,7 +34742,7 @@
         <v/>
       </c>
       <c r="D129" s="111" t="str">
-        <f>""</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F129" s="128"/>
@@ -34717,7 +34750,7 @@
     <row r="130" spans="1:6">
       <c r="A130" s="138"/>
       <c r="B130" s="139" t="str">
-        <f>""</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="C130" s="123" t="s">
@@ -35901,9 +35934,9 @@
   <dimension ref="A1:X463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30:C35"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -35932,7 +35965,7 @@
     <col min="24" max="24" width="41.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24">
+    <row r="1" ht="14.55" spans="2:24">
       <c r="B1" t="s">
         <v>172</v>
       </c>
@@ -52225,7 +52258,7 @@
       </c>
       <c r="U349" s="109"/>
     </row>
-    <row r="350" spans="1:21">
+    <row r="350" ht="14.55" spans="1:21">
       <c r="A350" s="101" t="str">
         <f t="shared" si="188"/>
         <v/>
@@ -52264,7 +52297,7 @@
       </c>
       <c r="U350" s="110"/>
     </row>
-    <row r="351" spans="1:20">
+    <row r="351" ht="14.55" spans="1:20">
       <c r="A351" s="105" t="str">
         <f t="shared" si="188"/>
         <v/>
@@ -52487,7 +52520,7 @@
       </c>
       <c r="U356" s="109"/>
     </row>
-    <row r="357" spans="1:21">
+    <row r="357" ht="14.55" spans="1:21">
       <c r="A357" s="101" t="str">
         <f t="shared" si="191"/>
         <v/>
@@ -52526,7 +52559,7 @@
       </c>
       <c r="U357" s="110"/>
     </row>
-    <row r="358" spans="1:20">
+    <row r="358" ht="14.55" spans="1:20">
       <c r="A358" s="105" t="str">
         <f t="shared" si="191"/>
         <v/>
@@ -52749,7 +52782,7 @@
       </c>
       <c r="U363" s="109"/>
     </row>
-    <row r="364" spans="1:21">
+    <row r="364" ht="14.55" spans="1:21">
       <c r="A364" s="101" t="str">
         <f t="shared" si="194"/>
         <v/>
@@ -52788,7 +52821,7 @@
       </c>
       <c r="U364" s="110"/>
     </row>
-    <row r="365" spans="1:20">
+    <row r="365" ht="14.55" spans="1:20">
       <c r="A365" s="105" t="str">
         <f t="shared" si="194"/>
         <v/>
@@ -53011,7 +53044,7 @@
       </c>
       <c r="U370" s="109"/>
     </row>
-    <row r="371" spans="1:21">
+    <row r="371" ht="14.55" spans="1:21">
       <c r="A371" s="101" t="str">
         <f t="shared" si="197"/>
         <v/>
@@ -53050,7 +53083,7 @@
       </c>
       <c r="U371" s="110"/>
     </row>
-    <row r="372" spans="1:20">
+    <row r="372" ht="14.55" spans="1:20">
       <c r="A372" s="105" t="str">
         <f t="shared" si="197"/>
         <v/>
@@ -53273,7 +53306,7 @@
       </c>
       <c r="U377" s="109"/>
     </row>
-    <row r="378" spans="1:21">
+    <row r="378" ht="14.55" spans="1:21">
       <c r="A378" s="101" t="str">
         <f t="shared" si="200"/>
         <v/>
@@ -53312,7 +53345,7 @@
       </c>
       <c r="U378" s="110"/>
     </row>
-    <row r="379" spans="1:20">
+    <row r="379" ht="14.55" spans="1:20">
       <c r="A379" s="105" t="str">
         <f t="shared" si="200"/>
         <v/>
@@ -53535,7 +53568,7 @@
       </c>
       <c r="U384" s="109"/>
     </row>
-    <row r="385" spans="1:21">
+    <row r="385" ht="14.55" spans="1:21">
       <c r="A385" s="101" t="str">
         <f t="shared" si="203"/>
         <v/>
@@ -53574,7 +53607,7 @@
       </c>
       <c r="U385" s="110"/>
     </row>
-    <row r="386" spans="1:20">
+    <row r="386" ht="14.55" spans="1:20">
       <c r="A386" s="105" t="str">
         <f t="shared" si="203"/>
         <v/>
@@ -53738,7 +53771,7 @@
       </c>
       <c r="U391" s="109"/>
     </row>
-    <row r="392" spans="7:21">
+    <row r="392" ht="14.55" spans="7:21">
       <c r="G392" s="104" t="str">
         <f t="shared" si="206"/>
         <v/>
@@ -53766,7 +53799,7 @@
       </c>
       <c r="U392" s="110"/>
     </row>
-    <row r="393" spans="7:20">
+    <row r="393" ht="14.55" spans="7:20">
       <c r="G393" s="95" t="str">
         <f t="shared" si="206"/>
         <v/>
@@ -53919,7 +53952,7 @@
       </c>
       <c r="U398" s="109"/>
     </row>
-    <row r="399" spans="7:21">
+    <row r="399" ht="14.55" spans="7:21">
       <c r="G399" s="104" t="str">
         <f t="shared" si="208"/>
         <v/>
@@ -53947,7 +53980,7 @@
       </c>
       <c r="U399" s="110"/>
     </row>
-    <row r="400" spans="7:20">
+    <row r="400" ht="14.55" spans="7:20">
       <c r="G400" s="95" t="str">
         <f t="shared" si="208"/>
         <v/>
@@ -54100,7 +54133,7 @@
       </c>
       <c r="U405" s="109"/>
     </row>
-    <row r="406" spans="7:21">
+    <row r="406" ht="14.55" spans="7:21">
       <c r="G406" s="104" t="str">
         <f t="shared" si="210"/>
         <v/>
@@ -54128,7 +54161,7 @@
       </c>
       <c r="U406" s="110"/>
     </row>
-    <row r="407" spans="7:20">
+    <row r="407" ht="14.55" spans="7:20">
       <c r="G407" s="95" t="str">
         <f t="shared" si="210"/>
         <v/>
@@ -54281,7 +54314,7 @@
       </c>
       <c r="U412" s="109"/>
     </row>
-    <row r="413" spans="7:21">
+    <row r="413" ht="14.55" spans="7:21">
       <c r="G413" s="104" t="str">
         <f t="shared" si="212"/>
         <v/>
@@ -54309,7 +54342,7 @@
       </c>
       <c r="U413" s="110"/>
     </row>
-    <row r="414" spans="7:20">
+    <row r="414" ht="14.55" spans="7:20">
       <c r="G414" s="95" t="str">
         <f t="shared" si="212"/>
         <v/>
@@ -54462,7 +54495,7 @@
       </c>
       <c r="U419" s="109"/>
     </row>
-    <row r="420" spans="7:21">
+    <row r="420" ht="14.55" spans="7:21">
       <c r="G420" s="104" t="str">
         <f t="shared" si="214"/>
         <v/>
@@ -54490,7 +54523,7 @@
       </c>
       <c r="U420" s="110"/>
     </row>
-    <row r="421" spans="7:20">
+    <row r="421" ht="14.55" spans="7:20">
       <c r="G421" s="95" t="str">
         <f t="shared" si="214"/>
         <v/>
@@ -54579,7 +54612,7 @@
       </c>
       <c r="U426" s="109"/>
     </row>
-    <row r="427" spans="15:21">
+    <row r="427" ht="14.55" spans="15:21">
       <c r="O427" s="104" t="str">
         <f t="shared" si="216"/>
         <v/>
@@ -54594,7 +54627,7 @@
       </c>
       <c r="U427" s="110"/>
     </row>
-    <row r="428" spans="15:20">
+    <row r="428" ht="14.55" spans="15:20">
       <c r="O428" s="90" t="str">
         <f t="shared" si="216"/>
         <v/>
@@ -54674,7 +54707,7 @@
       </c>
       <c r="U433" s="109"/>
     </row>
-    <row r="434" spans="15:21">
+    <row r="434" ht="14.55" spans="15:21">
       <c r="O434" s="104" t="str">
         <f t="shared" si="217"/>
         <v/>
@@ -54689,7 +54722,7 @@
       </c>
       <c r="U434" s="110"/>
     </row>
-    <row r="435" spans="15:20">
+    <row r="435" ht="14.55" spans="15:20">
       <c r="O435" s="90" t="str">
         <f t="shared" si="217"/>
         <v/>
@@ -54769,7 +54802,7 @@
       </c>
       <c r="U440" s="109"/>
     </row>
-    <row r="441" spans="15:21">
+    <row r="441" ht="14.55" spans="15:21">
       <c r="O441" s="104" t="str">
         <f t="shared" si="218"/>
         <v/>
@@ -54784,7 +54817,7 @@
       </c>
       <c r="U441" s="110"/>
     </row>
-    <row r="442" spans="15:20">
+    <row r="442" ht="14.55" spans="15:20">
       <c r="O442" s="90" t="str">
         <f t="shared" si="218"/>
         <v/>
@@ -54864,7 +54897,7 @@
       </c>
       <c r="U447" s="109"/>
     </row>
-    <row r="448" spans="15:21">
+    <row r="448" ht="14.55" spans="15:21">
       <c r="O448" s="104" t="str">
         <f t="shared" si="219"/>
         <v/>
@@ -54879,7 +54912,7 @@
       </c>
       <c r="U448" s="110"/>
     </row>
-    <row r="449" spans="15:20">
+    <row r="449" ht="14.55" spans="15:20">
       <c r="O449" s="90" t="str">
         <f t="shared" si="219"/>
         <v/>
@@ -54959,7 +54992,7 @@
       </c>
       <c r="U454" s="109"/>
     </row>
-    <row r="455" spans="15:21">
+    <row r="455" ht="14.55" spans="15:21">
       <c r="O455" s="104" t="str">
         <f t="shared" si="220"/>
         <v/>
@@ -54974,7 +55007,7 @@
       </c>
       <c r="U455" s="110"/>
     </row>
-    <row r="456" spans="15:20">
+    <row r="456" ht="14.55" spans="15:20">
       <c r="O456" s="90" t="str">
         <f t="shared" si="220"/>
         <v/>
@@ -55054,7 +55087,7 @@
       </c>
       <c r="U461" s="109"/>
     </row>
-    <row r="462" spans="15:21">
+    <row r="462" ht="14.55" spans="15:21">
       <c r="O462" s="104" t="str">
         <f t="shared" si="221"/>
         <v/>
@@ -55069,7 +55102,7 @@
       </c>
       <c r="U462" s="110"/>
     </row>
-    <row r="463" spans="15:20">
+    <row r="463" ht="14.55" spans="15:20">
       <c r="O463" s="90" t="str">
         <f t="shared" si="221"/>
         <v/>
@@ -55866,8 +55899,8 @@
   <sheetPr/>
   <dimension ref="A1:R122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28:H29"/>
+    <sheetView topLeftCell="G29" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50:H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.8" defaultRowHeight="13.8"/>
@@ -56709,7 +56742,7 @@
       </c>
       <c r="B28" s="71" t="str">
         <f t="shared" ref="B28:B33" si="11">IF(G28&lt;&gt;"",CONCATENATE(A28,G28,C28),"")</f>
-        <v>&lt;li&gt;Evitar variables globales cuando sea posible.&lt;/li&gt;</v>
+        <v>&lt;li&gt;Números (enteros, flotantes y complejos)&lt;/li&gt;</v>
       </c>
       <c r="C28" s="71" t="str">
         <f t="shared" ref="C28:C33" si="12">IF(G28&lt;&gt;"","&lt;/li&gt;","")</f>
@@ -56726,7 +56759,7 @@
       </c>
       <c r="H28" s="67" t="str">
         <f t="shared" ref="H28:H35" si="14">IF(G28&lt;&gt;"",CONCATENATE(A28,G28,E28),IF(G27&lt;&gt;"","&lt;/ul&gt;",""))</f>
-        <v>&lt;li&gt;Evitar variables globales cuando sea posible.&lt;/li&gt;</v>
+        <v>&lt;li&gt;Números (enteros, flotantes y complejos)&lt;/li&gt;</v>
       </c>
       <c r="I28" s="67"/>
       <c r="J28" s="60" t="s">
@@ -56743,7 +56776,7 @@
       </c>
       <c r="B29" s="62" t="str">
         <f t="shared" si="11"/>
-        <v>&lt;li&gt;Retornar valores útiles en lugar de imprimir directamente dentro de la función.&lt;/li&gt;</v>
+        <v>&lt;li&gt;Cadenas de Texto (Strings)&lt;/li&gt;</v>
       </c>
       <c r="C29" s="62" t="str">
         <f t="shared" si="12"/>
@@ -56760,7 +56793,7 @@
       </c>
       <c r="H29" s="67" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;li&gt;Retornar valores útiles en lugar de imprimir directamente dentro de la función.&lt;/li&gt;</v>
+        <v>&lt;li&gt;Cadenas de Texto (Strings)&lt;/li&gt;</v>
       </c>
       <c r="I29" s="67"/>
       <c r="J29" s="60" t="s">
@@ -56773,26 +56806,28 @@
     <row r="30" s="60" customFormat="1" spans="1:18">
       <c r="A30" s="63" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>&lt;li&gt;</v>
       </c>
       <c r="B30" s="62" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>&lt;li&gt;Booleanos (True, False)&lt;/li&gt;</v>
       </c>
       <c r="C30" s="62" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>&lt;/li&gt;</v>
       </c>
       <c r="D30" s="62"/>
       <c r="E30" s="62" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>&lt;/li&gt;</v>
       </c>
       <c r="F30" s="62"/>
-      <c r="G30" s="66"/>
+      <c r="G30" s="66" t="s">
+        <v>206</v>
+      </c>
       <c r="H30" s="67" t="str">
         <f t="shared" si="14"/>
-        <v>&lt;/ul&gt;</v>
+        <v>&lt;li&gt;Booleanos (True, False)&lt;/li&gt;</v>
       </c>
       <c r="I30" s="67"/>
       <c r="J30" s="60" t="s">
@@ -56804,26 +56839,28 @@
     <row r="31" s="60" customFormat="1" spans="1:18">
       <c r="A31" s="63" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>&lt;li&gt;</v>
       </c>
       <c r="B31" s="62" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>&lt;li&gt;Conversión de Tipos (Casting)&lt;/li&gt;</v>
       </c>
       <c r="C31" s="62" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>&lt;/li&gt;</v>
       </c>
       <c r="D31" s="62"/>
       <c r="E31" s="62" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>&lt;/li&gt;</v>
       </c>
       <c r="F31" s="62"/>
-      <c r="G31" s="66"/>
+      <c r="G31" s="66" t="s">
+        <v>207</v>
+      </c>
       <c r="H31" s="67" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>&lt;li&gt;Conversión de Tipos (Casting)&lt;/li&gt;</v>
       </c>
       <c r="I31" s="67"/>
       <c r="J31" s="60" t="s">
@@ -56855,7 +56892,7 @@
       <c r="G32" s="66"/>
       <c r="H32" s="67" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>&lt;/ul&gt;</v>
       </c>
       <c r="I32" s="67"/>
       <c r="J32" s="60" t="s">
@@ -57339,7 +57376,7 @@
     <row r="49" ht="14.55" spans="7:9">
       <c r="G49" s="63"/>
       <c r="H49" s="60" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I49" s="60"/>
     </row>
@@ -57350,7 +57387,7 @@
       <c r="E50" s="64"/>
       <c r="F50" s="62"/>
       <c r="G50" s="73" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H50" s="65" t="s">
         <v>195</v>
@@ -57363,7 +57400,7 @@
       </c>
       <c r="B51" s="62" t="str">
         <f t="shared" ref="B51:B67" si="21">IF(F51&lt;&gt;"",LEFT(F51,FIND(":",F51,1)-1),"")</f>
-        <v>*args</v>
+        <v>Listas (list) </v>
       </c>
       <c r="C51" s="62" t="str">
         <f t="shared" ref="C51:C67" si="22">IF(G51&lt;&gt;"","&lt;/code&gt;","")</f>
@@ -57371,7 +57408,7 @@
       </c>
       <c r="D51" s="62" t="str">
         <f t="shared" ref="D51:D67" si="23">IF(F51&lt;&gt;"",RIGHT(F51,LEN(G51)-FIND(":",G51,1)),"")</f>
-        <v> Para argumentos posicionales variables.</v>
+        <v/>
       </c>
       <c r="E51" s="62" t="str">
         <f t="shared" ref="E51:E67" si="24">IF(G51&lt;&gt;"","&lt;/li&gt;","")</f>
@@ -57379,14 +57416,14 @@
       </c>
       <c r="F51" s="62" t="str">
         <f t="shared" ref="F51:F67" si="25">IF(G51="","",SUBSTITUTE(SUBSTITUTE(G51,"&lt;","&amp;lt;"),"&gt;","&amp;gt;"))</f>
-        <v>*args: Para argumentos posicionales variables.</v>
+        <v>Listas (list) :</v>
       </c>
       <c r="G51" s="66" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H51" s="67" t="str">
         <f>IF(G51&lt;&gt;"",CONCATENATE(A51,B51,C51,":",D51,E51),IF(G50&lt;&gt;"","&lt;/ul&gt;",""))</f>
-        <v>&lt;li&gt;&lt;code class="language-py"&gt;*args&lt;/code&gt;: Para argumentos posicionales variables.&lt;/li&gt;</v>
+        <v>&lt;li&gt;&lt;code class="language-py"&gt;Listas (list) &lt;/code&gt;:&lt;/li&gt;</v>
       </c>
       <c r="I51" s="74"/>
     </row>
@@ -57397,7 +57434,7 @@
       </c>
       <c r="B52" s="62" t="str">
         <f t="shared" si="21"/>
-        <v>**kwargs</v>
+        <v>Tuplas (tuple) </v>
       </c>
       <c r="C52" s="62" t="str">
         <f t="shared" si="22"/>
@@ -57405,7 +57442,7 @@
       </c>
       <c r="D52" s="62" t="str">
         <f t="shared" si="23"/>
-        <v> Para argumentos con nombre variables.</v>
+        <v/>
       </c>
       <c r="E52" s="62" t="str">
         <f t="shared" si="24"/>
@@ -57413,14 +57450,14 @@
       </c>
       <c r="F52" s="62" t="str">
         <f t="shared" si="25"/>
-        <v>**kwargs: Para argumentos con nombre variables.</v>
+        <v>Tuplas (tuple) :</v>
       </c>
       <c r="G52" s="66" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H52" s="67" t="str">
         <f t="shared" ref="H51:H67" si="26">IF(G52&lt;&gt;"",CONCATENATE(A52,B52,C52,":",D52,E52),IF(G51&lt;&gt;"","&lt;/ul&gt;",""))</f>
-        <v>&lt;li&gt;&lt;code class="language-py"&gt;**kwargs&lt;/code&gt;: Para argumentos con nombre variables.&lt;/li&gt;</v>
+        <v>&lt;li&gt;&lt;code class="language-py"&gt;Tuplas (tuple) &lt;/code&gt;:&lt;/li&gt;</v>
       </c>
       <c r="I52" s="74"/>
       <c r="L52" s="77"/>
@@ -57428,15 +57465,15 @@
     <row r="53" ht="14.4" spans="1:12">
       <c r="A53" s="62" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>&lt;li&gt;&lt;code class="language-py"&gt;</v>
       </c>
       <c r="B53" s="62" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>Diccionarios (dict) </v>
       </c>
       <c r="C53" s="62" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>&lt;/code&gt;</v>
       </c>
       <c r="D53" s="62" t="str">
         <f t="shared" si="23"/>
@@ -57444,16 +57481,18 @@
       </c>
       <c r="E53" s="62" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>&lt;/li&gt;</v>
       </c>
       <c r="F53" s="62" t="str">
         <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="G53" s="66"/>
+        <v>Diccionarios (dict) :</v>
+      </c>
+      <c r="G53" s="66" t="s">
+        <v>212</v>
+      </c>
       <c r="H53" s="67" t="str">
         <f t="shared" si="26"/>
-        <v>&lt;/ul&gt;</v>
+        <v>&lt;li&gt;&lt;code class="language-py"&gt;Diccionarios (dict) &lt;/code&gt;:&lt;/li&gt;</v>
       </c>
       <c r="I53" s="74"/>
       <c r="L53" s="78"/>
@@ -57461,15 +57500,15 @@
     <row r="54" ht="14.4" spans="1:12">
       <c r="A54" s="62" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>&lt;li&gt;&lt;code class="language-py"&gt;</v>
       </c>
       <c r="B54" s="62" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>Conjuntos (set)</v>
       </c>
       <c r="C54" s="62" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>&lt;/code&gt;</v>
       </c>
       <c r="D54" s="62" t="str">
         <f t="shared" si="23"/>
@@ -57477,16 +57516,18 @@
       </c>
       <c r="E54" s="62" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>&lt;/li&gt;</v>
       </c>
       <c r="F54" s="62" t="str">
         <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="G54" s="66"/>
+        <v>Conjuntos (set):</v>
+      </c>
+      <c r="G54" s="66" t="s">
+        <v>213</v>
+      </c>
       <c r="H54" s="67" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>&lt;li&gt;&lt;code class="language-py"&gt;Conjuntos (set)&lt;/code&gt;:&lt;/li&gt;</v>
       </c>
       <c r="I54" s="74"/>
       <c r="L54" s="78"/>
@@ -57494,15 +57535,15 @@
     <row r="55" spans="1:9">
       <c r="A55" s="62" t="str">
         <f t="shared" si="20"/>
-        <v/>
+        <v>&lt;li&gt;&lt;code class="language-py"&gt;</v>
       </c>
       <c r="B55" s="62" t="str">
         <f t="shared" si="21"/>
-        <v/>
+        <v>Cadenas de texto (str)</v>
       </c>
       <c r="C55" s="62" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>&lt;/code&gt;</v>
       </c>
       <c r="D55" s="62" t="str">
         <f t="shared" si="23"/>
@@ -57510,16 +57551,18 @@
       </c>
       <c r="E55" s="62" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>&lt;/li&gt;</v>
       </c>
       <c r="F55" s="62" t="str">
         <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="G55" s="66"/>
+        <v>Cadenas de texto (str):</v>
+      </c>
+      <c r="G55" s="66" t="s">
+        <v>214</v>
+      </c>
       <c r="H55" s="67" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>&lt;li&gt;&lt;code class="language-py"&gt;Cadenas de texto (str)&lt;/code&gt;:&lt;/li&gt;</v>
       </c>
       <c r="I55" s="74"/>
     </row>
@@ -57551,7 +57594,7 @@
       <c r="G56" s="66"/>
       <c r="H56" s="67" t="str">
         <f t="shared" si="26"/>
-        <v/>
+        <v>&lt;/ul&gt;</v>
       </c>
       <c r="I56" s="74"/>
     </row>
@@ -57925,7 +57968,7 @@
       <c r="E71" s="62"/>
       <c r="F71" s="62"/>
       <c r="H71" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="R71" s="74"/>
     </row>
@@ -57952,7 +57995,7 @@
       </c>
       <c r="F72" s="64"/>
       <c r="G72" s="82" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H72" s="67" t="str">
         <f t="shared" ref="H72:H88" si="32">IF(G72&lt;&gt;"",CONCATENATE(A72,B72,C72,":",D72,E72),"")</f>
@@ -57988,7 +58031,7 @@
       </c>
       <c r="F73" s="62"/>
       <c r="G73" s="66" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H73" s="67" t="str">
         <f t="shared" si="32"/>
@@ -58530,7 +58573,7 @@
       <c r="F90" s="61"/>
       <c r="G90"/>
       <c r="H90" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="I90" s="60"/>
       <c r="Q90" s="79"/>
@@ -58555,7 +58598,7 @@
       </c>
       <c r="F91" s="64"/>
       <c r="G91" s="82" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="H91" s="67" t="str">
         <f t="shared" ref="H91:H102" si="36">CONCATENATE(A91,G91,E91)</f>
@@ -58584,7 +58627,7 @@
       </c>
       <c r="F92" s="64"/>
       <c r="G92" s="66" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H92" s="67" t="str">
         <f t="shared" si="36"/>
@@ -58882,7 +58925,7 @@
       <c r="E105" s="64"/>
       <c r="F105" s="62"/>
       <c r="H105" s="60" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="I105" s="73"/>
     </row>
@@ -58909,7 +58952,7 @@
       </c>
       <c r="F106" s="62"/>
       <c r="G106" s="66" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="H106" s="67" t="str">
         <f t="shared" ref="H106:H122" si="42">IF(G106&lt;&gt;"",CONCATENATE(A106,B106,C106,":",D106,E106),"")</f>
@@ -59606,19 +59649,19 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E811"/>
+  <dimension ref="A1:E853"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A544" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A582" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A567"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="72.5" style="41" customWidth="1"/>
+    <col min="1" max="1" width="72.2" style="41" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="41" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="98.125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="59.2" style="42" customWidth="1"/>
     <col min="4" max="4" width="6.25" style="41" customWidth="1"/>
     <col min="5" max="5" width="66" style="41"/>
     <col min="6" max="6" width="16.25" style="41" customWidth="1"/>
@@ -59628,27 +59671,27 @@
   <sheetData>
     <row r="1" ht="16.95" spans="1:4">
       <c r="A1" s="44" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="44" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="41" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" ht="16.95" spans="1:1">
       <c r="A3" s="41" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" ht="17.7" spans="1:3">
       <c r="A4" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B4" s="47"/>
       <c r="C4" s="48"/>
@@ -59663,18 +59706,18 @@
         <v>https://eduardoherreraf.github.io/</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E5" s="52"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B6,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B6" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C6" s="53"/>
       <c r="E6" s="52"/>
@@ -59685,7 +59728,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C7" s="53"/>
       <c r="E7" s="52"/>
@@ -59705,21 +59748,21 @@
     </row>
     <row r="9" ht="16.95" spans="1:3">
       <c r="A9" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B9" s="56"/>
       <c r="C9" s="57"/>
     </row>
     <row r="10" ht="17.7" spans="1:3">
       <c r="A10" s="58" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B10" s="58"/>
       <c r="C10" s="58"/>
     </row>
     <row r="11" ht="17.7" spans="1:3">
       <c r="A11" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="48"/>
@@ -59734,18 +59777,18 @@
         <v>https://eduardoherreraf.github.io/bootstrap.html</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E12" s="52"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B13,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B13" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C13" s="53"/>
       <c r="E13" s="52"/>
@@ -59756,7 +59799,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C14" s="53"/>
       <c r="E14" s="52"/>
@@ -59771,19 +59814,19 @@
         <v>0.7</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" ht="16.95" spans="1:3">
       <c r="A16" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B16" s="56"/>
       <c r="C16" s="57"/>
     </row>
     <row r="17" ht="17.7" spans="1:3">
       <c r="A17" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B17" s="47"/>
       <c r="C17" s="48"/>
@@ -59798,18 +59841,18 @@
         <v>https://eduardoherreraf.github.io/git.html</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E18" s="52"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B19,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B19" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C19" s="53"/>
       <c r="E19" s="52"/>
@@ -59820,7 +59863,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C20" s="53"/>
       <c r="E20" s="52"/>
@@ -59835,19 +59878,19 @@
         <v>0.7</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" ht="16.95" spans="1:3">
       <c r="A22" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B22" s="56"/>
       <c r="C22" s="57"/>
     </row>
     <row r="23" ht="17.7" spans="1:3">
       <c r="A23" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B23" s="47"/>
       <c r="C23" s="48"/>
@@ -59862,18 +59905,18 @@
         <v>https://eduardoherreraf.github.io/javascript.html</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E24" s="52"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B25,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B25" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C25" s="53"/>
       <c r="E25" s="52"/>
@@ -59884,7 +59927,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C26" s="53"/>
       <c r="E26" s="52"/>
@@ -59899,19 +59942,19 @@
         <v>0.7</v>
       </c>
       <c r="C27" s="54" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" ht="16.95" spans="1:3">
       <c r="A28" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B28" s="56"/>
       <c r="C28" s="57"/>
     </row>
     <row r="29" ht="17.7" spans="1:3">
       <c r="A29" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B29" s="47"/>
       <c r="C29" s="48"/>
@@ -59926,18 +59969,18 @@
         <v>https://eduardoherreraf.github.io/photoshop.html</v>
       </c>
       <c r="C30" s="51" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E30" s="52"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B31,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B31" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C31" s="53"/>
       <c r="E31" s="52"/>
@@ -59948,7 +59991,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B32" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C32" s="53"/>
       <c r="E32" s="52"/>
@@ -59963,19 +60006,19 @@
         <v>0.7</v>
       </c>
       <c r="C33" s="54" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" ht="16.95" spans="1:3">
       <c r="A34" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B34" s="56"/>
       <c r="C34" s="57"/>
     </row>
     <row r="35" ht="17.7" spans="1:3">
       <c r="A35" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B35" s="47"/>
       <c r="C35" s="48"/>
@@ -59990,18 +60033,18 @@
         <v>https://eduardoherreraf.github.io/otrosTemas.html</v>
       </c>
       <c r="C36" s="51" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E36" s="52"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B37,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B37" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C37" s="53"/>
       <c r="E37" s="52"/>
@@ -60012,7 +60055,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B38" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C38" s="53"/>
       <c r="E38" s="52"/>
@@ -60027,19 +60070,19 @@
         <v>0.7</v>
       </c>
       <c r="C39" s="54" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" ht="16.95" spans="1:3">
       <c r="A40" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B40" s="56"/>
       <c r="C40" s="57"/>
     </row>
     <row r="41" ht="17.7" spans="1:3">
       <c r="A41" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B41" s="47"/>
       <c r="C41" s="48"/>
@@ -60054,18 +60097,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3.html</v>
       </c>
       <c r="C42" s="51" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E42" s="52"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B43,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B43" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C43" s="53"/>
       <c r="E43" s="52"/>
@@ -60076,7 +60119,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B44" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C44" s="53"/>
       <c r="E44" s="52"/>
@@ -60091,19 +60134,19 @@
         <v>0.7</v>
       </c>
       <c r="C45" s="54" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" ht="16.95" spans="1:3">
       <c r="A46" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B46" s="56"/>
       <c r="C46" s="57"/>
     </row>
     <row r="47" ht="17.7" spans="1:3">
       <c r="A47" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B47" s="47"/>
       <c r="C47" s="48"/>
@@ -60118,18 +60161,18 @@
         <v>https://eduardoherreraf.github.io/html.html</v>
       </c>
       <c r="C48" s="51" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E48" s="52"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B49,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B49" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C49" s="53"/>
       <c r="E49" s="52"/>
@@ -60140,7 +60183,7 @@
         <v>&lt;changefreq&gt;monthly&lt;/changefreq&gt;</v>
       </c>
       <c r="B50" s="50" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C50" s="53"/>
       <c r="E50" s="52"/>
@@ -60155,19 +60198,19 @@
         <v>0.7</v>
       </c>
       <c r="C51" s="54" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" ht="16.95" spans="1:3">
       <c r="A52" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B52" s="56"/>
       <c r="C52" s="57"/>
     </row>
     <row r="53" ht="17.7" spans="1:3">
       <c r="A53" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B53" s="47"/>
       <c r="C53" s="48"/>
@@ -60182,18 +60225,18 @@
         <v>https://eduardoherreraf.github.io/chatgpt</v>
       </c>
       <c r="C54" s="51" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E54" s="52"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B55,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B55" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C55" s="53"/>
       <c r="E55" s="52"/>
@@ -60204,7 +60247,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B56" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C56" s="53"/>
       <c r="E56" s="52"/>
@@ -60219,19 +60262,19 @@
         <v>0.7</v>
       </c>
       <c r="C57" s="54" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" ht="16.95" spans="1:3">
       <c r="A58" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B58" s="56"/>
       <c r="C58" s="57"/>
     </row>
     <row r="59" ht="17.7" spans="1:3">
       <c r="A59" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B59" s="47"/>
       <c r="C59" s="48"/>
@@ -60246,18 +60289,18 @@
         <v>https://eduardoherreraf.github.io/css</v>
       </c>
       <c r="C60" s="51" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E60" s="52"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B61,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B61" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C61" s="53"/>
       <c r="E61" s="52"/>
@@ -60268,7 +60311,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B62" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C62" s="53"/>
       <c r="E62" s="52"/>
@@ -60283,19 +60326,19 @@
         <v>0.7</v>
       </c>
       <c r="C63" s="54" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" ht="16.95" spans="1:3">
       <c r="A64" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B64" s="56"/>
       <c r="C64" s="57"/>
     </row>
     <row r="65" ht="17.7" spans="1:5">
       <c r="A65" s="58" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B65" s="58"/>
       <c r="C65" s="58"/>
@@ -60303,7 +60346,7 @@
     </row>
     <row r="66" ht="17.7" spans="1:3">
       <c r="A66" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B66" s="47"/>
       <c r="C66" s="48"/>
@@ -60318,18 +60361,18 @@
         <v>https://eduardoherreraf.github.io/bootstrap-instalacion_de_bootstrap_v5_con_npm_y_parcel.html</v>
       </c>
       <c r="C67" s="51" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E67" s="52"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B68,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B68" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C68" s="53"/>
       <c r="E68" s="52"/>
@@ -60340,7 +60383,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B69" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C69" s="53"/>
       <c r="E69" s="52"/>
@@ -60355,19 +60398,19 @@
         <v>0.6</v>
       </c>
       <c r="C70" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="71" ht="16.95" spans="1:3">
       <c r="A71" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B71" s="56"/>
       <c r="C71" s="57"/>
     </row>
     <row r="72" ht="17.7" spans="1:3">
       <c r="A72" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B72" s="47"/>
       <c r="C72" s="48"/>
@@ -60382,18 +60425,18 @@
         <v>https://eduardoherreraf.github.io/bootstrap-instalacion_de_bootstrap_v5_con_npm_y_vite.html</v>
       </c>
       <c r="C73" s="51" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E73" s="52"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B74,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B74" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C74" s="53"/>
       <c r="E74" s="52"/>
@@ -60404,7 +60447,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B75" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C75" s="53"/>
       <c r="E75" s="52"/>
@@ -60419,19 +60462,19 @@
         <v>0.6</v>
       </c>
       <c r="C76" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" ht="16.95" spans="1:3">
       <c r="A77" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B77" s="56"/>
       <c r="C77" s="57"/>
     </row>
     <row r="78" ht="17.7" spans="1:5">
       <c r="A78" s="58" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B78" s="58"/>
       <c r="C78" s="58"/>
@@ -60439,7 +60482,7 @@
     </row>
     <row r="79" ht="17.7" spans="1:3">
       <c r="A79" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B79" s="47"/>
       <c r="C79" s="48"/>
@@ -60454,18 +60497,18 @@
         <v>https://eduardoherreraf.github.io/git-01_como_eliminar_el_ultimo_commit_de_git.html</v>
       </c>
       <c r="C80" s="54" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E80" s="52"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B81,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B81" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C81" s="53"/>
       <c r="E81" s="52"/>
@@ -60476,7 +60519,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B82" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C82" s="53"/>
       <c r="E82" s="52"/>
@@ -60491,19 +60534,19 @@
         <v>0.6</v>
       </c>
       <c r="C83" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="84" ht="16.95" spans="1:3">
       <c r="A84" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B84" s="56"/>
       <c r="C84" s="57"/>
     </row>
     <row r="85" ht="17.7" spans="1:3">
       <c r="A85" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B85" s="47"/>
       <c r="C85" s="48"/>
@@ -60518,18 +60561,18 @@
         <v>https://eduardoherreraf.github.io/git-02_comandos_basicos_de_consola-terminal_cli_para_windows.html</v>
       </c>
       <c r="C86" s="54" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E86" s="52"/>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B87,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B87" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C87" s="53"/>
       <c r="E87" s="52"/>
@@ -60540,7 +60583,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B88" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C88" s="53"/>
       <c r="E88" s="52"/>
@@ -60555,19 +60598,19 @@
         <v>0.6</v>
       </c>
       <c r="C89" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="90" ht="16.95" spans="1:3">
       <c r="A90" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B90" s="56"/>
       <c r="C90" s="57"/>
     </row>
     <row r="91" ht="17.7" spans="1:3">
       <c r="A91" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B91" s="47"/>
       <c r="C91" s="48"/>
@@ -60582,18 +60625,18 @@
         <v>https://eduardoherreraf.github.io/git-03_introduccion_de_git_para_windows.html</v>
       </c>
       <c r="C92" s="54" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E92" s="52"/>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B93,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B93" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C93" s="53"/>
       <c r="E93" s="52"/>
@@ -60604,7 +60647,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B94" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C94" s="53"/>
       <c r="E94" s="52"/>
@@ -60619,19 +60662,19 @@
         <v>0.6</v>
       </c>
       <c r="C95" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="96" ht="16.95" spans="1:3">
       <c r="A96" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B96" s="56"/>
       <c r="C96" s="57"/>
     </row>
     <row r="97" ht="17.7" spans="1:3">
       <c r="A97" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B97" s="47"/>
       <c r="C97" s="48"/>
@@ -60646,18 +60689,18 @@
         <v>https://eduardoherreraf.github.io/git-04_configuracion_inicial_git.html</v>
       </c>
       <c r="C98" s="54" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E98" s="52"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B99,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B99" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C99" s="53"/>
       <c r="E99" s="52"/>
@@ -60668,7 +60711,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B100" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C100" s="53"/>
       <c r="E100" s="52"/>
@@ -60683,19 +60726,19 @@
         <v>0.6</v>
       </c>
       <c r="C101" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="102" ht="16.95" spans="1:3">
       <c r="A102" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B102" s="56"/>
       <c r="C102" s="57"/>
     </row>
     <row r="103" ht="17.7" spans="1:3">
       <c r="A103" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B103" s="47"/>
       <c r="C103" s="48"/>
@@ -60710,17 +60753,17 @@
         <v>https://eduardoherreraf.github.io/git-05_reiniciar_repositorio_en_git-github.html</v>
       </c>
       <c r="C104" s="54" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B105,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B105" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C105" s="53"/>
       <c r="E105" s="52"/>
@@ -60731,7 +60774,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B106" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C106" s="53"/>
       <c r="E106" s="52"/>
@@ -60746,20 +60789,20 @@
         <v>0.6</v>
       </c>
       <c r="C107" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E107" s="52"/>
     </row>
     <row r="108" ht="16.95" spans="1:3">
       <c r="A108" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B108" s="56"/>
       <c r="C108" s="57"/>
     </row>
     <row r="109" ht="17.7" spans="1:3">
       <c r="A109" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B109" s="47"/>
       <c r="C109" s="48"/>
@@ -60774,17 +60817,17 @@
         <v>https://eduardoherreraf.github.io/git-0006_Etiquetado_en_git.html</v>
       </c>
       <c r="C110" s="54" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B111,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B111" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C111" s="53"/>
       <c r="E111" s="52"/>
@@ -60795,7 +60838,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B112" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C112" s="53"/>
       <c r="E112" s="52"/>
@@ -60810,27 +60853,27 @@
         <v>0.6</v>
       </c>
       <c r="C113" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E113" s="52"/>
     </row>
     <row r="114" ht="16.95" spans="1:3">
       <c r="A114" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B114" s="56"/>
       <c r="C114" s="57"/>
     </row>
     <row r="115" ht="17.7" spans="1:3">
       <c r="A115" s="58" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B115" s="58"/>
       <c r="C115" s="58"/>
     </row>
     <row r="116" ht="17.7" spans="1:3">
       <c r="A116" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B116" s="47"/>
       <c r="C116" s="48"/>
@@ -60845,18 +60888,18 @@
         <v>https://eduardoherreraf.github.io/javascript-como_ejecutar_un_codigo_javascript.html</v>
       </c>
       <c r="C117" s="54" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E117" s="52"/>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B118,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B118" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C118" s="53"/>
       <c r="E118" s="52"/>
@@ -60867,7 +60910,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B119" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C119" s="53"/>
       <c r="E119" s="52"/>
@@ -60882,19 +60925,19 @@
         <v>0.6</v>
       </c>
       <c r="C120" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="121" ht="16.95" spans="1:3">
       <c r="A121" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B121" s="56"/>
       <c r="C121" s="57"/>
     </row>
     <row r="122" ht="17.7" spans="1:3">
       <c r="A122" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B122" s="47"/>
       <c r="C122" s="48"/>
@@ -60909,20 +60952,20 @@
         <v>https://eduardoherreraf.github.io/javascript-configurar_el_entorno_de_trabajo_javascript.html</v>
       </c>
       <c r="C123" s="54" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D123" s="41" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B124,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B124" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C124" s="53"/>
       <c r="E124" s="52"/>
@@ -60933,7 +60976,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B125" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C125" s="53"/>
       <c r="E125" s="52"/>
@@ -60948,27 +60991,27 @@
         <v>0.6</v>
       </c>
       <c r="C126" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E126" s="52"/>
     </row>
     <row r="127" ht="16.95" spans="1:3">
       <c r="A127" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B127" s="56"/>
       <c r="C127" s="57"/>
     </row>
     <row r="128" ht="17.7" spans="1:3">
       <c r="A128" s="58" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B128" s="58"/>
       <c r="C128" s="58"/>
     </row>
     <row r="129" ht="17.7" spans="1:3">
       <c r="A129" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B129" s="47"/>
       <c r="C129" s="48"/>
@@ -60983,18 +61026,18 @@
         <v>https://eduardoherreraf.github.io/photoshop-16_metadatos_y_exportacion.html</v>
       </c>
       <c r="C130" s="54" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E130" s="52"/>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B131,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B131" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C131" s="53"/>
       <c r="E131" s="52"/>
@@ -61005,7 +61048,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B132" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C132" s="53"/>
       <c r="E132" s="52"/>
@@ -61020,19 +61063,19 @@
         <v>0.6</v>
       </c>
       <c r="C133" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="134" ht="16.95" spans="1:3">
       <c r="A134" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B134" s="56"/>
       <c r="C134" s="57"/>
     </row>
     <row r="135" ht="17.7" spans="1:3">
       <c r="A135" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B135" s="47"/>
       <c r="C135" s="48"/>
@@ -61047,18 +61090,18 @@
         <v>https://eduardoherreraf.github.io/photoshop-15_filtros_licuar.html</v>
       </c>
       <c r="C136" s="54" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E136" s="52"/>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B137,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B137" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C137" s="53"/>
       <c r="E137" s="52"/>
@@ -61069,7 +61112,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B138" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C138" s="53"/>
       <c r="E138" s="52"/>
@@ -61084,19 +61127,19 @@
         <v>0.6</v>
       </c>
       <c r="C139" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="140" ht="16.95" spans="1:3">
       <c r="A140" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B140" s="56"/>
       <c r="C140" s="57"/>
     </row>
     <row r="141" ht="17.7" spans="1:3">
       <c r="A141" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B141" s="47"/>
       <c r="C141" s="48"/>
@@ -61111,18 +61154,18 @@
         <v>https://eduardoherreraf.github.io/photoshop-14_filtros_neurales.html</v>
       </c>
       <c r="C142" s="54" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E142" s="52"/>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B143,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B143" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C143" s="53"/>
       <c r="E143" s="52"/>
@@ -61133,7 +61176,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B144" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C144" s="53"/>
       <c r="E144" s="52"/>
@@ -61148,19 +61191,19 @@
         <v>0.6</v>
       </c>
       <c r="C145" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="146" ht="16.95" spans="1:3">
       <c r="A146" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B146" s="56"/>
       <c r="C146" s="57"/>
     </row>
     <row r="147" ht="17.7" spans="1:3">
       <c r="A147" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B147" s="47"/>
       <c r="C147" s="48"/>
@@ -61175,18 +61218,18 @@
         <v>https://eduardoherreraf.github.io/photoshop-13_filtros.html</v>
       </c>
       <c r="C148" s="54" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E148" s="52"/>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B149,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B149" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C149" s="53"/>
       <c r="E149" s="52"/>
@@ -61197,7 +61240,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B150" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C150" s="53"/>
       <c r="E150" s="52"/>
@@ -61212,19 +61255,19 @@
         <v>0.6</v>
       </c>
       <c r="C151" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="152" ht="16.95" spans="1:3">
       <c r="A152" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B152" s="56"/>
       <c r="C152" s="57"/>
     </row>
     <row r="153" ht="17.7" spans="1:3">
       <c r="A153" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B153" s="47"/>
       <c r="C153" s="48"/>
@@ -61239,18 +61282,18 @@
         <v>https://eduardoherreraf.github.io/photoshop-12_formas_y_capas.html</v>
       </c>
       <c r="C154" s="54" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E154" s="52"/>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B155,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B155" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C155" s="53"/>
       <c r="E155" s="52"/>
@@ -61261,7 +61304,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B156" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C156" s="53"/>
       <c r="E156" s="52"/>
@@ -61276,19 +61319,19 @@
         <v>0.6</v>
       </c>
       <c r="C157" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="158" ht="16.95" spans="1:3">
       <c r="A158" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B158" s="56"/>
       <c r="C158" s="57"/>
     </row>
     <row r="159" ht="17.7" spans="1:3">
       <c r="A159" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B159" s="47"/>
       <c r="C159" s="48"/>
@@ -61303,18 +61346,18 @@
         <v>https://eduardoherreraf.github.io/photoshop-11_textos.html</v>
       </c>
       <c r="C160" s="54" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E160" s="52"/>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B161,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B161" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C161" s="53"/>
       <c r="E161" s="52"/>
@@ -61325,7 +61368,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B162" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C162" s="53"/>
       <c r="E162" s="52"/>
@@ -61340,19 +61383,19 @@
         <v>0.6</v>
       </c>
       <c r="C163" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="164" ht="16.95" spans="1:3">
       <c r="A164" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B164" s="56"/>
       <c r="C164" s="57"/>
     </row>
     <row r="165" ht="17.7" spans="1:3">
       <c r="A165" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B165" s="47"/>
       <c r="C165" s="48"/>
@@ -61367,18 +61410,18 @@
         <v>https://eduardoherreraf.github.io/photoshop-10_color_y_degradados.html</v>
       </c>
       <c r="C166" s="54" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E166" s="52"/>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B167,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B167" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C167" s="53"/>
       <c r="E167" s="52"/>
@@ -61389,7 +61432,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B168" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C168" s="53"/>
       <c r="E168" s="52"/>
@@ -61404,19 +61447,19 @@
         <v>0.6</v>
       </c>
       <c r="C169" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="170" ht="16.95" spans="1:3">
       <c r="A170" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B170" s="56"/>
       <c r="C170" s="57"/>
     </row>
     <row r="171" ht="17.7" spans="1:3">
       <c r="A171" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B171" s="47"/>
       <c r="C171" s="48"/>
@@ -61431,18 +61474,18 @@
         <v>https://eduardoherreraf.github.io/photoshop-09_uso_de_pinceles.html</v>
       </c>
       <c r="C172" s="54" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="E172" s="52"/>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B173,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B173" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C173" s="53"/>
       <c r="E173" s="52"/>
@@ -61453,7 +61496,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B174" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C174" s="53"/>
       <c r="E174" s="52"/>
@@ -61468,19 +61511,19 @@
         <v>0.6</v>
       </c>
       <c r="C175" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="176" ht="16.95" spans="1:3">
       <c r="A176" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B176" s="56"/>
       <c r="C176" s="57"/>
     </row>
     <row r="177" ht="17.7" spans="1:3">
       <c r="A177" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B177" s="47"/>
       <c r="C177" s="48"/>
@@ -61495,18 +61538,18 @@
         <v>https://eduardoherreraf.github.io/photoshop-08_agregar_y_quitar_objetos.html</v>
       </c>
       <c r="C178" s="54" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E178" s="52"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B179,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B179" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C179" s="53"/>
       <c r="E179" s="52"/>
@@ -61517,7 +61560,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B180" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C180" s="53"/>
       <c r="E180" s="52"/>
@@ -61532,19 +61575,19 @@
         <v>0.6</v>
       </c>
       <c r="C181" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="182" ht="16.95" spans="1:3">
       <c r="A182" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B182" s="56"/>
       <c r="C182" s="57"/>
     </row>
     <row r="183" ht="17.7" spans="1:3">
       <c r="A183" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B183" s="47"/>
       <c r="C183" s="48"/>
@@ -61559,18 +61602,18 @@
         <v>https://eduardoherreraf.github.io/photoshop-07_herramientas_de_seleccion.html</v>
       </c>
       <c r="C184" s="54" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="E184" s="52"/>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B185,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B185" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C185" s="53"/>
       <c r="E185" s="52"/>
@@ -61581,7 +61624,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B186" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C186" s="53"/>
       <c r="E186" s="52"/>
@@ -61596,19 +61639,19 @@
         <v>0.6</v>
       </c>
       <c r="C187" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="188" ht="16.95" spans="1:3">
       <c r="A188" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B188" s="56"/>
       <c r="C188" s="57"/>
     </row>
     <row r="189" ht="17.7" spans="1:3">
       <c r="A189" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B189" s="47"/>
       <c r="C189" s="48"/>
@@ -61623,18 +61666,18 @@
         <v>https://eduardoherreraf.github.io/photoshop-06_ajuste_tono_brillo_y_saturacion.html</v>
       </c>
       <c r="C190" s="54" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E190" s="52"/>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B191,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B191" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C191" s="53"/>
       <c r="E191" s="52"/>
@@ -61645,7 +61688,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B192" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C192" s="53"/>
       <c r="E192" s="52"/>
@@ -61660,19 +61703,19 @@
         <v>0.6</v>
       </c>
       <c r="C193" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="194" ht="16.95" spans="1:3">
       <c r="A194" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B194" s="56"/>
       <c r="C194" s="57"/>
     </row>
     <row r="195" ht="17.7" spans="1:3">
       <c r="A195" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B195" s="47"/>
       <c r="C195" s="48"/>
@@ -61687,18 +61730,18 @@
         <v>https://eduardoherreraf.github.io/photoshop-05_trabajo_con_capas.html</v>
       </c>
       <c r="C196" s="54" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E196" s="52"/>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B197,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B197" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C197" s="53"/>
       <c r="E197" s="52"/>
@@ -61709,7 +61752,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B198" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C198" s="53"/>
       <c r="E198" s="52"/>
@@ -61724,19 +61767,19 @@
         <v>0.6</v>
       </c>
       <c r="C199" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="200" ht="16.95" spans="1:3">
       <c r="A200" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B200" s="56"/>
       <c r="C200" s="57"/>
     </row>
     <row r="201" ht="17.7" spans="1:3">
       <c r="A201" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B201" s="47"/>
       <c r="C201" s="48"/>
@@ -61751,18 +61794,18 @@
         <v>https://eduardoherreraf.github.io/photoshop-04_ajuste_lienzo_resolucion.html</v>
       </c>
       <c r="C202" s="54" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="E202" s="52"/>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B203,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B203" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C203" s="53"/>
       <c r="E203" s="52"/>
@@ -61773,7 +61816,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B204" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C204" s="53"/>
       <c r="E204" s="52"/>
@@ -61788,19 +61831,19 @@
         <v>0.6</v>
       </c>
       <c r="C205" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="206" ht="16.95" spans="1:3">
       <c r="A206" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B206" s="56"/>
       <c r="C206" s="57"/>
     </row>
     <row r="207" ht="17.7" spans="1:3">
       <c r="A207" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B207" s="47"/>
       <c r="C207" s="48"/>
@@ -61815,18 +61858,18 @@
         <v>https://eduardoherreraf.github.io/photoshop-03_compartir_y_editar_archivos.html</v>
       </c>
       <c r="C208" s="54" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E208" s="52"/>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B209,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B209" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C209" s="53"/>
       <c r="E209" s="52"/>
@@ -61837,7 +61880,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B210" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C210" s="53"/>
       <c r="E210" s="52"/>
@@ -61852,19 +61895,19 @@
         <v>0.6</v>
       </c>
       <c r="C211" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="212" ht="16.95" spans="1:3">
       <c r="A212" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B212" s="56"/>
       <c r="C212" s="57"/>
     </row>
     <row r="213" ht="17.7" spans="1:3">
       <c r="A213" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B213" s="47"/>
       <c r="C213" s="48"/>
@@ -61879,18 +61922,18 @@
         <v>https://eduardoherreraf.github.io/photoshop-02_interfaz_y_area_de_trabajo.html</v>
       </c>
       <c r="C214" s="54" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E214" s="52"/>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B215,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B215" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C215" s="53"/>
       <c r="E215" s="52"/>
@@ -61901,7 +61944,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B216" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C216" s="53"/>
       <c r="E216" s="52"/>
@@ -61916,19 +61959,19 @@
         <v>0.6</v>
       </c>
       <c r="C217" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="218" ht="16.95" spans="1:3">
       <c r="A218" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B218" s="56"/>
       <c r="C218" s="57"/>
     </row>
     <row r="219" ht="17.7" spans="1:3">
       <c r="A219" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B219" s="47"/>
       <c r="C219" s="48"/>
@@ -61943,17 +61986,17 @@
         <v>https://eduardoherreraf.github.io/photoshop-01_comenzando_un_proyecto.html</v>
       </c>
       <c r="C220" s="54" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B221,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B221" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C221" s="53"/>
       <c r="E221" s="52"/>
@@ -61964,7 +62007,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B222" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C222" s="53"/>
       <c r="E222" s="52"/>
@@ -61979,27 +62022,27 @@
         <v>0.6</v>
       </c>
       <c r="C223" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E223" s="52"/>
     </row>
     <row r="224" ht="16.95" spans="1:3">
       <c r="A224" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B224" s="56"/>
       <c r="C224" s="57"/>
     </row>
     <row r="225" ht="17.7" spans="1:3">
       <c r="A225" s="58" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B225" s="58"/>
       <c r="C225" s="58"/>
     </row>
     <row r="226" ht="17.7" spans="1:3">
       <c r="A226" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B226" s="47"/>
       <c r="C226" s="48"/>
@@ -62014,18 +62057,18 @@
         <v>https://eduardoherreraf.github.io/chatgpt-01_como_aprender_cualquier_habilidad_facilmente_con_chatgpt.html</v>
       </c>
       <c r="C227" s="54" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E227" s="52"/>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B228,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B228" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C228" s="53"/>
       <c r="E228" s="52"/>
@@ -62036,7 +62079,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B229" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C229" s="53"/>
       <c r="E229" s="52"/>
@@ -62051,26 +62094,26 @@
         <v>0.6</v>
       </c>
       <c r="C230" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="231" ht="16.95" spans="1:3">
       <c r="A231" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B231" s="56"/>
       <c r="C231" s="57"/>
     </row>
     <row r="232" ht="17.7" spans="1:3">
       <c r="A232" s="58" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B232" s="58"/>
       <c r="C232" s="58"/>
     </row>
     <row r="233" ht="17.7" spans="1:3">
       <c r="A233" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B233" s="47"/>
       <c r="C233" s="48"/>
@@ -62085,17 +62128,17 @@
         <v>https://eduardoherreraf.github.io/otrosTemas-01_como_borrar_la_cache_y_archivos_basura_en_windows.html</v>
       </c>
       <c r="C234" s="54" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B235,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B235" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C235" s="53"/>
       <c r="E235" s="52"/>
@@ -62106,7 +62149,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B236" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C236" s="53"/>
       <c r="E236" s="52"/>
@@ -62121,27 +62164,27 @@
         <v>0.6</v>
       </c>
       <c r="C237" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E237" s="52"/>
     </row>
     <row r="238" ht="16.95" spans="1:3">
       <c r="A238" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B238" s="56"/>
       <c r="C238" s="57"/>
     </row>
     <row r="239" ht="17.7" spans="1:3">
       <c r="A239" s="58" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B239" s="58"/>
       <c r="C239" s="58"/>
     </row>
     <row r="240" ht="17.7" spans="1:3">
       <c r="A240" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B240" s="47"/>
       <c r="C240" s="48"/>
@@ -62156,18 +62199,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0101_introduccion.html</v>
       </c>
       <c r="C241" s="54" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="E241" s="52"/>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B242,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B242" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C242" s="53"/>
       <c r="E242" s="52"/>
@@ -62178,7 +62221,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B243" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C243" s="53"/>
       <c r="E243" s="52"/>
@@ -62193,19 +62236,19 @@
         <v>0.6</v>
       </c>
       <c r="C244" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="245" ht="16.95" spans="1:3">
       <c r="A245" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B245" s="56"/>
       <c r="C245" s="57"/>
     </row>
     <row r="246" ht="17.7" spans="1:3">
       <c r="A246" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B246" s="47"/>
       <c r="C246" s="48"/>
@@ -62220,18 +62263,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0102_instalacion_de_python_localmente.html</v>
       </c>
       <c r="C247" s="54" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E247" s="52"/>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B248,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B248" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C248" s="53"/>
       <c r="E248" s="52"/>
@@ -62242,7 +62285,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B249" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C249" s="53"/>
       <c r="E249" s="52"/>
@@ -62257,19 +62300,19 @@
         <v>0.6</v>
       </c>
       <c r="C250" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="251" ht="16.95" spans="1:3">
       <c r="A251" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B251" s="56"/>
       <c r="C251" s="57"/>
     </row>
     <row r="252" ht="17.7" spans="1:3">
       <c r="A252" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B252" s="47"/>
       <c r="C252" s="48"/>
@@ -62284,18 +62327,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0201_funcion_print.html</v>
       </c>
       <c r="C253" s="54" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="E253" s="52"/>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B254,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B254" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C254" s="53"/>
       <c r="E254" s="52"/>
@@ -62306,7 +62349,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B255" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C255" s="53"/>
       <c r="E255" s="52"/>
@@ -62321,19 +62364,19 @@
         <v>0.6</v>
       </c>
       <c r="C256" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="257" ht="16.95" spans="1:3">
       <c r="A257" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B257" s="56"/>
       <c r="C257" s="57"/>
     </row>
     <row r="258" ht="17.7" spans="1:3">
       <c r="A258" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B258" s="47"/>
       <c r="C258" s="48"/>
@@ -62348,18 +62391,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0202_literales.html</v>
       </c>
       <c r="C259" s="54" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E259" s="52"/>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B260,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B260" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C260" s="53"/>
       <c r="E260" s="52"/>
@@ -62370,7 +62413,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B261" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C261" s="53"/>
       <c r="E261" s="52"/>
@@ -62385,19 +62428,19 @@
         <v>0.6</v>
       </c>
       <c r="C262" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="263" ht="16.95" spans="1:3">
       <c r="A263" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B263" s="56"/>
       <c r="C263" s="57"/>
     </row>
     <row r="264" ht="17.7" spans="1:3">
       <c r="A264" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B264" s="47"/>
       <c r="C264" s="48"/>
@@ -62412,18 +62455,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0203_operadores.html</v>
       </c>
       <c r="C265" s="54" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E265" s="52"/>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B266,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B266" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C266" s="53"/>
       <c r="E266" s="52"/>
@@ -62434,7 +62477,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B267" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C267" s="53"/>
       <c r="E267" s="52"/>
@@ -62449,19 +62492,19 @@
         <v>0.6</v>
       </c>
       <c r="C268" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="269" ht="16.95" spans="1:3">
       <c r="A269" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B269" s="56"/>
       <c r="C269" s="57"/>
     </row>
     <row r="270" ht="17.7" spans="1:3">
       <c r="A270" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B270" s="47"/>
       <c r="C270" s="48"/>
@@ -62476,18 +62519,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0204_variables.html</v>
       </c>
       <c r="C271" s="54" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="E271" s="52"/>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B272,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B272" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C272" s="53"/>
       <c r="E272" s="52"/>
@@ -62498,7 +62541,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B273" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C273" s="53"/>
       <c r="E273" s="52"/>
@@ -62513,19 +62556,19 @@
         <v>0.6</v>
       </c>
       <c r="C274" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="275" ht="16.95" spans="1:3">
       <c r="A275" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B275" s="56"/>
       <c r="C275" s="57"/>
     </row>
     <row r="276" ht="17.7" spans="1:3">
       <c r="A276" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B276" s="47"/>
       <c r="C276" s="48"/>
@@ -62540,18 +62583,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0205_comentarios.html</v>
       </c>
       <c r="C277" s="54" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="E277" s="52"/>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B278,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B278" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C278" s="53"/>
       <c r="E278" s="52"/>
@@ -62562,7 +62605,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B279" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C279" s="53"/>
       <c r="E279" s="52"/>
@@ -62577,19 +62620,19 @@
         <v>0.6</v>
       </c>
       <c r="C280" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="281" ht="16.95" spans="1:3">
       <c r="A281" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B281" s="56"/>
       <c r="C281" s="57"/>
     </row>
     <row r="282" ht="17.7" spans="1:3">
       <c r="A282" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B282" s="47"/>
       <c r="C282" s="48"/>
@@ -62604,18 +62647,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0206_interaccion_con_el_usuario.html</v>
       </c>
       <c r="C283" s="54" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="E283" s="52"/>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B284,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B284" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C284" s="53"/>
       <c r="E284" s="52"/>
@@ -62626,7 +62669,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B285" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C285" s="53"/>
       <c r="E285" s="52"/>
@@ -62641,19 +62684,19 @@
         <v>0.6</v>
       </c>
       <c r="C286" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="287" ht="16.95" spans="1:3">
       <c r="A287" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B287" s="56"/>
       <c r="C287" s="57"/>
     </row>
     <row r="288" ht="17.7" spans="1:3">
       <c r="A288" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B288" s="47"/>
       <c r="C288" s="48"/>
@@ -62668,18 +62711,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0301_operadores_de_comparacion_y_logicos_en_python.html</v>
       </c>
       <c r="C289" s="54" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E289" s="52"/>
     </row>
     <row r="290" spans="1:5">
       <c r="A290" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B290,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B290" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C290" s="53"/>
       <c r="E290" s="52"/>
@@ -62690,7 +62733,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B291" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C291" s="53"/>
       <c r="E291" s="52"/>
@@ -62705,19 +62748,19 @@
         <v>0.6</v>
       </c>
       <c r="C292" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="293" ht="16.95" spans="1:3">
       <c r="A293" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B293" s="56"/>
       <c r="C293" s="57"/>
     </row>
     <row r="294" ht="17.7" spans="1:3">
       <c r="A294" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B294" s="47"/>
       <c r="C294" s="48"/>
@@ -62732,18 +62775,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0302_sentencia_if_de_control_de_flujo.html</v>
       </c>
       <c r="C295" s="54" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E295" s="52"/>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B296,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B296" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C296" s="53"/>
       <c r="E296" s="52"/>
@@ -62754,7 +62797,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B297" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C297" s="53"/>
       <c r="E297" s="52"/>
@@ -62769,19 +62812,19 @@
         <v>0.6</v>
       </c>
       <c r="C298" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="299" ht="16.95" spans="1:3">
       <c r="A299" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B299" s="56"/>
       <c r="C299" s="57"/>
     </row>
     <row r="300" ht="17.7" spans="1:3">
       <c r="A300" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B300" s="47"/>
       <c r="C300" s="48"/>
@@ -62796,18 +62839,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0303_bucles_en_python_una_guia_completa.html</v>
       </c>
       <c r="C301" s="54" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E301" s="52"/>
     </row>
     <row r="302" spans="1:5">
       <c r="A302" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B302,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B302" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C302" s="53"/>
       <c r="E302" s="52"/>
@@ -62818,7 +62861,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B303" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C303" s="53"/>
       <c r="E303" s="52"/>
@@ -62833,19 +62876,19 @@
         <v>0.6</v>
       </c>
       <c r="C304" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="305" ht="16.95" spans="1:3">
       <c r="A305" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B305" s="56"/>
       <c r="C305" s="57"/>
     </row>
     <row r="306" ht="17.7" spans="1:3">
       <c r="A306" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B306" s="47"/>
       <c r="C306" s="48"/>
@@ -62860,18 +62903,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0304_operadores_logicos_y_operaciones_bit_a_bit_en_python.html</v>
       </c>
       <c r="C307" s="54" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="E307" s="52"/>
     </row>
     <row r="308" spans="1:5">
       <c r="A308" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B308,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B308" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C308" s="53"/>
       <c r="E308" s="52"/>
@@ -62882,7 +62925,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B309" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C309" s="53"/>
       <c r="E309" s="52"/>
@@ -62897,19 +62940,19 @@
         <v>0.6</v>
       </c>
       <c r="C310" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="311" ht="16.95" spans="1:3">
       <c r="A311" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B311" s="56"/>
       <c r="C311" s="57"/>
     </row>
     <row r="312" ht="17.7" spans="1:3">
       <c r="A312" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B312" s="47"/>
       <c r="C312" s="48"/>
@@ -62924,18 +62967,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0305_listas.html</v>
       </c>
       <c r="C313" s="54" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E313" s="52"/>
     </row>
     <row r="314" spans="1:5">
       <c r="A314" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B314,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B314" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C314" s="53"/>
       <c r="E314" s="52"/>
@@ -62946,7 +62989,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B315" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C315" s="53"/>
       <c r="E315" s="52"/>
@@ -62961,19 +63004,19 @@
         <v>0.6</v>
       </c>
       <c r="C316" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="317" ht="16.95" spans="1:3">
       <c r="A317" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B317" s="56"/>
       <c r="C317" s="57"/>
     </row>
     <row r="318" ht="17.7" spans="1:3">
       <c r="A318" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B318" s="47"/>
       <c r="C318" s="48"/>
@@ -62988,18 +63031,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0306_ordenamiento_de_listas_metodo_burbuja.html</v>
       </c>
       <c r="C319" s="54" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E319" s="52"/>
     </row>
     <row r="320" spans="1:5">
       <c r="A320" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B320,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B320" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C320" s="53"/>
       <c r="E320" s="52"/>
@@ -63010,7 +63053,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B321" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C321" s="53"/>
       <c r="E321" s="52"/>
@@ -63025,19 +63068,19 @@
         <v>0.6</v>
       </c>
       <c r="C322" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="323" ht="16.95" spans="1:3">
       <c r="A323" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B323" s="56"/>
       <c r="C323" s="57"/>
     </row>
     <row r="324" ht="17.7" spans="1:3">
       <c r="A324" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B324" s="47"/>
       <c r="C324" s="48"/>
@@ -63052,18 +63095,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0307_operaciones_con_listas.html</v>
       </c>
       <c r="C325" s="54" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="E325" s="52"/>
     </row>
     <row r="326" spans="1:5">
       <c r="A326" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B326,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B326" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C326" s="53"/>
       <c r="E326" s="52"/>
@@ -63074,7 +63117,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B327" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C327" s="53"/>
       <c r="E327" s="52"/>
@@ -63089,19 +63132,19 @@
         <v>0.6</v>
       </c>
       <c r="C328" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="329" ht="16.95" spans="1:3">
       <c r="A329" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B329" s="56"/>
       <c r="C329" s="57"/>
     </row>
     <row r="330" ht="17.7" spans="1:3">
       <c r="A330" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B330" s="47"/>
       <c r="C330" s="48"/>
@@ -63116,18 +63159,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0401_introduccion_funciones.html</v>
       </c>
       <c r="C331" s="54" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E331" s="52"/>
     </row>
     <row r="332" spans="1:5">
       <c r="A332" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B332,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B332" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C332" s="53"/>
       <c r="E332" s="52"/>
@@ -63138,7 +63181,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B333" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C333" s="53"/>
       <c r="E333" s="52"/>
@@ -63153,19 +63196,19 @@
         <v>0.6</v>
       </c>
       <c r="C334" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="335" ht="16.95" spans="1:3">
       <c r="A335" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B335" s="56"/>
       <c r="C335" s="57"/>
     </row>
     <row r="336" ht="17.7" spans="1:3">
       <c r="A336" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B336" s="47"/>
       <c r="C336" s="48"/>
@@ -63180,18 +63223,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0402_como_las_funciones_se_comunican_con_su_entorno.html</v>
       </c>
       <c r="C337" s="54" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E337" s="52"/>
     </row>
     <row r="338" spans="1:5">
       <c r="A338" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B338,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B338" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C338" s="53"/>
       <c r="E338" s="52"/>
@@ -63202,7 +63245,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B339" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C339" s="53"/>
       <c r="E339" s="52"/>
@@ -63217,19 +63260,19 @@
         <v>0.6</v>
       </c>
       <c r="C340" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="341" ht="16.95" spans="1:3">
       <c r="A341" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B341" s="56"/>
       <c r="C341" s="57"/>
     </row>
     <row r="342" ht="17.7" spans="1:3">
       <c r="A342" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B342" s="47"/>
       <c r="C342" s="48"/>
@@ -63244,18 +63287,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0403_retorno_de_valores_en_funciones.html</v>
       </c>
       <c r="C343" s="54" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E343" s="52"/>
     </row>
     <row r="344" spans="1:5">
       <c r="A344" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B344,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B344" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C344" s="53"/>
       <c r="E344" s="52"/>
@@ -63266,7 +63309,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B345" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C345" s="53"/>
       <c r="E345" s="52"/>
@@ -63281,19 +63324,19 @@
         <v>0.6</v>
       </c>
       <c r="C346" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="347" ht="16.95" spans="1:3">
       <c r="A347" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B347" s="56"/>
       <c r="C347" s="57"/>
     </row>
     <row r="348" ht="17.7" spans="1:3">
       <c r="A348" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B348" s="47"/>
       <c r="C348" s="48"/>
@@ -63308,18 +63351,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0404_el_alcance_de_las_variables.html</v>
       </c>
       <c r="C349" s="54" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="E349" s="52"/>
     </row>
     <row r="350" spans="1:5">
       <c r="A350" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B350,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B350" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C350" s="53"/>
       <c r="E350" s="52"/>
@@ -63330,7 +63373,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B351" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C351" s="53"/>
       <c r="E351" s="52"/>
@@ -63345,19 +63388,19 @@
         <v>0.6</v>
       </c>
       <c r="C352" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="353" ht="16.95" spans="1:3">
       <c r="A353" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B353" s="56"/>
       <c r="C353" s="57"/>
     </row>
     <row r="354" ht="17.7" spans="1:3">
       <c r="A354" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B354" s="47"/>
       <c r="C354" s="48"/>
@@ -63372,18 +63415,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0405_tuplas_y_diccionarios.html</v>
       </c>
       <c r="C355" s="54" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E355" s="52"/>
     </row>
     <row r="356" spans="1:5">
       <c r="A356" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B356,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B356" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C356" s="53"/>
       <c r="E356" s="52"/>
@@ -63394,7 +63437,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B357" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C357" s="53"/>
       <c r="E357" s="52"/>
@@ -63409,19 +63452,19 @@
         <v>0.6</v>
       </c>
       <c r="C358" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="359" ht="16.95" spans="1:3">
       <c r="A359" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B359" s="56"/>
       <c r="C359" s="57"/>
     </row>
     <row r="360" ht="17.7" spans="1:3">
       <c r="A360" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B360" s="47"/>
       <c r="C360" s="48"/>
@@ -63436,18 +63479,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0501_introduccion_a_los_modulos.html</v>
       </c>
       <c r="C361" s="54" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E361" s="52"/>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B362,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B362" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C362" s="53"/>
       <c r="E362" s="52"/>
@@ -63458,7 +63501,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B363" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C363" s="53"/>
       <c r="E363" s="52"/>
@@ -63473,19 +63516,19 @@
         <v>0.6</v>
       </c>
       <c r="C364" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="365" ht="16.95" spans="1:3">
       <c r="A365" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B365" s="56"/>
       <c r="C365" s="57"/>
     </row>
     <row r="366" ht="17.7" spans="1:3">
       <c r="A366" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B366" s="47"/>
       <c r="C366" s="48"/>
@@ -63500,18 +63543,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0502_importacion_de_modulos.html</v>
       </c>
       <c r="C367" s="54" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E367" s="52"/>
     </row>
     <row r="368" spans="1:5">
       <c r="A368" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B368,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B368" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C368" s="53"/>
       <c r="E368" s="52"/>
@@ -63522,7 +63565,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B369" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C369" s="53"/>
       <c r="E369" s="52"/>
@@ -63537,19 +63580,19 @@
         <v>0.6</v>
       </c>
       <c r="C370" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="371" ht="16.95" spans="1:3">
       <c r="A371" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B371" s="56"/>
       <c r="C371" s="57"/>
     </row>
     <row r="372" ht="17.7" spans="1:3">
       <c r="A372" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B372" s="47"/>
       <c r="C372" s="48"/>
@@ -63564,18 +63607,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0503_modulos_especializados_de_python-matematico_aleatorio_y_de_sistema.html</v>
       </c>
       <c r="C373" s="54" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E373" s="52"/>
     </row>
     <row r="374" spans="1:5">
       <c r="A374" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B374,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B374" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C374" s="53"/>
       <c r="E374" s="52"/>
@@ -63586,7 +63629,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B375" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C375" s="53"/>
       <c r="E375" s="52"/>
@@ -63601,19 +63644,19 @@
         <v>0.6</v>
       </c>
       <c r="C376" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="377" ht="16.95" spans="1:3">
       <c r="A377" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B377" s="56"/>
       <c r="C377" s="57"/>
     </row>
     <row r="378" ht="17.7" spans="1:3">
       <c r="A378" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B378" s="47"/>
       <c r="C378" s="48"/>
@@ -63628,18 +63671,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0504_modulos_y_paquetes.html</v>
       </c>
       <c r="C379" s="54" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E379" s="52"/>
     </row>
     <row r="380" spans="1:5">
       <c r="A380" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B380,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B380" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C380" s="53"/>
       <c r="E380" s="52"/>
@@ -63650,7 +63693,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B381" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C381" s="53"/>
       <c r="E381" s="52"/>
@@ -63665,19 +63708,19 @@
         <v>0.6</v>
       </c>
       <c r="C382" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="383" ht="16.95" spans="1:3">
       <c r="A383" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B383" s="56"/>
       <c r="C383" s="57"/>
     </row>
     <row r="384" ht="17.7" spans="1:3">
       <c r="A384" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B384" s="47"/>
       <c r="C384" s="48"/>
@@ -63692,18 +63735,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0505_instalador_de_paquetes-pip.html</v>
       </c>
       <c r="C385" s="54" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E385" s="52"/>
     </row>
     <row r="386" spans="1:5">
       <c r="A386" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B386,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B386" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C386" s="53"/>
       <c r="E386" s="52"/>
@@ -63714,7 +63757,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B387" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C387" s="53"/>
       <c r="E387" s="52"/>
@@ -63729,19 +63772,19 @@
         <v>0.6</v>
       </c>
       <c r="C388" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="389" ht="16.95" spans="1:3">
       <c r="A389" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B389" s="56"/>
       <c r="C389" s="57"/>
     </row>
     <row r="390" ht="17.7" spans="1:3">
       <c r="A390" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B390" s="47"/>
       <c r="C390" s="48"/>
@@ -63756,18 +63799,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0601_la_naturaleza_de_las_cadenas.html</v>
       </c>
       <c r="C391" s="54" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="E391" s="52"/>
     </row>
     <row r="392" spans="1:5">
       <c r="A392" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B392,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B392" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C392" s="53"/>
       <c r="E392" s="52"/>
@@ -63778,7 +63821,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B393" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C393" s="53"/>
       <c r="E393" s="52"/>
@@ -63793,19 +63836,19 @@
         <v>0.6</v>
       </c>
       <c r="C394" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="395" ht="16.95" spans="1:3">
       <c r="A395" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B395" s="56"/>
       <c r="C395" s="57"/>
     </row>
     <row r="396" ht="17.7" spans="1:3">
       <c r="A396" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B396" s="47"/>
       <c r="C396" s="48"/>
@@ -63820,18 +63863,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0602_errores-el_pan_diario_del_programador.html</v>
       </c>
       <c r="C397" s="54" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E397" s="52"/>
     </row>
     <row r="398" spans="1:5">
       <c r="A398" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B398,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B398" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C398" s="53"/>
       <c r="E398" s="52"/>
@@ -63842,7 +63885,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B399" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C399" s="53"/>
       <c r="E399" s="52"/>
@@ -63857,19 +63900,19 @@
         <v>0.6</v>
       </c>
       <c r="C400" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="401" ht="16.95" spans="1:3">
       <c r="A401" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B401" s="56"/>
       <c r="C401" s="57"/>
     </row>
     <row r="402" ht="17.7" spans="1:3">
       <c r="A402" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B402" s="47"/>
       <c r="C402" s="48"/>
@@ -63884,18 +63927,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0701_los_fundamentos_de_la_poo.html</v>
       </c>
       <c r="C403" s="54" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="E403" s="52"/>
     </row>
     <row r="404" spans="1:5">
       <c r="A404" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B404,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B404" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C404" s="53"/>
       <c r="E404" s="52"/>
@@ -63906,7 +63949,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B405" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C405" s="53"/>
       <c r="E405" s="52"/>
@@ -63921,19 +63964,19 @@
         <v>0.6</v>
       </c>
       <c r="C406" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="407" ht="16.95" spans="1:3">
       <c r="A407" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B407" s="56"/>
       <c r="C407" s="57"/>
     </row>
     <row r="408" ht="17.7" spans="1:3">
       <c r="A408" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B408" s="47"/>
       <c r="C408" s="48"/>
@@ -63948,18 +63991,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0702_comparando_paradigmas_programacion_procedimental_y_orientada_a_objetos.html</v>
       </c>
       <c r="C409" s="54" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E409" s="52"/>
     </row>
     <row r="410" spans="1:5">
       <c r="A410" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B410,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B410" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C410" s="53"/>
       <c r="E410" s="52"/>
@@ -63970,7 +64013,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B411" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C411" s="53"/>
       <c r="E411" s="52"/>
@@ -63985,19 +64028,19 @@
         <v>0.6</v>
       </c>
       <c r="C412" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="413" ht="16.95" spans="1:3">
       <c r="A413" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B413" s="56"/>
       <c r="C413" s="57"/>
     </row>
     <row r="414" ht="17.7" spans="1:3">
       <c r="A414" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B414" s="47"/>
       <c r="C414" s="48"/>
@@ -64012,18 +64055,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0703_poo_propiedades.html</v>
       </c>
       <c r="C415" s="54" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E415" s="52"/>
     </row>
     <row r="416" spans="1:5">
       <c r="A416" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B416,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B416" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C416" s="53"/>
       <c r="E416" s="52"/>
@@ -64034,7 +64077,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B417" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C417" s="53"/>
       <c r="E417" s="52"/>
@@ -64049,19 +64092,19 @@
         <v>0.6</v>
       </c>
       <c r="C418" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="419" ht="16.95" spans="1:3">
       <c r="A419" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B419" s="56"/>
       <c r="C419" s="57"/>
     </row>
     <row r="420" ht="17.7" spans="1:3">
       <c r="A420" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B420" s="47"/>
       <c r="C420" s="48"/>
@@ -64076,18 +64119,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0704_poo_metodos.html</v>
       </c>
       <c r="C421" s="54" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="E421" s="52"/>
     </row>
     <row r="422" spans="1:5">
       <c r="A422" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B422,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B422" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C422" s="53"/>
       <c r="E422" s="52"/>
@@ -64098,7 +64141,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B423" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C423" s="53"/>
       <c r="E423" s="52"/>
@@ -64113,19 +64156,19 @@
         <v>0.6</v>
       </c>
       <c r="C424" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="425" ht="16.95" spans="1:3">
       <c r="A425" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B425" s="56"/>
       <c r="C425" s="57"/>
     </row>
     <row r="426" ht="17.7" spans="1:3">
       <c r="A426" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B426" s="47"/>
       <c r="C426" s="48"/>
@@ -64140,18 +64183,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0705_poo_herencia.html</v>
       </c>
       <c r="C427" s="54" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="E427" s="52"/>
     </row>
     <row r="428" spans="1:5">
       <c r="A428" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B428,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B428" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C428" s="53"/>
       <c r="E428" s="52"/>
@@ -64162,7 +64205,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B429" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C429" s="53"/>
       <c r="E429" s="52"/>
@@ -64177,19 +64220,19 @@
         <v>0.6</v>
       </c>
       <c r="C430" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="431" ht="16.95" spans="1:3">
       <c r="A431" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B431" s="56"/>
       <c r="C431" s="57"/>
     </row>
     <row r="432" ht="17.7" spans="1:3">
       <c r="A432" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B432" s="47"/>
       <c r="C432" s="48"/>
@@ -64204,18 +64247,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0706_poo_excepciones.html</v>
       </c>
       <c r="C433" s="54" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E433" s="52"/>
     </row>
     <row r="434" spans="1:5">
       <c r="A434" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B434,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B434" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C434" s="53"/>
       <c r="E434" s="52"/>
@@ -64226,7 +64269,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B435" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C435" s="53"/>
       <c r="E435" s="52"/>
@@ -64241,19 +64284,19 @@
         <v>0.6</v>
       </c>
       <c r="C436" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="437" ht="16.95" spans="1:3">
       <c r="A437" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B437" s="56"/>
       <c r="C437" s="57"/>
     </row>
     <row r="438" ht="17.7" spans="1:3">
       <c r="A438" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B438" s="47"/>
       <c r="C438" s="48"/>
@@ -64268,18 +64311,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0801_iteradores,_generadores_y_cierres.html</v>
       </c>
       <c r="C439" s="54" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E439" s="52"/>
     </row>
     <row r="440" spans="1:5">
       <c r="A440" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B440,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B440" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C440" s="53"/>
       <c r="E440" s="52"/>
@@ -64290,7 +64333,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B441" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C441" s="53"/>
       <c r="E441" s="52"/>
@@ -64305,19 +64348,19 @@
         <v>0.6</v>
       </c>
       <c r="C442" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="443" ht="16.95" spans="1:3">
       <c r="A443" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B443" s="56"/>
       <c r="C443" s="57"/>
     </row>
     <row r="444" ht="17.7" spans="1:3">
       <c r="A444" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B444" s="47"/>
       <c r="C444" s="48"/>
@@ -64332,18 +64375,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0802_manejo_de_archivos.html</v>
       </c>
       <c r="C445" s="54" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E445" s="52"/>
     </row>
     <row r="446" spans="1:5">
       <c r="A446" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B446,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B446" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C446" s="53"/>
       <c r="E446" s="52"/>
@@ -64354,7 +64397,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B447" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C447" s="53"/>
       <c r="E447" s="52"/>
@@ -64369,19 +64412,19 @@
         <v>0.6</v>
       </c>
       <c r="C448" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="449" ht="16.95" spans="1:3">
       <c r="A449" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B449" s="56"/>
       <c r="C449" s="57"/>
     </row>
     <row r="450" ht="17.7" spans="1:3">
       <c r="A450" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B450" s="47"/>
       <c r="C450" s="48"/>
@@ -64396,18 +64439,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0803_el_modulo_os_interactuando_con_el_sistema_operativo.html</v>
       </c>
       <c r="C451" s="54" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E451" s="52"/>
     </row>
     <row r="452" spans="1:5">
       <c r="A452" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B452,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B452" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C452" s="53"/>
       <c r="E452" s="52"/>
@@ -64418,7 +64461,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B453" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C453" s="53"/>
       <c r="E453" s="52"/>
@@ -64433,19 +64476,19 @@
         <v>0.6</v>
       </c>
       <c r="C454" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="455" ht="16.95" spans="1:3">
       <c r="A455" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B455" s="56"/>
       <c r="C455" s="57"/>
     </row>
     <row r="456" ht="17.7" spans="1:3">
       <c r="A456" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B456" s="47"/>
       <c r="C456" s="48"/>
@@ -64460,18 +64503,18 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0804_modulo_datetime_funciones_para_manejo_de_la_hora_y_la_fecha.html</v>
       </c>
       <c r="C457" s="54" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="E457" s="52"/>
     </row>
     <row r="458" spans="1:5">
       <c r="A458" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B458,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B458" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C458" s="53"/>
       <c r="E458" s="52"/>
@@ -64482,7 +64525,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B459" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C459" s="53"/>
       <c r="E459" s="52"/>
@@ -64497,19 +64540,19 @@
         <v>0.6</v>
       </c>
       <c r="C460" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="461" ht="16.95" spans="1:3">
       <c r="A461" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B461" s="56"/>
       <c r="C461" s="57"/>
     </row>
     <row r="462" ht="17.7" spans="1:3">
       <c r="A462" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B462" s="47"/>
       <c r="C462" s="48"/>
@@ -64524,17 +64567,17 @@
         <v>https://eduardoherreraf.github.io/cursoPython3-0805_modulo_calendar_trabajando_con_funciones_relacionadas_con_el_calendario.html</v>
       </c>
       <c r="C463" s="54" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B464,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B464" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C464" s="53"/>
     </row>
@@ -64544,7 +64587,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B465" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C465" s="53"/>
     </row>
@@ -64558,26 +64601,26 @@
         <v>0.6</v>
       </c>
       <c r="C466" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="467" ht="16.95" spans="1:3">
       <c r="A467" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B467" s="56"/>
       <c r="C467" s="57"/>
     </row>
     <row r="468" ht="17.7" spans="1:3">
       <c r="A468" s="58" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B468" s="58"/>
       <c r="C468" s="58"/>
     </row>
     <row r="469" ht="17.7" spans="1:3">
       <c r="A469" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B469" s="47"/>
       <c r="C469" s="48"/>
@@ -64592,18 +64635,18 @@
         <v>https://eduardoherreraf.github.io/html-01_introduccion_html.html</v>
       </c>
       <c r="C470" s="51" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="E470" s="52"/>
     </row>
     <row r="471" spans="1:5">
       <c r="A471" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B471,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B471" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C471" s="53"/>
       <c r="E471" s="52"/>
@@ -64614,7 +64657,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B472" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C472" s="53"/>
       <c r="E472" s="52"/>
@@ -64629,19 +64672,19 @@
         <v>0.6</v>
       </c>
       <c r="C473" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="474" ht="16.95" spans="1:3">
       <c r="A474" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B474" s="56"/>
       <c r="C474" s="57"/>
     </row>
     <row r="475" ht="17.7" spans="1:3">
       <c r="A475" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B475" s="47"/>
       <c r="C475" s="48"/>
@@ -64656,18 +64699,18 @@
         <v>https://eduardoherreraf.github.io/html-02_estructura_del_documento_html.html</v>
       </c>
       <c r="C476" s="51" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="E476" s="52"/>
     </row>
     <row r="477" spans="1:5">
       <c r="A477" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B477,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B477" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C477" s="53"/>
       <c r="E477" s="52"/>
@@ -64678,7 +64721,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B478" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C478" s="53"/>
       <c r="E478" s="52"/>
@@ -64693,19 +64736,19 @@
         <v>0.6</v>
       </c>
       <c r="C479" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="480" ht="16.95" spans="1:3">
       <c r="A480" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B480" s="56"/>
       <c r="C480" s="57"/>
     </row>
     <row r="481" ht="17.7" spans="1:3">
       <c r="A481" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B481" s="47"/>
       <c r="C481" s="48"/>
@@ -64720,18 +64763,18 @@
         <v>https://eduardoherreraf.github.io/html-03_encabezado_html.html</v>
       </c>
       <c r="C482" s="51" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="E482" s="52"/>
     </row>
     <row r="483" spans="1:5">
       <c r="A483" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B483,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B483" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C483" s="53"/>
       <c r="E483" s="52"/>
@@ -64742,7 +64785,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B484" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C484" s="53"/>
       <c r="E484" s="52"/>
@@ -64757,19 +64800,19 @@
         <v>0.6</v>
       </c>
       <c r="C485" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="486" ht="16.95" spans="1:3">
       <c r="A486" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B486" s="56"/>
       <c r="C486" s="57"/>
     </row>
     <row r="487" ht="17.7" spans="1:3">
       <c r="A487" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B487" s="47"/>
       <c r="C487" s="48"/>
@@ -64784,18 +64827,18 @@
         <v>https://eduardoherreraf.github.io/html-04_cuerpo_html.html</v>
       </c>
       <c r="C488" s="51" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="E488" s="52"/>
     </row>
     <row r="489" spans="1:5">
       <c r="A489" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B489,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B489" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C489" s="53"/>
       <c r="E489" s="52"/>
@@ -64806,7 +64849,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B490" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C490" s="53"/>
       <c r="E490" s="52"/>
@@ -64821,19 +64864,19 @@
         <v>0.6</v>
       </c>
       <c r="C491" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="492" ht="16.95" spans="1:3">
       <c r="A492" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B492" s="56"/>
       <c r="C492" s="57"/>
     </row>
     <row r="493" ht="17.7" spans="1:3">
       <c r="A493" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B493" s="47"/>
       <c r="C493" s="48"/>
@@ -64848,18 +64891,18 @@
         <v>https://eduardoherreraf.github.io/html-06_Etiquetas_de_texto.html</v>
       </c>
       <c r="C494" s="51" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="E494" s="52"/>
     </row>
     <row r="495" spans="1:5">
       <c r="A495" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B495,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B495" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C495" s="53"/>
       <c r="E495" s="52"/>
@@ -64870,7 +64913,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B496" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C496" s="53"/>
       <c r="E496" s="52"/>
@@ -64885,19 +64928,19 @@
         <v>0.6</v>
       </c>
       <c r="C497" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="498" ht="16.95" spans="1:3">
       <c r="A498" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B498" s="56"/>
       <c r="C498" s="57"/>
     </row>
     <row r="499" ht="17.7" spans="1:3">
       <c r="A499" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B499" s="47"/>
       <c r="C499" s="48"/>
@@ -64912,18 +64955,18 @@
         <v>https://eduardoherreraf.github.io/html-07_formato_de_texto.html</v>
       </c>
       <c r="C500" s="51" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="E500" s="52"/>
     </row>
     <row r="501" spans="1:5">
       <c r="A501" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B501,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B501" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C501" s="53"/>
       <c r="E501" s="52"/>
@@ -64934,7 +64977,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B502" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C502" s="53"/>
       <c r="E502" s="52"/>
@@ -64949,19 +64992,19 @@
         <v>0.6</v>
       </c>
       <c r="C503" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="504" ht="16.95" spans="1:3">
       <c r="A504" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B504" s="56"/>
       <c r="C504" s="57"/>
     </row>
     <row r="505" ht="17.7" spans="1:3">
       <c r="A505" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B505" s="47"/>
       <c r="C505" s="48"/>
@@ -64976,18 +65019,18 @@
         <v>https://eduardoherreraf.github.io/html-08_listas.html</v>
       </c>
       <c r="C506" s="51" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="E506" s="52"/>
     </row>
     <row r="507" spans="1:5">
       <c r="A507" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B507,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B507" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C507" s="53"/>
       <c r="E507" s="52"/>
@@ -64998,7 +65041,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B508" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C508" s="53"/>
       <c r="E508" s="52"/>
@@ -65013,19 +65056,19 @@
         <v>0.6</v>
       </c>
       <c r="C509" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="510" ht="16.95" spans="1:3">
       <c r="A510" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B510" s="56"/>
       <c r="C510" s="57"/>
     </row>
     <row r="511" ht="17.7" spans="1:3">
       <c r="A511" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B511" s="47"/>
       <c r="C511" s="48"/>
@@ -65040,18 +65083,18 @@
         <v>https://eduardoherreraf.github.io/html-09_tablas.html</v>
       </c>
       <c r="C512" s="51" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E512" s="52"/>
     </row>
     <row r="513" spans="1:5">
       <c r="A513" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B513,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B513" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C513" s="53"/>
       <c r="E513" s="52"/>
@@ -65062,7 +65105,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B514" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C514" s="53"/>
       <c r="E514" s="52"/>
@@ -65077,19 +65120,19 @@
         <v>0.6</v>
       </c>
       <c r="C515" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="516" ht="16.95" spans="1:3">
       <c r="A516" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B516" s="56"/>
       <c r="C516" s="57"/>
     </row>
     <row r="517" ht="17.7" spans="1:3">
       <c r="A517" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B517" s="47"/>
       <c r="C517" s="48"/>
@@ -65104,18 +65147,18 @@
         <v>https://eduardoherreraf.github.io/html-10_imagenes_y_multimedia.html</v>
       </c>
       <c r="C518" s="51" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="E518" s="52"/>
     </row>
     <row r="519" spans="1:5">
       <c r="A519" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B519,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B519" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C519" s="53"/>
       <c r="E519" s="52"/>
@@ -65126,7 +65169,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B520" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C520" s="53"/>
       <c r="E520" s="52"/>
@@ -65141,19 +65184,19 @@
         <v>0.6</v>
       </c>
       <c r="C521" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="522" ht="16.95" spans="1:3">
       <c r="A522" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B522" s="56"/>
       <c r="C522" s="57"/>
     </row>
     <row r="523" ht="17.7" spans="1:3">
       <c r="A523" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B523" s="47"/>
       <c r="C523" s="48"/>
@@ -65168,18 +65211,18 @@
         <v>https://eduardoherreraf.github.io/html-11_enlaces_y_hipervinculos.html</v>
       </c>
       <c r="C524" s="51" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E524" s="52"/>
     </row>
     <row r="525" spans="1:5">
       <c r="A525" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B525,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B525" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C525" s="53"/>
       <c r="E525" s="52"/>
@@ -65190,7 +65233,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B526" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C526" s="53"/>
       <c r="E526" s="52"/>
@@ -65205,19 +65248,19 @@
         <v>0.6</v>
       </c>
       <c r="C527" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="528" ht="16.95" spans="1:3">
       <c r="A528" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B528" s="56"/>
       <c r="C528" s="57"/>
     </row>
     <row r="529" ht="17.7" spans="1:3">
       <c r="A529" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B529" s="47"/>
       <c r="C529" s="48"/>
@@ -65232,18 +65275,18 @@
         <v>https://eduardoherreraf.github.io/html-12_formularios.html</v>
       </c>
       <c r="C530" s="51" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E530" s="52"/>
     </row>
     <row r="531" spans="1:5">
       <c r="A531" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B531,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B531" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C531" s="53"/>
       <c r="E531" s="52"/>
@@ -65254,7 +65297,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B532" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C532" s="53"/>
       <c r="E532" s="52"/>
@@ -65269,19 +65312,19 @@
         <v>0.6</v>
       </c>
       <c r="C533" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="534" ht="16.95" spans="1:3">
       <c r="A534" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B534" s="56"/>
       <c r="C534" s="57"/>
     </row>
     <row r="535" ht="17.7" spans="1:3">
       <c r="A535" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B535" s="47"/>
       <c r="C535" s="48"/>
@@ -65296,18 +65339,18 @@
         <v>https://eduardoherreraf.github.io/html-13_citas_y_referencias.html</v>
       </c>
       <c r="C536" s="51" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="E536" s="52"/>
     </row>
     <row r="537" spans="1:5">
       <c r="A537" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B537,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B537" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C537" s="53"/>
       <c r="E537" s="52"/>
@@ -65318,7 +65361,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B538" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C538" s="53"/>
       <c r="E538" s="52"/>
@@ -65333,26 +65376,26 @@
         <v>0.6</v>
       </c>
       <c r="C539" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="540" ht="16.95" spans="1:3">
       <c r="A540" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B540" s="56"/>
       <c r="C540" s="57"/>
     </row>
     <row r="541" ht="17.7" spans="1:3">
       <c r="A541" s="58" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B541" s="58"/>
       <c r="C541" s="58"/>
     </row>
     <row r="542" ht="17.7" spans="1:3">
       <c r="A542" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B542" s="47"/>
       <c r="C542" s="48"/>
@@ -65367,18 +65410,18 @@
         <v>https://eduardoherreraf.github.io/css-0001_introduccion_css.html</v>
       </c>
       <c r="C543" s="51" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="E543" s="52"/>
     </row>
     <row r="544" spans="1:5">
       <c r="A544" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B544,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B544" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C544" s="53"/>
       <c r="E544" s="52"/>
@@ -65389,7 +65432,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B545" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C545" s="53"/>
       <c r="E545" s="52"/>
@@ -65404,19 +65447,19 @@
         <v>0.6</v>
       </c>
       <c r="C546" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="547" ht="16.95" spans="1:3">
       <c r="A547" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B547" s="56"/>
       <c r="C547" s="57"/>
     </row>
     <row r="548" ht="17.7" spans="1:3">
       <c r="A548" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B548" s="47"/>
       <c r="C548" s="48"/>
@@ -65431,18 +65474,18 @@
         <v>https://eduardoherreraf.github.io/css-0301_flexbox-introduccion.html.html</v>
       </c>
       <c r="C549" s="51" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="E549" s="52"/>
     </row>
     <row r="550" spans="1:5">
       <c r="A550" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B550,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B550" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C550" s="53"/>
       <c r="E550" s="52"/>
@@ -65453,7 +65496,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B551" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C551" s="53"/>
       <c r="E551" s="52"/>
@@ -65468,26 +65511,26 @@
         <v>0.6</v>
       </c>
       <c r="C552" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="553" ht="16.95" spans="1:3">
       <c r="A553" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B553" s="56"/>
       <c r="C553" s="57"/>
     </row>
     <row r="554" ht="17.7" spans="1:3">
       <c r="A554" s="58" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B554" s="58"/>
       <c r="C554" s="58"/>
     </row>
     <row r="555" ht="17.7" spans="1:3">
       <c r="A555" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B555" s="47"/>
       <c r="C555" s="48"/>
@@ -65509,11 +65552,11 @@
     <row r="557" spans="1:5">
       <c r="A557" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B557,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B557" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C557" s="53"/>
       <c r="E557" s="52"/>
@@ -65524,7 +65567,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B558" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C558" s="53"/>
       <c r="E558" s="52"/>
@@ -65539,19 +65582,19 @@
         <v>0.6</v>
       </c>
       <c r="C559" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="560" ht="16.95" spans="1:3">
       <c r="A560" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B560" s="56"/>
       <c r="C560" s="57"/>
     </row>
     <row r="561" ht="17.7" spans="1:3">
       <c r="A561" s="46" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B561" s="47"/>
       <c r="C561" s="48"/>
@@ -65559,25 +65602,25 @@
     <row r="562" ht="16.95" spans="1:5">
       <c r="A562" s="49" t="str">
         <f>CONCATENATE("&lt;loc&gt;",B562,"&lt;/loc&gt;")</f>
-        <v>&lt;loc&gt;https://eduardoherreraf.github.io/analisis-de-datos-0002_fundamento_de_python.htmlml&lt;/loc&gt;</v>
+        <v>&lt;loc&gt;https://eduardoherreraf.github.io/analisis-de-datos-0002_fundamento_de_python.html&lt;/loc&gt;</v>
       </c>
       <c r="B562" s="50" t="str">
         <f>CONCATENATE($C$5,C562)</f>
-        <v>https://eduardoherreraf.github.io/analisis-de-datos-0002_fundamento_de_python.htmlml</v>
+        <v>https://eduardoherreraf.github.io/analisis-de-datos-0002_fundamento_de_python.html</v>
       </c>
       <c r="C562" s="51" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="E562" s="52"/>
     </row>
     <row r="563" spans="1:5">
       <c r="A563" s="49" t="str">
         <f>CONCATENATE("&lt;lastmod&gt;",B563,"&lt;/lastmod&gt;")</f>
-        <v>&lt;lastmod&gt;2028-10-08T10:01:49-05:00&lt;/lastmod&gt;</v>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
       </c>
       <c r="B563" s="50" t="str">
         <f>$C$1</f>
-        <v>2028-10-08T10:01:49-05:00</v>
+        <v>2025-10-28T10:49:04-05:00</v>
       </c>
       <c r="C563" s="53"/>
       <c r="E563" s="52"/>
@@ -65588,7 +65631,7 @@
         <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
       </c>
       <c r="B564" s="50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C564" s="53"/>
       <c r="E564" s="52"/>
@@ -65603,177 +65646,499 @@
         <v>0.6</v>
       </c>
       <c r="C565" s="54" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="566" ht="16.95" spans="1:3">
       <c r="A566" s="55" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B566" s="56"/>
       <c r="C566" s="57"/>
     </row>
-    <row r="567" ht="16.95" spans="1:3">
-      <c r="A567" s="41" t="s">
-        <v>331</v>
-      </c>
-      <c r="C567" s="59"/>
-    </row>
-    <row r="568" spans="3:3">
-      <c r="C568" s="59"/>
-    </row>
-    <row r="569" spans="3:3">
-      <c r="C569" s="59"/>
-    </row>
-    <row r="570" spans="3:3">
-      <c r="C570" s="59"/>
-    </row>
-    <row r="571" spans="3:3">
-      <c r="C571" s="59"/>
-    </row>
-    <row r="572" spans="3:3">
-      <c r="C572" s="59"/>
-    </row>
-    <row r="573" spans="3:3">
-      <c r="C573" s="59"/>
-    </row>
-    <row r="574" spans="3:3">
-      <c r="C574" s="59"/>
-    </row>
-    <row r="575" spans="3:3">
-      <c r="C575" s="59"/>
-    </row>
-    <row r="576" spans="3:3">
-      <c r="C576" s="59"/>
-    </row>
-    <row r="577" spans="3:3">
-      <c r="C577" s="59"/>
-    </row>
-    <row r="658" spans="5:5">
-      <c r="E658" s="52"/>
-    </row>
-    <row r="659" spans="5:5">
-      <c r="E659" s="52"/>
-    </row>
-    <row r="660" spans="5:5">
-      <c r="E660" s="52"/>
-    </row>
-    <row r="661" spans="5:5">
-      <c r="E661" s="52"/>
-    </row>
-    <row r="662" spans="5:5">
-      <c r="E662" s="52"/>
-    </row>
-    <row r="663" spans="5:5">
-      <c r="E663" s="52"/>
-    </row>
-    <row r="664" spans="5:5">
-      <c r="E664" s="52"/>
-    </row>
-    <row r="665" spans="5:5">
-      <c r="E665" s="52"/>
-    </row>
-    <row r="666" spans="5:5">
-      <c r="E666" s="52"/>
-    </row>
-    <row r="667" spans="5:5">
-      <c r="E667" s="52"/>
-    </row>
-    <row r="668" spans="5:5">
-      <c r="E668" s="52"/>
-    </row>
-    <row r="669" spans="5:5">
-      <c r="E669" s="52"/>
-    </row>
-    <row r="670" spans="5:5">
-      <c r="E670" s="52"/>
-    </row>
-    <row r="671" spans="5:5">
-      <c r="E671" s="52"/>
-    </row>
-    <row r="672" spans="5:5">
-      <c r="E672" s="52"/>
-    </row>
-    <row r="673" spans="5:5">
-      <c r="E673" s="52"/>
-    </row>
-    <row r="674" spans="5:5">
-      <c r="E674" s="52"/>
-    </row>
-    <row r="675" spans="5:5">
-      <c r="E675" s="52"/>
-    </row>
-    <row r="676" spans="5:5">
-      <c r="E676" s="52"/>
-    </row>
-    <row r="677" spans="5:5">
-      <c r="E677" s="52"/>
-    </row>
-    <row r="678" spans="5:5">
-      <c r="E678" s="52"/>
-    </row>
-    <row r="679" spans="5:5">
-      <c r="E679" s="52"/>
-    </row>
-    <row r="680" spans="5:5">
-      <c r="E680" s="52"/>
-    </row>
-    <row r="681" spans="5:5">
-      <c r="E681" s="52"/>
-    </row>
-    <row r="682" spans="5:5">
-      <c r="E682" s="52"/>
-    </row>
-    <row r="683" spans="5:5">
-      <c r="E683" s="52"/>
-    </row>
-    <row r="684" spans="5:5">
-      <c r="E684" s="52"/>
-    </row>
-    <row r="685" spans="5:5">
-      <c r="E685" s="52"/>
-    </row>
-    <row r="686" spans="5:5">
-      <c r="E686" s="52"/>
-    </row>
-    <row r="687" spans="5:5">
-      <c r="E687" s="52"/>
-    </row>
-    <row r="688" spans="5:5">
-      <c r="E688" s="52"/>
-    </row>
-    <row r="689" spans="5:5">
-      <c r="E689" s="52"/>
-    </row>
-    <row r="690" spans="5:5">
-      <c r="E690" s="52"/>
-    </row>
-    <row r="691" spans="5:5">
-      <c r="E691" s="52"/>
-    </row>
-    <row r="692" spans="5:5">
-      <c r="E692" s="52"/>
-    </row>
-    <row r="693" spans="5:5">
-      <c r="E693" s="52"/>
-    </row>
-    <row r="694" spans="5:5">
-      <c r="E694" s="52"/>
-    </row>
-    <row r="695" spans="5:5">
-      <c r="E695" s="52"/>
-    </row>
-    <row r="696" spans="5:5">
-      <c r="E696" s="52"/>
-    </row>
-    <row r="697" spans="5:5">
-      <c r="E697" s="52"/>
-    </row>
-    <row r="698" spans="5:5">
-      <c r="E698" s="52"/>
-    </row>
-    <row r="699" spans="5:5">
-      <c r="E699" s="52"/>
+    <row r="567" ht="17.7" spans="1:3">
+      <c r="A567" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="B567" s="47"/>
+      <c r="C567" s="48"/>
+    </row>
+    <row r="568" ht="16.95" spans="1:5">
+      <c r="A568" s="49" t="str">
+        <f>CONCATENATE("&lt;loc&gt;",B568,"&lt;/loc&gt;")</f>
+        <v>&lt;loc&gt;https://eduardoherreraf.github.io/analisis-de-datos-0003_tipos_de_datos_simples_en_python.html&lt;/loc&gt;</v>
+      </c>
+      <c r="B568" s="50" t="str">
+        <f>CONCATENATE($C$5,C568)</f>
+        <v>https://eduardoherreraf.github.io/analisis-de-datos-0003_tipos_de_datos_simples_en_python.html</v>
+      </c>
+      <c r="C568" s="51" t="s">
+        <v>336</v>
+      </c>
+      <c r="E568" s="52"/>
+    </row>
+    <row r="569" spans="1:5">
+      <c r="A569" s="49" t="str">
+        <f>CONCATENATE("&lt;lastmod&gt;",B569,"&lt;/lastmod&gt;")</f>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
+      </c>
+      <c r="B569" s="50" t="str">
+        <f>$C$1</f>
+        <v>2025-10-28T10:49:04-05:00</v>
+      </c>
+      <c r="C569" s="53"/>
+      <c r="E569" s="52"/>
+    </row>
+    <row r="570" ht="16.95" spans="1:5">
+      <c r="A570" s="49" t="str">
+        <f>CONCATENATE("&lt;changefreq&gt;",B570,"&lt;/changefreq&gt;")</f>
+        <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
+      </c>
+      <c r="B570" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="C570" s="53"/>
+      <c r="E570" s="52"/>
+    </row>
+    <row r="571" ht="16.95" spans="1:3">
+      <c r="A571" s="49" t="str">
+        <f>CONCATENATE("&lt;priority&gt;",B571,"&lt;/priority&gt;")</f>
+        <v>&lt;priority&gt;0.6&lt;/priority&gt;</v>
+      </c>
+      <c r="B571" s="50" t="str">
+        <f>C571</f>
+        <v>0.6</v>
+      </c>
+      <c r="C571" s="54" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="572" ht="16.95" spans="1:3">
+      <c r="A572" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="B572" s="56"/>
+      <c r="C572" s="57"/>
+    </row>
+    <row r="573" ht="17.7" spans="1:3">
+      <c r="A573" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="B573" s="47"/>
+      <c r="C573" s="48"/>
+    </row>
+    <row r="574" ht="16.95" spans="1:5">
+      <c r="A574" s="49" t="str">
+        <f>CONCATENATE("&lt;loc&gt;",B574,"&lt;/loc&gt;")</f>
+        <v>&lt;loc&gt;https://eduardoherreraf.github.io/analisis-de-datos-0004_estructuras_de_datos_en_Python.html&lt;/loc&gt;</v>
+      </c>
+      <c r="B574" s="50" t="str">
+        <f>CONCATENATE($C$5,C574)</f>
+        <v>https://eduardoherreraf.github.io/analisis-de-datos-0004_estructuras_de_datos_en_Python.html</v>
+      </c>
+      <c r="C574" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="E574" s="52"/>
+    </row>
+    <row r="575" spans="1:5">
+      <c r="A575" s="49" t="str">
+        <f>CONCATENATE("&lt;lastmod&gt;",B575,"&lt;/lastmod&gt;")</f>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
+      </c>
+      <c r="B575" s="50" t="str">
+        <f>$C$1</f>
+        <v>2025-10-28T10:49:04-05:00</v>
+      </c>
+      <c r="C575" s="53"/>
+      <c r="E575" s="52"/>
+    </row>
+    <row r="576" ht="16.95" spans="1:5">
+      <c r="A576" s="49" t="str">
+        <f>CONCATENATE("&lt;changefreq&gt;",B576,"&lt;/changefreq&gt;")</f>
+        <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
+      </c>
+      <c r="B576" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="C576" s="53"/>
+      <c r="E576" s="52"/>
+    </row>
+    <row r="577" ht="16.95" spans="1:3">
+      <c r="A577" s="49" t="str">
+        <f>CONCATENATE("&lt;priority&gt;",B577,"&lt;/priority&gt;")</f>
+        <v>&lt;priority&gt;0.6&lt;/priority&gt;</v>
+      </c>
+      <c r="B577" s="50" t="str">
+        <f>C577</f>
+        <v>0.6</v>
+      </c>
+      <c r="C577" s="54" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="578" ht="16.95" spans="1:3">
+      <c r="A578" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="B578" s="56"/>
+      <c r="C578" s="57"/>
+    </row>
+    <row r="579" ht="17.7" spans="1:3">
+      <c r="A579" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="B579" s="47"/>
+      <c r="C579" s="48"/>
+    </row>
+    <row r="580" ht="16.95" spans="1:5">
+      <c r="A580" s="49" t="str">
+        <f>CONCATENATE("&lt;loc&gt;",B580,"&lt;/loc&gt;")</f>
+        <v>&lt;loc&gt;https://eduardoherreraf.github.io/analisis-de-datos-0005_operadores_basicos_en_python.html&lt;/loc&gt;</v>
+      </c>
+      <c r="B580" s="50" t="str">
+        <f>CONCATENATE($C$5,C580)</f>
+        <v>https://eduardoherreraf.github.io/analisis-de-datos-0005_operadores_basicos_en_python.html</v>
+      </c>
+      <c r="C580" s="51" t="s">
+        <v>338</v>
+      </c>
+      <c r="E580" s="52"/>
+    </row>
+    <row r="581" spans="1:5">
+      <c r="A581" s="49" t="str">
+        <f>CONCATENATE("&lt;lastmod&gt;",B581,"&lt;/lastmod&gt;")</f>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
+      </c>
+      <c r="B581" s="50" t="str">
+        <f>$C$1</f>
+        <v>2025-10-28T10:49:04-05:00</v>
+      </c>
+      <c r="C581" s="53"/>
+      <c r="E581" s="52"/>
+    </row>
+    <row r="582" ht="16.95" spans="1:5">
+      <c r="A582" s="49" t="str">
+        <f>CONCATENATE("&lt;changefreq&gt;",B582,"&lt;/changefreq&gt;")</f>
+        <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
+      </c>
+      <c r="B582" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="C582" s="53"/>
+      <c r="E582" s="52"/>
+    </row>
+    <row r="583" ht="16.95" spans="1:3">
+      <c r="A583" s="49" t="str">
+        <f>CONCATENATE("&lt;priority&gt;",B583,"&lt;/priority&gt;")</f>
+        <v>&lt;priority&gt;0.6&lt;/priority&gt;</v>
+      </c>
+      <c r="B583" s="50" t="str">
+        <f>C583</f>
+        <v>0.6</v>
+      </c>
+      <c r="C583" s="54" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="584" ht="16.95" spans="1:3">
+      <c r="A584" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="B584" s="56"/>
+      <c r="C584" s="57"/>
+    </row>
+    <row r="585" ht="17.7" spans="1:3">
+      <c r="A585" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="B585" s="47"/>
+      <c r="C585" s="48"/>
+    </row>
+    <row r="586" ht="16.95" spans="1:5">
+      <c r="A586" s="49" t="str">
+        <f>CONCATENATE("&lt;loc&gt;",B586,"&lt;/loc&gt;")</f>
+        <v>&lt;loc&gt;https://eduardoherreraf.github.io/analisis-de-datos-0006_funciones_de_entrada_y_salida_en_python.html&lt;/loc&gt;</v>
+      </c>
+      <c r="B586" s="50" t="str">
+        <f>CONCATENATE($C$5,C586)</f>
+        <v>https://eduardoherreraf.github.io/analisis-de-datos-0006_funciones_de_entrada_y_salida_en_python.html</v>
+      </c>
+      <c r="C586" s="51" t="s">
+        <v>339</v>
+      </c>
+      <c r="E586" s="52"/>
+    </row>
+    <row r="587" spans="1:5">
+      <c r="A587" s="49" t="str">
+        <f>CONCATENATE("&lt;lastmod&gt;",B587,"&lt;/lastmod&gt;")</f>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
+      </c>
+      <c r="B587" s="50" t="str">
+        <f>$C$1</f>
+        <v>2025-10-28T10:49:04-05:00</v>
+      </c>
+      <c r="C587" s="53"/>
+      <c r="E587" s="52"/>
+    </row>
+    <row r="588" ht="16.95" spans="1:5">
+      <c r="A588" s="49" t="str">
+        <f>CONCATENATE("&lt;changefreq&gt;",B588,"&lt;/changefreq&gt;")</f>
+        <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
+      </c>
+      <c r="B588" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="C588" s="53"/>
+      <c r="E588" s="52"/>
+    </row>
+    <row r="589" ht="16.95" spans="1:3">
+      <c r="A589" s="49" t="str">
+        <f>CONCATENATE("&lt;priority&gt;",B589,"&lt;/priority&gt;")</f>
+        <v>&lt;priority&gt;0.6&lt;/priority&gt;</v>
+      </c>
+      <c r="B589" s="50" t="str">
+        <f>C589</f>
+        <v>0.6</v>
+      </c>
+      <c r="C589" s="54" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="590" ht="16.95" spans="1:3">
+      <c r="A590" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="B590" s="56"/>
+      <c r="C590" s="57"/>
+    </row>
+    <row r="591" ht="17.7" spans="1:3">
+      <c r="A591" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="B591" s="47"/>
+      <c r="C591" s="48"/>
+    </row>
+    <row r="592" ht="16.95" spans="1:5">
+      <c r="A592" s="49" t="str">
+        <f>CONCATENATE("&lt;loc&gt;",B592,"&lt;/loc&gt;")</f>
+        <v>&lt;loc&gt;https://eduardoherreraf.github.io/analisis-de-datos-0007_condicionales_en_python.html&lt;/loc&gt;</v>
+      </c>
+      <c r="B592" s="50" t="str">
+        <f>CONCATENATE($C$5,C592)</f>
+        <v>https://eduardoherreraf.github.io/analisis-de-datos-0007_condicionales_en_python.html</v>
+      </c>
+      <c r="C592" s="51" t="s">
+        <v>340</v>
+      </c>
+      <c r="E592" s="52"/>
+    </row>
+    <row r="593" spans="1:5">
+      <c r="A593" s="49" t="str">
+        <f>CONCATENATE("&lt;lastmod&gt;",B593,"&lt;/lastmod&gt;")</f>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
+      </c>
+      <c r="B593" s="50" t="str">
+        <f>$C$1</f>
+        <v>2025-10-28T10:49:04-05:00</v>
+      </c>
+      <c r="C593" s="53"/>
+      <c r="E593" s="52"/>
+    </row>
+    <row r="594" ht="16.95" spans="1:5">
+      <c r="A594" s="49" t="str">
+        <f>CONCATENATE("&lt;changefreq&gt;",B594,"&lt;/changefreq&gt;")</f>
+        <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
+      </c>
+      <c r="B594" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="C594" s="53"/>
+      <c r="E594" s="52"/>
+    </row>
+    <row r="595" ht="16.95" spans="1:3">
+      <c r="A595" s="49" t="str">
+        <f>CONCATENATE("&lt;priority&gt;",B595,"&lt;/priority&gt;")</f>
+        <v>&lt;priority&gt;0.6&lt;/priority&gt;</v>
+      </c>
+      <c r="B595" s="50" t="str">
+        <f>C595</f>
+        <v>0.6</v>
+      </c>
+      <c r="C595" s="54" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="596" ht="16.95" spans="1:3">
+      <c r="A596" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="B596" s="56"/>
+      <c r="C596" s="57"/>
+    </row>
+    <row r="597" ht="17.7" spans="1:3">
+      <c r="A597" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="B597" s="47"/>
+      <c r="C597" s="48"/>
+    </row>
+    <row r="598" ht="16.95" spans="1:5">
+      <c r="A598" s="49" t="str">
+        <f>CONCATENATE("&lt;loc&gt;",B598,"&lt;/loc&gt;")</f>
+        <v>&lt;loc&gt;https://eduardoherreraf.github.io/analisis-de-datos-0008_bucles_en_python.html&lt;/loc&gt;</v>
+      </c>
+      <c r="B598" s="50" t="str">
+        <f>CONCATENATE($C$5,C598)</f>
+        <v>https://eduardoherreraf.github.io/analisis-de-datos-0008_bucles_en_python.html</v>
+      </c>
+      <c r="C598" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="E598" s="52"/>
+    </row>
+    <row r="599" spans="1:5">
+      <c r="A599" s="49" t="str">
+        <f>CONCATENATE("&lt;lastmod&gt;",B599,"&lt;/lastmod&gt;")</f>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
+      </c>
+      <c r="B599" s="50" t="str">
+        <f>$C$1</f>
+        <v>2025-10-28T10:49:04-05:00</v>
+      </c>
+      <c r="C599" s="53"/>
+      <c r="E599" s="52"/>
+    </row>
+    <row r="600" ht="16.95" spans="1:5">
+      <c r="A600" s="49" t="str">
+        <f>CONCATENATE("&lt;changefreq&gt;",B600,"&lt;/changefreq&gt;")</f>
+        <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
+      </c>
+      <c r="B600" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="C600" s="53"/>
+      <c r="E600" s="52"/>
+    </row>
+    <row r="601" ht="16.95" spans="1:3">
+      <c r="A601" s="49" t="str">
+        <f>CONCATENATE("&lt;priority&gt;",B601,"&lt;/priority&gt;")</f>
+        <v>&lt;priority&gt;0.6&lt;/priority&gt;</v>
+      </c>
+      <c r="B601" s="50" t="str">
+        <f>C601</f>
+        <v>0.6</v>
+      </c>
+      <c r="C601" s="54" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="602" ht="16.95" spans="1:3">
+      <c r="A602" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="B602" s="56"/>
+      <c r="C602" s="57"/>
+    </row>
+    <row r="603" ht="17.7" spans="1:3">
+      <c r="A603" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="B603" s="47"/>
+      <c r="C603" s="48"/>
+    </row>
+    <row r="604" ht="16.95" spans="1:5">
+      <c r="A604" s="49" t="str">
+        <f>CONCATENATE("&lt;loc&gt;",B604,"&lt;/loc&gt;")</f>
+        <v>&lt;loc&gt;https://eduardoherreraf.github.io/analisis-de-datos-0009_funciones-en-pyhon.html&lt;/loc&gt;</v>
+      </c>
+      <c r="B604" s="50" t="str">
+        <f>CONCATENATE($C$5,C604)</f>
+        <v>https://eduardoherreraf.github.io/analisis-de-datos-0009_funciones-en-pyhon.html</v>
+      </c>
+      <c r="C604" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="E604" s="52"/>
+    </row>
+    <row r="605" spans="1:5">
+      <c r="A605" s="49" t="str">
+        <f>CONCATENATE("&lt;lastmod&gt;",B605,"&lt;/lastmod&gt;")</f>
+        <v>&lt;lastmod&gt;2025-10-28T10:49:04-05:00&lt;/lastmod&gt;</v>
+      </c>
+      <c r="B605" s="50" t="str">
+        <f>$C$1</f>
+        <v>2025-10-28T10:49:04-05:00</v>
+      </c>
+      <c r="C605" s="53"/>
+      <c r="E605" s="52"/>
+    </row>
+    <row r="606" ht="16.95" spans="1:5">
+      <c r="A606" s="49" t="str">
+        <f>CONCATENATE("&lt;changefreq&gt;",B606,"&lt;/changefreq&gt;")</f>
+        <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
+      </c>
+      <c r="B606" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="C606" s="53"/>
+      <c r="E606" s="52"/>
+    </row>
+    <row r="607" ht="16.95" spans="1:3">
+      <c r="A607" s="49" t="str">
+        <f>CONCATENATE("&lt;priority&gt;",B607,"&lt;/priority&gt;")</f>
+        <v>&lt;priority&gt;0.6&lt;/priority&gt;</v>
+      </c>
+      <c r="B607" s="50" t="str">
+        <f>C607</f>
+        <v>0.6</v>
+      </c>
+      <c r="C607" s="54" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="608" ht="16.95" spans="1:3">
+      <c r="A608" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="B608" s="56"/>
+      <c r="C608" s="57"/>
+    </row>
+    <row r="609" ht="16.95" spans="1:3">
+      <c r="A609" s="41" t="s">
+        <v>342</v>
+      </c>
+      <c r="C609" s="59"/>
+    </row>
+    <row r="610" spans="3:3">
+      <c r="C610" s="59"/>
+    </row>
+    <row r="611" spans="3:3">
+      <c r="C611" s="59"/>
+    </row>
+    <row r="612" spans="3:3">
+      <c r="C612" s="59"/>
+    </row>
+    <row r="613" spans="3:3">
+      <c r="C613" s="59"/>
+    </row>
+    <row r="614" spans="3:3">
+      <c r="C614" s="59"/>
+    </row>
+    <row r="615" spans="3:3">
+      <c r="C615" s="59"/>
+    </row>
+    <row r="616" spans="3:3">
+      <c r="C616" s="59"/>
+    </row>
+    <row r="617" spans="3:3">
+      <c r="C617" s="59"/>
+    </row>
+    <row r="618" spans="3:3">
+      <c r="C618" s="59"/>
+    </row>
+    <row r="619" spans="3:3">
+      <c r="C619" s="59"/>
     </row>
     <row r="700" spans="5:5">
       <c r="E700" s="52"/>
@@ -65860,151 +66225,151 @@
       <c r="E727" s="52"/>
     </row>
     <row r="728" spans="5:5">
-      <c r="E728" s="59"/>
+      <c r="E728" s="52"/>
     </row>
     <row r="729" spans="5:5">
-      <c r="E729" s="59"/>
+      <c r="E729" s="52"/>
     </row>
     <row r="730" spans="5:5">
-      <c r="E730" s="59"/>
+      <c r="E730" s="52"/>
     </row>
     <row r="731" spans="5:5">
-      <c r="E731" s="59"/>
+      <c r="E731" s="52"/>
     </row>
     <row r="732" spans="5:5">
-      <c r="E732" s="59"/>
+      <c r="E732" s="52"/>
     </row>
     <row r="733" spans="5:5">
-      <c r="E733" s="59"/>
+      <c r="E733" s="52"/>
     </row>
     <row r="734" spans="5:5">
-      <c r="E734" s="59"/>
+      <c r="E734" s="52"/>
     </row>
     <row r="735" spans="5:5">
-      <c r="E735" s="42"/>
+      <c r="E735" s="52"/>
     </row>
     <row r="736" spans="5:5">
-      <c r="E736" s="42"/>
+      <c r="E736" s="52"/>
     </row>
     <row r="737" spans="5:5">
-      <c r="E737" s="42"/>
+      <c r="E737" s="52"/>
     </row>
     <row r="738" spans="5:5">
-      <c r="E738" s="42"/>
+      <c r="E738" s="52"/>
     </row>
     <row r="739" spans="5:5">
-      <c r="E739" s="42"/>
+      <c r="E739" s="52"/>
     </row>
     <row r="740" spans="5:5">
-      <c r="E740" s="42"/>
+      <c r="E740" s="52"/>
     </row>
     <row r="741" spans="5:5">
-      <c r="E741" s="42"/>
+      <c r="E741" s="52"/>
     </row>
     <row r="742" spans="5:5">
-      <c r="E742" s="42"/>
+      <c r="E742" s="52"/>
     </row>
     <row r="743" spans="5:5">
-      <c r="E743" s="42"/>
+      <c r="E743" s="52"/>
     </row>
     <row r="744" spans="5:5">
-      <c r="E744" s="42"/>
+      <c r="E744" s="52"/>
     </row>
     <row r="745" spans="5:5">
-      <c r="E745" s="42"/>
+      <c r="E745" s="52"/>
     </row>
     <row r="746" spans="5:5">
-      <c r="E746" s="42"/>
+      <c r="E746" s="52"/>
     </row>
     <row r="747" spans="5:5">
-      <c r="E747" s="42"/>
+      <c r="E747" s="52"/>
     </row>
     <row r="748" spans="5:5">
-      <c r="E748" s="42"/>
+      <c r="E748" s="52"/>
     </row>
     <row r="749" spans="5:5">
-      <c r="E749" s="42"/>
+      <c r="E749" s="52"/>
     </row>
     <row r="750" spans="5:5">
-      <c r="E750" s="42"/>
+      <c r="E750" s="52"/>
     </row>
     <row r="751" spans="5:5">
-      <c r="E751" s="42"/>
+      <c r="E751" s="52"/>
     </row>
     <row r="752" spans="5:5">
-      <c r="E752" s="42"/>
+      <c r="E752" s="52"/>
     </row>
     <row r="753" spans="5:5">
-      <c r="E753" s="42"/>
+      <c r="E753" s="52"/>
     </row>
     <row r="754" spans="5:5">
-      <c r="E754" s="42"/>
+      <c r="E754" s="52"/>
     </row>
     <row r="755" spans="5:5">
-      <c r="E755" s="42"/>
+      <c r="E755" s="52"/>
     </row>
     <row r="756" spans="5:5">
-      <c r="E756" s="42"/>
+      <c r="E756" s="52"/>
     </row>
     <row r="757" spans="5:5">
-      <c r="E757" s="42"/>
+      <c r="E757" s="52"/>
     </row>
     <row r="758" spans="5:5">
-      <c r="E758" s="42"/>
+      <c r="E758" s="52"/>
     </row>
     <row r="759" spans="5:5">
-      <c r="E759" s="42"/>
+      <c r="E759" s="52"/>
     </row>
     <row r="760" spans="5:5">
-      <c r="E760" s="42"/>
+      <c r="E760" s="52"/>
     </row>
     <row r="761" spans="5:5">
-      <c r="E761" s="42"/>
+      <c r="E761" s="52"/>
     </row>
     <row r="762" spans="5:5">
-      <c r="E762" s="42"/>
+      <c r="E762" s="52"/>
     </row>
     <row r="763" spans="5:5">
-      <c r="E763" s="42"/>
+      <c r="E763" s="52"/>
     </row>
     <row r="764" spans="5:5">
-      <c r="E764" s="42"/>
+      <c r="E764" s="52"/>
     </row>
     <row r="765" spans="5:5">
-      <c r="E765" s="42"/>
+      <c r="E765" s="52"/>
     </row>
     <row r="766" spans="5:5">
-      <c r="E766" s="42"/>
+      <c r="E766" s="52"/>
     </row>
     <row r="767" spans="5:5">
-      <c r="E767" s="42"/>
+      <c r="E767" s="52"/>
     </row>
     <row r="768" spans="5:5">
-      <c r="E768" s="42"/>
+      <c r="E768" s="52"/>
     </row>
     <row r="769" spans="5:5">
-      <c r="E769" s="42"/>
+      <c r="E769" s="52"/>
     </row>
     <row r="770" spans="5:5">
-      <c r="E770" s="42"/>
+      <c r="E770" s="59"/>
     </row>
     <row r="771" spans="5:5">
-      <c r="E771" s="42"/>
+      <c r="E771" s="59"/>
     </row>
     <row r="772" spans="5:5">
-      <c r="E772" s="42"/>
+      <c r="E772" s="59"/>
     </row>
     <row r="773" spans="5:5">
-      <c r="E773" s="42"/>
+      <c r="E773" s="59"/>
     </row>
     <row r="774" spans="5:5">
-      <c r="E774" s="42"/>
+      <c r="E774" s="59"/>
     </row>
     <row r="775" spans="5:5">
-      <c r="E775" s="42"/>
+      <c r="E775" s="59"/>
     </row>
     <row r="776" spans="5:5">
-      <c r="E776" s="42"/>
+      <c r="E776" s="59"/>
     </row>
     <row r="777" spans="5:5">
       <c r="E777" s="42"/>
@@ -66111,372 +66476,537 @@
     <row r="811" spans="5:5">
       <c r="E811" s="42"/>
     </row>
+    <row r="812" spans="5:5">
+      <c r="E812" s="42"/>
+    </row>
+    <row r="813" spans="5:5">
+      <c r="E813" s="42"/>
+    </row>
+    <row r="814" spans="5:5">
+      <c r="E814" s="42"/>
+    </row>
+    <row r="815" spans="5:5">
+      <c r="E815" s="42"/>
+    </row>
+    <row r="816" spans="5:5">
+      <c r="E816" s="42"/>
+    </row>
+    <row r="817" spans="5:5">
+      <c r="E817" s="42"/>
+    </row>
+    <row r="818" spans="5:5">
+      <c r="E818" s="42"/>
+    </row>
+    <row r="819" spans="5:5">
+      <c r="E819" s="42"/>
+    </row>
+    <row r="820" spans="5:5">
+      <c r="E820" s="42"/>
+    </row>
+    <row r="821" spans="5:5">
+      <c r="E821" s="42"/>
+    </row>
+    <row r="822" spans="5:5">
+      <c r="E822" s="42"/>
+    </row>
+    <row r="823" spans="5:5">
+      <c r="E823" s="42"/>
+    </row>
+    <row r="824" spans="5:5">
+      <c r="E824" s="42"/>
+    </row>
+    <row r="825" spans="5:5">
+      <c r="E825" s="42"/>
+    </row>
+    <row r="826" spans="5:5">
+      <c r="E826" s="42"/>
+    </row>
+    <row r="827" spans="5:5">
+      <c r="E827" s="42"/>
+    </row>
+    <row r="828" spans="5:5">
+      <c r="E828" s="42"/>
+    </row>
+    <row r="829" spans="5:5">
+      <c r="E829" s="42"/>
+    </row>
+    <row r="830" spans="5:5">
+      <c r="E830" s="42"/>
+    </row>
+    <row r="831" spans="5:5">
+      <c r="E831" s="42"/>
+    </row>
+    <row r="832" spans="5:5">
+      <c r="E832" s="42"/>
+    </row>
+    <row r="833" spans="5:5">
+      <c r="E833" s="42"/>
+    </row>
+    <row r="834" spans="5:5">
+      <c r="E834" s="42"/>
+    </row>
+    <row r="835" spans="5:5">
+      <c r="E835" s="42"/>
+    </row>
+    <row r="836" spans="5:5">
+      <c r="E836" s="42"/>
+    </row>
+    <row r="837" spans="5:5">
+      <c r="E837" s="42"/>
+    </row>
+    <row r="838" spans="5:5">
+      <c r="E838" s="42"/>
+    </row>
+    <row r="839" spans="5:5">
+      <c r="E839" s="42"/>
+    </row>
+    <row r="840" spans="5:5">
+      <c r="E840" s="42"/>
+    </row>
+    <row r="841" spans="5:5">
+      <c r="E841" s="42"/>
+    </row>
+    <row r="842" spans="5:5">
+      <c r="E842" s="42"/>
+    </row>
+    <row r="843" spans="5:5">
+      <c r="E843" s="42"/>
+    </row>
+    <row r="844" spans="5:5">
+      <c r="E844" s="42"/>
+    </row>
+    <row r="845" spans="5:5">
+      <c r="E845" s="42"/>
+    </row>
+    <row r="846" spans="5:5">
+      <c r="E846" s="42"/>
+    </row>
+    <row r="847" spans="5:5">
+      <c r="E847" s="42"/>
+    </row>
+    <row r="848" spans="5:5">
+      <c r="E848" s="42"/>
+    </row>
+    <row r="849" spans="5:5">
+      <c r="E849" s="42"/>
+    </row>
+    <row r="850" spans="5:5">
+      <c r="E850" s="42"/>
+    </row>
+    <row r="851" spans="5:5">
+      <c r="E851" s="42"/>
+    </row>
+    <row r="852" spans="5:5">
+      <c r="E852" s="42"/>
+    </row>
+    <row r="853" spans="5:5">
+      <c r="E853" s="42"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="0" priority="309"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="330"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D109">
+    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D232">
+    <cfRule type="duplicateValues" dxfId="0" priority="77"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E232">
+    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D468">
+    <cfRule type="duplicateValues" dxfId="0" priority="103"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D541">
+    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D554">
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C603:C608">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:D16">
+    <cfRule type="duplicateValues" dxfId="0" priority="254"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D22">
+    <cfRule type="duplicateValues" dxfId="0" priority="253"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:D28">
+    <cfRule type="duplicateValues" dxfId="0" priority="252"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:D34">
+    <cfRule type="duplicateValues" dxfId="0" priority="251"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:D40">
+    <cfRule type="duplicateValues" dxfId="0" priority="250"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:D46">
+    <cfRule type="duplicateValues" dxfId="0" priority="106"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47:D52">
+    <cfRule type="duplicateValues" dxfId="0" priority="249"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53:D58">
+    <cfRule type="duplicateValues" dxfId="0" priority="81"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59:D64">
+    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66:D71">
+    <cfRule type="duplicateValues" dxfId="0" priority="242"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D72:D77">
+    <cfRule type="duplicateValues" dxfId="0" priority="241"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D79:D84">
+    <cfRule type="duplicateValues" dxfId="0" priority="238"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D85:D90">
+    <cfRule type="duplicateValues" dxfId="0" priority="236"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D91:D96">
+    <cfRule type="duplicateValues" dxfId="0" priority="237"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D97:D102">
+    <cfRule type="duplicateValues" dxfId="0" priority="235"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D110:D114">
+    <cfRule type="duplicateValues" dxfId="0" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D116:D121">
+    <cfRule type="duplicateValues" dxfId="0" priority="225"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D123:D128">
+    <cfRule type="duplicateValues" dxfId="0" priority="222"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D129:D134">
+    <cfRule type="duplicateValues" dxfId="0" priority="221"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D135:D140">
+    <cfRule type="duplicateValues" dxfId="0" priority="220"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D141:D146">
+    <cfRule type="duplicateValues" dxfId="0" priority="219"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D147:D152">
+    <cfRule type="duplicateValues" dxfId="0" priority="218"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D153:D158">
+    <cfRule type="duplicateValues" dxfId="0" priority="217"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D159:D164">
+    <cfRule type="duplicateValues" dxfId="0" priority="216"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D165:D170">
+    <cfRule type="duplicateValues" dxfId="0" priority="215"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D171:D176">
+    <cfRule type="duplicateValues" dxfId="0" priority="214"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D177:D182">
+    <cfRule type="duplicateValues" dxfId="0" priority="213"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D183:D188">
+    <cfRule type="duplicateValues" dxfId="0" priority="212"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D189:D194">
+    <cfRule type="duplicateValues" dxfId="0" priority="211"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D195:D200">
+    <cfRule type="duplicateValues" dxfId="0" priority="210"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D201:D206">
+    <cfRule type="duplicateValues" dxfId="0" priority="209"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D207:D212">
+    <cfRule type="duplicateValues" dxfId="0" priority="208"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D213:D218">
+    <cfRule type="duplicateValues" dxfId="0" priority="207"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D220:D225">
+    <cfRule type="duplicateValues" dxfId="0" priority="190"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D226:D231">
+    <cfRule type="duplicateValues" dxfId="0" priority="189"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D234:D239">
+    <cfRule type="duplicateValues" dxfId="0" priority="186"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D240:D245">
+    <cfRule type="duplicateValues" dxfId="0" priority="185"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D246:D251">
+    <cfRule type="duplicateValues" dxfId="0" priority="184"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D252:D257">
+    <cfRule type="duplicateValues" dxfId="0" priority="183"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D258:D263">
+    <cfRule type="duplicateValues" dxfId="0" priority="182"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D264:D269">
+    <cfRule type="duplicateValues" dxfId="0" priority="181"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D270:D275">
+    <cfRule type="duplicateValues" dxfId="0" priority="180"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D276:D281">
+    <cfRule type="duplicateValues" dxfId="0" priority="179"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D282:D287">
+    <cfRule type="duplicateValues" dxfId="0" priority="178"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D288:D293">
+    <cfRule type="duplicateValues" dxfId="0" priority="177"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D294:D299">
+    <cfRule type="duplicateValues" dxfId="0" priority="176"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D300:D305">
+    <cfRule type="duplicateValues" dxfId="0" priority="175"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D306:D311">
+    <cfRule type="duplicateValues" dxfId="0" priority="174"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D312:D317">
+    <cfRule type="duplicateValues" dxfId="0" priority="173"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D318:D323">
+    <cfRule type="duplicateValues" dxfId="0" priority="172"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D324:D329">
+    <cfRule type="duplicateValues" dxfId="0" priority="171"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D330:D335">
+    <cfRule type="duplicateValues" dxfId="0" priority="170"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D336:D341">
+    <cfRule type="duplicateValues" dxfId="0" priority="169"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D342:D347">
+    <cfRule type="duplicateValues" dxfId="0" priority="168"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D348:D353">
+    <cfRule type="duplicateValues" dxfId="0" priority="167"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D354:D359">
+    <cfRule type="duplicateValues" dxfId="0" priority="166"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D360:D365">
+    <cfRule type="duplicateValues" dxfId="0" priority="165"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D366:D371">
+    <cfRule type="duplicateValues" dxfId="0" priority="164"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D372:D377">
+    <cfRule type="duplicateValues" dxfId="0" priority="163"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D378:D383">
+    <cfRule type="duplicateValues" dxfId="0" priority="162"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D384:D389">
+    <cfRule type="duplicateValues" dxfId="0" priority="161"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D390:D395">
+    <cfRule type="duplicateValues" dxfId="0" priority="160"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D396:D401">
+    <cfRule type="duplicateValues" dxfId="0" priority="159"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D402:D407">
+    <cfRule type="duplicateValues" dxfId="0" priority="158"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D408:D413">
+    <cfRule type="duplicateValues" dxfId="0" priority="157"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D414:D419">
+    <cfRule type="duplicateValues" dxfId="0" priority="156"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D420:D425">
+    <cfRule type="duplicateValues" dxfId="0" priority="155"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D426:D431">
+    <cfRule type="duplicateValues" dxfId="0" priority="154"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D432:D437">
+    <cfRule type="duplicateValues" dxfId="0" priority="153"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D438:D443">
+    <cfRule type="duplicateValues" dxfId="0" priority="152"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D444:D449">
+    <cfRule type="duplicateValues" dxfId="0" priority="151"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D450:D455">
+    <cfRule type="duplicateValues" dxfId="0" priority="150"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D456:D461">
+    <cfRule type="duplicateValues" dxfId="0" priority="149"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D469:D474">
+    <cfRule type="duplicateValues" dxfId="0" priority="102"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D475:D480">
+    <cfRule type="duplicateValues" dxfId="0" priority="99"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D481:D486">
+    <cfRule type="duplicateValues" dxfId="0" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D487:D492">
+    <cfRule type="duplicateValues" dxfId="0" priority="93"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D493:D498">
+    <cfRule type="duplicateValues" dxfId="0" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D499:D504">
+    <cfRule type="duplicateValues" dxfId="0" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D505:D510">
+    <cfRule type="duplicateValues" dxfId="0" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D511:D516">
+    <cfRule type="duplicateValues" dxfId="0" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D517:D522">
+    <cfRule type="duplicateValues" dxfId="0" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D523:D528">
+    <cfRule type="duplicateValues" dxfId="0" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D529:D534">
+    <cfRule type="duplicateValues" dxfId="0" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D535:D540">
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D542:D547">
+    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D548:D553">
+    <cfRule type="duplicateValues" dxfId="0" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D555:D560">
+    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D561:D566">
+    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D567:D572">
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D573:D578">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D579:D584">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D585:D590">
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D591:D596">
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D597:D602">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D603:D608">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41:E46">
+    <cfRule type="duplicateValues" dxfId="0" priority="104"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53:E58">
+    <cfRule type="duplicateValues" dxfId="0" priority="79"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59:E64">
+    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109:E114">
+    <cfRule type="duplicateValues" dxfId="0" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E468:E474">
+    <cfRule type="duplicateValues" dxfId="0" priority="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E475:E480">
+    <cfRule type="duplicateValues" dxfId="0" priority="97"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E481:E486">
+    <cfRule type="duplicateValues" dxfId="0" priority="94"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E487:E492">
+    <cfRule type="duplicateValues" dxfId="0" priority="91"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E493:E498">
+    <cfRule type="duplicateValues" dxfId="0" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E499:E504">
+    <cfRule type="duplicateValues" dxfId="0" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E505:E510">
+    <cfRule type="duplicateValues" dxfId="0" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E511:E516">
+    <cfRule type="duplicateValues" dxfId="0" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E517:E522">
+    <cfRule type="duplicateValues" dxfId="0" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E523:E528">
+    <cfRule type="duplicateValues" dxfId="0" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E529:E534">
+    <cfRule type="duplicateValues" dxfId="0" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E535:E540">
+    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E541:E547">
+    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E548:E553">
+    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E554:E560">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E561:E566">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E567:E572">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E573:E578">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E579:E584">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E585:E590">
     <cfRule type="duplicateValues" dxfId="0" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D232">
-    <cfRule type="duplicateValues" dxfId="0" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E232">
-    <cfRule type="duplicateValues" dxfId="0" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D468">
-    <cfRule type="duplicateValues" dxfId="0" priority="82"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D541">
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D554">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C541:C553">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C554:C566">
+  <conditionalFormatting sqref="E591:E596">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E597:E602">
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E603:E608">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D16">
-    <cfRule type="duplicateValues" dxfId="0" priority="233"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D22">
-    <cfRule type="duplicateValues" dxfId="0" priority="232"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D28">
-    <cfRule type="duplicateValues" dxfId="0" priority="231"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D34">
-    <cfRule type="duplicateValues" dxfId="0" priority="230"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35:D40">
-    <cfRule type="duplicateValues" dxfId="0" priority="229"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:D46">
-    <cfRule type="duplicateValues" dxfId="0" priority="85"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D52">
-    <cfRule type="duplicateValues" dxfId="0" priority="228"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53:D58">
-    <cfRule type="duplicateValues" dxfId="0" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59:D64">
-    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66:D71">
-    <cfRule type="duplicateValues" dxfId="0" priority="221"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D72:D77">
-    <cfRule type="duplicateValues" dxfId="0" priority="220"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D79:D84">
-    <cfRule type="duplicateValues" dxfId="0" priority="217"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D85:D90">
-    <cfRule type="duplicateValues" dxfId="0" priority="215"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D91:D96">
-    <cfRule type="duplicateValues" dxfId="0" priority="216"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D97:D102">
-    <cfRule type="duplicateValues" dxfId="0" priority="214"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D110:D114">
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D116:D121">
-    <cfRule type="duplicateValues" dxfId="0" priority="204"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D123:D128">
-    <cfRule type="duplicateValues" dxfId="0" priority="201"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D129:D134">
-    <cfRule type="duplicateValues" dxfId="0" priority="200"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D135:D140">
-    <cfRule type="duplicateValues" dxfId="0" priority="199"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D141:D146">
-    <cfRule type="duplicateValues" dxfId="0" priority="198"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D147:D152">
-    <cfRule type="duplicateValues" dxfId="0" priority="197"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D153:D158">
-    <cfRule type="duplicateValues" dxfId="0" priority="196"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D159:D164">
-    <cfRule type="duplicateValues" dxfId="0" priority="195"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D165:D170">
-    <cfRule type="duplicateValues" dxfId="0" priority="194"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D171:D176">
-    <cfRule type="duplicateValues" dxfId="0" priority="193"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D177:D182">
-    <cfRule type="duplicateValues" dxfId="0" priority="192"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D183:D188">
-    <cfRule type="duplicateValues" dxfId="0" priority="191"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D189:D194">
-    <cfRule type="duplicateValues" dxfId="0" priority="190"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D195:D200">
-    <cfRule type="duplicateValues" dxfId="0" priority="189"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D201:D206">
-    <cfRule type="duplicateValues" dxfId="0" priority="188"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D207:D212">
-    <cfRule type="duplicateValues" dxfId="0" priority="187"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D213:D218">
-    <cfRule type="duplicateValues" dxfId="0" priority="186"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D220:D225">
-    <cfRule type="duplicateValues" dxfId="0" priority="169"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D226:D231">
-    <cfRule type="duplicateValues" dxfId="0" priority="168"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D234:D239">
-    <cfRule type="duplicateValues" dxfId="0" priority="165"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D240:D245">
-    <cfRule type="duplicateValues" dxfId="0" priority="164"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D246:D251">
-    <cfRule type="duplicateValues" dxfId="0" priority="163"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D252:D257">
-    <cfRule type="duplicateValues" dxfId="0" priority="162"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D258:D263">
-    <cfRule type="duplicateValues" dxfId="0" priority="161"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D264:D269">
-    <cfRule type="duplicateValues" dxfId="0" priority="160"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D270:D275">
-    <cfRule type="duplicateValues" dxfId="0" priority="159"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D276:D281">
-    <cfRule type="duplicateValues" dxfId="0" priority="158"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D282:D287">
-    <cfRule type="duplicateValues" dxfId="0" priority="157"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D288:D293">
-    <cfRule type="duplicateValues" dxfId="0" priority="156"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D294:D299">
-    <cfRule type="duplicateValues" dxfId="0" priority="155"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D300:D305">
-    <cfRule type="duplicateValues" dxfId="0" priority="154"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D306:D311">
-    <cfRule type="duplicateValues" dxfId="0" priority="153"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D312:D317">
-    <cfRule type="duplicateValues" dxfId="0" priority="152"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D318:D323">
-    <cfRule type="duplicateValues" dxfId="0" priority="151"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D324:D329">
-    <cfRule type="duplicateValues" dxfId="0" priority="150"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D330:D335">
-    <cfRule type="duplicateValues" dxfId="0" priority="149"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D336:D341">
-    <cfRule type="duplicateValues" dxfId="0" priority="148"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D342:D347">
-    <cfRule type="duplicateValues" dxfId="0" priority="147"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D348:D353">
-    <cfRule type="duplicateValues" dxfId="0" priority="146"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D354:D359">
-    <cfRule type="duplicateValues" dxfId="0" priority="145"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D360:D365">
-    <cfRule type="duplicateValues" dxfId="0" priority="144"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D366:D371">
-    <cfRule type="duplicateValues" dxfId="0" priority="143"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D372:D377">
-    <cfRule type="duplicateValues" dxfId="0" priority="142"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D378:D383">
-    <cfRule type="duplicateValues" dxfId="0" priority="141"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D384:D389">
-    <cfRule type="duplicateValues" dxfId="0" priority="140"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D390:D395">
-    <cfRule type="duplicateValues" dxfId="0" priority="139"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D396:D401">
-    <cfRule type="duplicateValues" dxfId="0" priority="138"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D402:D407">
-    <cfRule type="duplicateValues" dxfId="0" priority="137"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D408:D413">
-    <cfRule type="duplicateValues" dxfId="0" priority="136"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D414:D419">
-    <cfRule type="duplicateValues" dxfId="0" priority="135"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D420:D425">
-    <cfRule type="duplicateValues" dxfId="0" priority="134"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D426:D431">
-    <cfRule type="duplicateValues" dxfId="0" priority="133"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D432:D437">
-    <cfRule type="duplicateValues" dxfId="0" priority="132"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D438:D443">
-    <cfRule type="duplicateValues" dxfId="0" priority="131"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D444:D449">
-    <cfRule type="duplicateValues" dxfId="0" priority="130"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D450:D455">
-    <cfRule type="duplicateValues" dxfId="0" priority="129"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D456:D461">
-    <cfRule type="duplicateValues" dxfId="0" priority="128"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D469:D474">
-    <cfRule type="duplicateValues" dxfId="0" priority="81"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D475:D480">
-    <cfRule type="duplicateValues" dxfId="0" priority="78"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D481:D486">
-    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D487:D492">
-    <cfRule type="duplicateValues" dxfId="0" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D493:D498">
-    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D499:D504">
-    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D505:D510">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D511:D516">
-    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D517:D522">
-    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D523:D528">
-    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D529:D534">
-    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D535:D540">
-    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D542:D547">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D548:D553">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D555:D560">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D561:D566">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41:E46">
-    <cfRule type="duplicateValues" dxfId="0" priority="83"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53:E58">
-    <cfRule type="duplicateValues" dxfId="0" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59:E64">
-    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109:E114">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E468:E474">
-    <cfRule type="duplicateValues" dxfId="0" priority="79"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E475:E480">
-    <cfRule type="duplicateValues" dxfId="0" priority="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E481:E486">
-    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E487:E492">
-    <cfRule type="duplicateValues" dxfId="0" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E493:E498">
-    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E499:E504">
-    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E505:E510">
-    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E511:E516">
-    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E517:E522">
-    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E523:E528">
-    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E529:E534">
-    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E535:E540">
-    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E541:E547">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E548:E553">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E554:E560">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E561:E566">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C540;C567:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E40;E47:E52;E65:E108;E233:E467;E115:E231;E567:E1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="86"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D10;D65;D122;D462:D467;D233;D78;D103;D219;D567:D1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="311"/>
+  <conditionalFormatting sqref="C1:C602;C609:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E40;E47:E52;E65:E108;E233:E467;E115:E231;E609:E1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="107"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D10;D65;D122;D462:D467;D233;D78;D103;D219;D609:D1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="332"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D104:D108;D115">
-    <cfRule type="duplicateValues" dxfId="0" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="226"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -66496,7 +67026,7 @@
   <sheetData>
     <row r="1" ht="14.4" spans="1:1">
       <c r="A1" s="40" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/src/Head.xlsx
+++ b/src/Head.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9264" tabRatio="692" activeTab="3"/>
+    <workbookView windowWidth="22188" windowHeight="9264" tabRatio="692" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="5" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2839" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="578">
   <si>
     <t>Título</t>
   </si>
@@ -9778,7 +9778,7 @@
   <sheetPr/>
   <dimension ref="A1:CUB103"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="A44" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B15" sqref="B15:B66"/>
     </sheetView>
   </sheetViews>
@@ -28662,8 +28662,8 @@
   <sheetPr/>
   <dimension ref="A1:L254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C60" sqref="C60:C70"/>
     </sheetView>
@@ -32609,7 +32609,7 @@
     <col min="28" max="28" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28">
+    <row r="1" ht="14.55" spans="2:28">
       <c r="B1" t="s">
         <v>162</v>
       </c>
@@ -32945,7 +32945,7 @@
       </c>
       <c r="AC6" s="109"/>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" ht="14.55" spans="1:29">
       <c r="A7" s="100" t="str">
         <f t="shared" ref="A7:A12" si="6">""</f>
         <v/>
@@ -33008,7 +33008,7 @@
       </c>
       <c r="AC7" s="110"/>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" ht="14.55" spans="1:28">
       <c r="A8" s="104" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -33373,7 +33373,7 @@
       </c>
       <c r="AC13" s="109"/>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" ht="14.55" spans="1:29">
       <c r="A14" s="100" t="str">
         <f t="shared" ref="A14:A19" si="11">""</f>
         <v/>
@@ -33436,7 +33436,7 @@
       </c>
       <c r="AC14" s="110"/>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" ht="14.55" spans="1:28">
       <c r="A15" s="104" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -34233,7 +34233,7 @@
       </c>
       <c r="AC27" s="109"/>
     </row>
-    <row r="28" spans="1:29">
+    <row r="28" ht="14.55" spans="1:29">
       <c r="A28" s="100" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -34296,7 +34296,7 @@
       </c>
       <c r="AC28" s="110"/>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" ht="14.55" spans="1:28">
       <c r="A29" s="104" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -34663,7 +34663,7 @@
       </c>
       <c r="AC34" s="109"/>
     </row>
-    <row r="35" spans="1:29">
+    <row r="35" ht="14.55" spans="1:29">
       <c r="A35" s="100" t="str">
         <f t="shared" si="21"/>
         <v/>
@@ -42001,7 +42001,7 @@
       </c>
       <c r="AC153" s="109"/>
     </row>
-    <row r="154" spans="1:29">
+    <row r="154" ht="14.55" spans="1:29">
       <c r="A154" s="100" t="str">
         <f t="shared" si="110"/>
         <v/>
@@ -42064,7 +42064,7 @@
       </c>
       <c r="AC154" s="110"/>
     </row>
-    <row r="155" spans="1:28">
+    <row r="155" ht="14.55" spans="1:28">
       <c r="A155" s="104" t="str">
         <f t="shared" si="110"/>
         <v/>
@@ -42427,7 +42427,7 @@
       </c>
       <c r="AC160" s="109"/>
     </row>
-    <row r="161" spans="1:29">
+    <row r="161" ht="14.55" spans="1:29">
       <c r="A161" s="100" t="str">
         <f t="shared" si="115"/>
         <v/>
@@ -42490,7 +42490,7 @@
       </c>
       <c r="AC161" s="110"/>
     </row>
-    <row r="162" spans="1:28">
+    <row r="162" ht="14.55" spans="1:28">
       <c r="A162" s="104" t="str">
         <f t="shared" si="115"/>
         <v/>
@@ -42853,7 +42853,7 @@
       </c>
       <c r="AC167" s="109"/>
     </row>
-    <row r="168" spans="1:29">
+    <row r="168" ht="14.55" spans="1:29">
       <c r="A168" s="100" t="str">
         <f t="shared" si="120"/>
         <v/>
@@ -42916,7 +42916,7 @@
       </c>
       <c r="AC168" s="110"/>
     </row>
-    <row r="169" spans="1:28">
+    <row r="169" ht="14.55" spans="1:28">
       <c r="A169" s="104" t="str">
         <f t="shared" si="120"/>
         <v/>
@@ -43279,7 +43279,7 @@
       </c>
       <c r="AC174" s="109"/>
     </row>
-    <row r="175" spans="1:29">
+    <row r="175" ht="14.55" spans="1:29">
       <c r="A175" s="100" t="str">
         <f t="shared" si="125"/>
         <v/>
@@ -43342,7 +43342,7 @@
       </c>
       <c r="AC175" s="110"/>
     </row>
-    <row r="176" spans="1:28">
+    <row r="176" ht="14.55" spans="1:28">
       <c r="A176" s="104" t="str">
         <f t="shared" si="125"/>
         <v/>
@@ -43705,7 +43705,7 @@
       </c>
       <c r="AC181" s="109"/>
     </row>
-    <row r="182" spans="1:29">
+    <row r="182" ht="14.55" spans="1:29">
       <c r="A182" s="100" t="str">
         <f t="shared" si="130"/>
         <v/>
@@ -43768,7 +43768,7 @@
       </c>
       <c r="AC182" s="110"/>
     </row>
-    <row r="183" spans="1:28">
+    <row r="183" ht="14.55" spans="1:28">
       <c r="A183" s="104" t="str">
         <f t="shared" si="130"/>
         <v/>
@@ -44131,7 +44131,7 @@
       </c>
       <c r="AC188" s="109"/>
     </row>
-    <row r="189" spans="1:29">
+    <row r="189" ht="14.55" spans="1:29">
       <c r="A189" s="100" t="str">
         <f t="shared" si="135"/>
         <v/>
@@ -44194,7 +44194,7 @@
       </c>
       <c r="AC189" s="110"/>
     </row>
-    <row r="190" spans="1:28">
+    <row r="190" ht="14.55" spans="1:28">
       <c r="A190" s="104" t="str">
         <f t="shared" si="135"/>
         <v/>
@@ -44557,7 +44557,7 @@
       </c>
       <c r="AC195" s="109"/>
     </row>
-    <row r="196" spans="1:29">
+    <row r="196" ht="14.55" spans="1:29">
       <c r="A196" s="100" t="str">
         <f t="shared" si="142"/>
         <v/>
@@ -44620,7 +44620,7 @@
       </c>
       <c r="AC196" s="110"/>
     </row>
-    <row r="197" spans="1:28">
+    <row r="197" ht="14.55" spans="1:28">
       <c r="A197" s="104" t="str">
         <f t="shared" si="142"/>
         <v/>
@@ -44983,7 +44983,7 @@
       </c>
       <c r="AC202" s="109"/>
     </row>
-    <row r="203" spans="1:29">
+    <row r="203" ht="14.55" spans="1:29">
       <c r="A203" s="100" t="str">
         <f t="shared" si="147"/>
         <v/>
@@ -45046,7 +45046,7 @@
       </c>
       <c r="AC203" s="110"/>
     </row>
-    <row r="204" spans="1:28">
+    <row r="204" ht="14.55" spans="1:28">
       <c r="A204" s="104" t="str">
         <f t="shared" si="147"/>
         <v/>
@@ -45409,7 +45409,7 @@
       </c>
       <c r="AC209" s="109"/>
     </row>
-    <row r="210" spans="1:29">
+    <row r="210" ht="14.55" spans="1:29">
       <c r="A210" s="100" t="str">
         <f t="shared" si="152"/>
         <v/>
@@ -45472,7 +45472,7 @@
       </c>
       <c r="AC210" s="110"/>
     </row>
-    <row r="211" spans="1:28">
+    <row r="211" ht="14.55" spans="1:28">
       <c r="A211" s="104" t="str">
         <f t="shared" si="152"/>
         <v/>
@@ -45835,7 +45835,7 @@
       </c>
       <c r="AC216" s="109"/>
     </row>
-    <row r="217" spans="1:29">
+    <row r="217" ht="14.55" spans="1:29">
       <c r="A217" s="100" t="str">
         <f t="shared" si="157"/>
         <v/>
@@ -45898,7 +45898,7 @@
       </c>
       <c r="AC217" s="110"/>
     </row>
-    <row r="218" spans="1:28">
+    <row r="218" ht="14.55" spans="1:28">
       <c r="A218" s="104" t="str">
         <f t="shared" si="157"/>
         <v/>
@@ -46261,7 +46261,7 @@
       </c>
       <c r="AC223" s="109"/>
     </row>
-    <row r="224" spans="1:29">
+    <row r="224" ht="14.55" spans="1:29">
       <c r="A224" s="100" t="str">
         <f t="shared" si="161"/>
         <v/>
@@ -46324,7 +46324,7 @@
       </c>
       <c r="AC224" s="110"/>
     </row>
-    <row r="225" spans="1:28">
+    <row r="225" ht="14.55" spans="1:28">
       <c r="A225" s="104" t="str">
         <f t="shared" si="161"/>
         <v/>
@@ -46687,7 +46687,7 @@
       </c>
       <c r="AC230" s="109"/>
     </row>
-    <row r="231" spans="1:29">
+    <row r="231" ht="14.55" spans="1:29">
       <c r="A231" s="100" t="str">
         <f t="shared" si="165"/>
         <v/>
@@ -46750,7 +46750,7 @@
       </c>
       <c r="AC231" s="110"/>
     </row>
-    <row r="232" spans="1:28">
+    <row r="232" ht="14.55" spans="1:28">
       <c r="A232" s="104" t="str">
         <f t="shared" si="165"/>
         <v/>
@@ -47113,7 +47113,7 @@
       </c>
       <c r="AC237" s="109"/>
     </row>
-    <row r="238" spans="1:29">
+    <row r="238" ht="14.55" spans="1:29">
       <c r="A238" s="100" t="str">
         <f t="shared" si="169"/>
         <v/>
@@ -47176,7 +47176,7 @@
       </c>
       <c r="AC238" s="110"/>
     </row>
-    <row r="239" spans="1:28">
+    <row r="239" ht="14.55" spans="1:28">
       <c r="A239" s="104" t="str">
         <f t="shared" si="169"/>
         <v/>
@@ -47539,7 +47539,7 @@
       </c>
       <c r="AC244" s="109"/>
     </row>
-    <row r="245" spans="1:29">
+    <row r="245" ht="14.55" spans="1:29">
       <c r="A245" s="100" t="str">
         <f t="shared" si="173"/>
         <v/>
@@ -47602,7 +47602,7 @@
       </c>
       <c r="AC245" s="110"/>
     </row>
-    <row r="246" spans="1:28">
+    <row r="246" ht="14.55" spans="1:28">
       <c r="A246" s="104" t="str">
         <f t="shared" si="173"/>
         <v/>
@@ -47965,7 +47965,7 @@
       </c>
       <c r="AC251" s="109"/>
     </row>
-    <row r="252" spans="1:29">
+    <row r="252" ht="14.55" spans="1:29">
       <c r="A252" s="100" t="str">
         <f t="shared" si="177"/>
         <v/>
@@ -48028,7 +48028,7 @@
       </c>
       <c r="AC252" s="110"/>
     </row>
-    <row r="253" spans="1:28">
+    <row r="253" ht="14.55" spans="1:28">
       <c r="A253" s="104" t="str">
         <f t="shared" si="177"/>
         <v/>
@@ -48391,7 +48391,7 @@
       </c>
       <c r="AC258" s="109"/>
     </row>
-    <row r="259" spans="1:29">
+    <row r="259" ht="14.55" spans="1:29">
       <c r="A259" s="100" t="str">
         <f t="shared" si="183"/>
         <v/>
@@ -48454,7 +48454,7 @@
       </c>
       <c r="AC259" s="110"/>
     </row>
-    <row r="260" spans="1:28">
+    <row r="260" ht="14.55" spans="1:28">
       <c r="A260" s="104" t="str">
         <f t="shared" si="183"/>
         <v/>
@@ -48797,7 +48797,7 @@
       </c>
       <c r="AC265" s="109"/>
     </row>
-    <row r="266" spans="1:29">
+    <row r="266" ht="14.55" spans="1:29">
       <c r="A266" s="100" t="str">
         <f t="shared" si="188"/>
         <v/>
@@ -48848,7 +48848,7 @@
       </c>
       <c r="AC266" s="110"/>
     </row>
-    <row r="267" spans="1:28">
+    <row r="267" ht="14.55" spans="1:28">
       <c r="A267" s="104" t="str">
         <f t="shared" si="188"/>
         <v/>
@@ -49139,7 +49139,7 @@
       </c>
       <c r="AC272" s="109"/>
     </row>
-    <row r="273" spans="1:29">
+    <row r="273" ht="14.55" spans="1:29">
       <c r="A273" s="100" t="str">
         <f t="shared" si="192"/>
         <v/>
@@ -49194,7 +49194,7 @@
       </c>
       <c r="AC273" s="110"/>
     </row>
-    <row r="274" spans="1:28">
+    <row r="274" ht="14.55" spans="1:28">
       <c r="A274" s="104" t="str">
         <f t="shared" si="192"/>
         <v/>
@@ -49509,7 +49509,7 @@
       </c>
       <c r="AC279" s="109"/>
     </row>
-    <row r="280" spans="1:29">
+    <row r="280" ht="14.55" spans="1:29">
       <c r="A280" s="100" t="str">
         <f t="shared" si="197"/>
         <v/>
@@ -49560,7 +49560,7 @@
       </c>
       <c r="AC280" s="110"/>
     </row>
-    <row r="281" spans="1:28">
+    <row r="281" ht="14.55" spans="1:28">
       <c r="A281" s="104" t="str">
         <f t="shared" si="197"/>
         <v/>
@@ -49851,7 +49851,7 @@
       </c>
       <c r="AC286" s="109"/>
     </row>
-    <row r="287" spans="1:29">
+    <row r="287" ht="14.55" spans="1:29">
       <c r="A287" s="100" t="str">
         <f t="shared" si="201"/>
         <v/>
@@ -49902,7 +49902,7 @@
       </c>
       <c r="AC287" s="110"/>
     </row>
-    <row r="288" spans="1:28">
+    <row r="288" ht="14.55" spans="1:28">
       <c r="A288" s="104" t="str">
         <f t="shared" si="201"/>
         <v/>
@@ -50193,7 +50193,7 @@
       </c>
       <c r="AC293" s="109"/>
     </row>
-    <row r="294" spans="1:29">
+    <row r="294" ht="14.55" spans="1:29">
       <c r="A294" s="100" t="str">
         <f t="shared" si="205"/>
         <v/>
@@ -50244,7 +50244,7 @@
       </c>
       <c r="AC294" s="110"/>
     </row>
-    <row r="295" spans="1:28">
+    <row r="295" ht="14.55" spans="1:28">
       <c r="A295" s="104" t="str">
         <f t="shared" si="205"/>
         <v/>
@@ -50535,7 +50535,7 @@
       </c>
       <c r="AC300" s="109"/>
     </row>
-    <row r="301" spans="1:29">
+    <row r="301" ht="14.55" spans="1:29">
       <c r="A301" s="100" t="str">
         <f t="shared" si="209"/>
         <v/>
@@ -50586,7 +50586,7 @@
       </c>
       <c r="AC301" s="110"/>
     </row>
-    <row r="302" spans="1:28">
+    <row r="302" ht="14.55" spans="1:28">
       <c r="A302" s="104" t="str">
         <f t="shared" si="209"/>
         <v/>
@@ -50877,7 +50877,7 @@
       </c>
       <c r="AC307" s="109"/>
     </row>
-    <row r="308" spans="1:29">
+    <row r="308" ht="14.55" spans="1:29">
       <c r="A308" s="100" t="str">
         <f t="shared" si="213"/>
         <v/>
@@ -50928,7 +50928,7 @@
       </c>
       <c r="AC308" s="110"/>
     </row>
-    <row r="309" spans="1:28">
+    <row r="309" ht="14.55" spans="1:28">
       <c r="A309" s="104" t="str">
         <f t="shared" si="213"/>
         <v/>
@@ -51219,7 +51219,7 @@
       </c>
       <c r="AC314" s="109"/>
     </row>
-    <row r="315" spans="1:29">
+    <row r="315" ht="14.55" spans="1:29">
       <c r="A315" s="100" t="str">
         <f t="shared" si="217"/>
         <v/>
@@ -51270,7 +51270,7 @@
       </c>
       <c r="AC315" s="110"/>
     </row>
-    <row r="316" spans="1:28">
+    <row r="316" ht="14.55" spans="1:28">
       <c r="A316" s="104" t="str">
         <f t="shared" si="217"/>
         <v/>
@@ -51561,7 +51561,7 @@
       </c>
       <c r="AC321" s="109"/>
     </row>
-    <row r="322" spans="1:29">
+    <row r="322" ht="14.55" spans="1:29">
       <c r="A322" s="100" t="str">
         <f t="shared" si="221"/>
         <v/>
@@ -51612,7 +51612,7 @@
       </c>
       <c r="AC322" s="110"/>
     </row>
-    <row r="323" spans="1:28">
+    <row r="323" ht="14.55" spans="1:28">
       <c r="A323" s="104" t="str">
         <f t="shared" si="221"/>
         <v/>
@@ -51903,7 +51903,7 @@
       </c>
       <c r="AC328" s="109"/>
     </row>
-    <row r="329" spans="1:29">
+    <row r="329" ht="14.55" spans="1:29">
       <c r="A329" s="100" t="str">
         <f t="shared" si="225"/>
         <v/>
@@ -51954,7 +51954,7 @@
       </c>
       <c r="AC329" s="110"/>
     </row>
-    <row r="330" spans="1:28">
+    <row r="330" ht="14.55" spans="1:28">
       <c r="A330" s="104" t="str">
         <f t="shared" si="225"/>
         <v/>
@@ -52245,7 +52245,7 @@
       </c>
       <c r="AC335" s="109"/>
     </row>
-    <row r="336" spans="1:29">
+    <row r="336" ht="14.55" spans="1:29">
       <c r="A336" s="100" t="str">
         <f t="shared" si="229"/>
         <v/>
@@ -52296,7 +52296,7 @@
       </c>
       <c r="AC336" s="110"/>
     </row>
-    <row r="337" spans="1:28">
+    <row r="337" ht="14.55" spans="1:28">
       <c r="A337" s="104" t="str">
         <f t="shared" si="229"/>
         <v/>
@@ -52587,7 +52587,7 @@
       </c>
       <c r="AC342" s="109"/>
     </row>
-    <row r="343" spans="1:29">
+    <row r="343" ht="14.55" spans="1:29">
       <c r="A343" s="100" t="str">
         <f t="shared" si="233"/>
         <v/>
@@ -52638,7 +52638,7 @@
       </c>
       <c r="AC343" s="110"/>
     </row>
-    <row r="344" spans="1:28">
+    <row r="344" ht="14.55" spans="1:28">
       <c r="A344" s="104" t="str">
         <f t="shared" si="233"/>
         <v/>
@@ -52929,7 +52929,7 @@
       </c>
       <c r="AC349" s="109"/>
     </row>
-    <row r="350" spans="1:29">
+    <row r="350" ht="14.55" spans="1:29">
       <c r="A350" s="100" t="str">
         <f t="shared" si="237"/>
         <v/>
@@ -52981,7 +52981,7 @@
       </c>
       <c r="AC350" s="110"/>
     </row>
-    <row r="351" spans="1:28">
+    <row r="351" ht="14.55" spans="1:28">
       <c r="A351" s="104" t="str">
         <f t="shared" si="237"/>
         <v/>
@@ -53272,7 +53272,7 @@
       </c>
       <c r="AC356" s="109"/>
     </row>
-    <row r="357" spans="1:29">
+    <row r="357" ht="14.55" spans="1:29">
       <c r="A357" s="100" t="str">
         <f t="shared" si="241"/>
         <v/>
@@ -53324,7 +53324,7 @@
       </c>
       <c r="AC357" s="110"/>
     </row>
-    <row r="358" spans="1:28">
+    <row r="358" ht="14.55" spans="1:28">
       <c r="A358" s="104" t="str">
         <f t="shared" si="241"/>
         <v/>
@@ -53615,7 +53615,7 @@
       </c>
       <c r="AC363" s="109"/>
     </row>
-    <row r="364" spans="1:29">
+    <row r="364" ht="14.55" spans="1:29">
       <c r="A364" s="100" t="str">
         <f t="shared" si="245"/>
         <v/>
@@ -53667,7 +53667,7 @@
       </c>
       <c r="AC364" s="110"/>
     </row>
-    <row r="365" spans="1:28">
+    <row r="365" ht="14.55" spans="1:28">
       <c r="A365" s="104" t="str">
         <f t="shared" si="245"/>
         <v/>
@@ -53958,7 +53958,7 @@
       </c>
       <c r="AC370" s="109"/>
     </row>
-    <row r="371" spans="1:29">
+    <row r="371" ht="14.55" spans="1:29">
       <c r="A371" s="100" t="str">
         <f t="shared" si="249"/>
         <v/>
@@ -54010,7 +54010,7 @@
       </c>
       <c r="AC371" s="110"/>
     </row>
-    <row r="372" spans="1:28">
+    <row r="372" ht="14.55" spans="1:28">
       <c r="A372" s="104" t="str">
         <f t="shared" si="249"/>
         <v/>
@@ -54301,7 +54301,7 @@
       </c>
       <c r="AC377" s="109"/>
     </row>
-    <row r="378" spans="1:29">
+    <row r="378" ht="14.55" spans="1:29">
       <c r="A378" s="100" t="str">
         <f t="shared" si="253"/>
         <v/>
@@ -54353,7 +54353,7 @@
       </c>
       <c r="AC378" s="110"/>
     </row>
-    <row r="379" spans="1:28">
+    <row r="379" ht="14.55" spans="1:28">
       <c r="A379" s="104" t="str">
         <f t="shared" si="253"/>
         <v/>
@@ -54644,7 +54644,7 @@
       </c>
       <c r="AC384" s="109"/>
     </row>
-    <row r="385" spans="1:29">
+    <row r="385" ht="14.55" spans="1:29">
       <c r="A385" s="100" t="str">
         <f t="shared" si="257"/>
         <v/>
@@ -54696,7 +54696,7 @@
       </c>
       <c r="AC385" s="110"/>
     </row>
-    <row r="386" spans="1:28">
+    <row r="386" ht="14.55" spans="1:28">
       <c r="A386" s="104" t="str">
         <f t="shared" si="257"/>
         <v/>
@@ -54928,7 +54928,7 @@
       </c>
       <c r="AC391" s="109"/>
     </row>
-    <row r="392" spans="7:29">
+    <row r="392" ht="14.55" spans="7:29">
       <c r="G392" s="103" t="str">
         <f t="shared" si="261"/>
         <v/>
@@ -54969,7 +54969,7 @@
       </c>
       <c r="AC392" s="110"/>
     </row>
-    <row r="393" spans="7:28">
+    <row r="393" ht="14.55" spans="7:28">
       <c r="G393" s="94" t="str">
         <f t="shared" si="261"/>
         <v/>
@@ -55190,7 +55190,7 @@
       </c>
       <c r="AC398" s="109"/>
     </row>
-    <row r="399" spans="7:29">
+    <row r="399" ht="14.55" spans="7:29">
       <c r="G399" s="103" t="str">
         <f t="shared" si="264"/>
         <v/>
@@ -55231,7 +55231,7 @@
       </c>
       <c r="AC399" s="110"/>
     </row>
-    <row r="400" spans="7:28">
+    <row r="400" ht="14.55" spans="7:28">
       <c r="G400" s="94" t="str">
         <f t="shared" si="264"/>
         <v/>
@@ -55452,7 +55452,7 @@
       </c>
       <c r="AC405" s="109"/>
     </row>
-    <row r="406" spans="7:29">
+    <row r="406" ht="14.55" spans="7:29">
       <c r="G406" s="103" t="str">
         <f t="shared" si="267"/>
         <v/>
@@ -55493,7 +55493,7 @@
       </c>
       <c r="AC406" s="110"/>
     </row>
-    <row r="407" spans="7:28">
+    <row r="407" ht="14.55" spans="7:28">
       <c r="G407" s="94" t="str">
         <f t="shared" si="267"/>
         <v/>
@@ -55714,7 +55714,7 @@
       </c>
       <c r="AC412" s="109"/>
     </row>
-    <row r="413" spans="7:29">
+    <row r="413" ht="14.55" spans="7:29">
       <c r="G413" s="103" t="str">
         <f t="shared" si="270"/>
         <v/>
@@ -55755,7 +55755,7 @@
       </c>
       <c r="AC413" s="110"/>
     </row>
-    <row r="414" spans="7:28">
+    <row r="414" ht="14.55" spans="7:28">
       <c r="G414" s="94" t="str">
         <f t="shared" si="270"/>
         <v/>
@@ -55976,7 +55976,7 @@
       </c>
       <c r="AC419" s="109"/>
     </row>
-    <row r="420" spans="7:29">
+    <row r="420" ht="14.55" spans="7:29">
       <c r="G420" s="103" t="str">
         <f t="shared" si="273"/>
         <v/>
@@ -56017,7 +56017,7 @@
       </c>
       <c r="AC420" s="110"/>
     </row>
-    <row r="421" spans="7:28">
+    <row r="421" ht="14.55" spans="7:28">
       <c r="G421" s="94" t="str">
         <f t="shared" si="273"/>
         <v/>
@@ -56174,7 +56174,7 @@
       </c>
       <c r="AC426" s="109"/>
     </row>
-    <row r="427" spans="15:29">
+    <row r="427" ht="14.55" spans="15:29">
       <c r="O427" s="103" t="str">
         <f t="shared" si="276"/>
         <v/>
@@ -56202,7 +56202,7 @@
       </c>
       <c r="AC427" s="110"/>
     </row>
-    <row r="428" spans="15:28">
+    <row r="428" ht="14.55" spans="15:28">
       <c r="O428" s="89" t="str">
         <f t="shared" si="276"/>
         <v/>
@@ -56350,7 +56350,7 @@
       </c>
       <c r="AC433" s="109"/>
     </row>
-    <row r="434" spans="15:29">
+    <row r="434" ht="14.55" spans="15:29">
       <c r="O434" s="103" t="str">
         <f t="shared" si="278"/>
         <v/>
@@ -56378,7 +56378,7 @@
       </c>
       <c r="AC434" s="110"/>
     </row>
-    <row r="435" spans="15:28">
+    <row r="435" ht="14.55" spans="15:28">
       <c r="O435" s="89" t="str">
         <f t="shared" si="278"/>
         <v/>
@@ -56526,7 +56526,7 @@
       </c>
       <c r="AC440" s="109"/>
     </row>
-    <row r="441" spans="15:29">
+    <row r="441" ht="14.55" spans="15:29">
       <c r="O441" s="103" t="str">
         <f t="shared" si="280"/>
         <v/>
@@ -56554,7 +56554,7 @@
       </c>
       <c r="AC441" s="110"/>
     </row>
-    <row r="442" spans="15:28">
+    <row r="442" ht="14.55" spans="15:28">
       <c r="O442" s="89" t="str">
         <f t="shared" si="280"/>
         <v/>
@@ -56702,7 +56702,7 @@
       </c>
       <c r="AC447" s="109"/>
     </row>
-    <row r="448" spans="15:29">
+    <row r="448" ht="14.55" spans="15:29">
       <c r="O448" s="103" t="str">
         <f t="shared" si="282"/>
         <v/>
@@ -56730,7 +56730,7 @@
       </c>
       <c r="AC448" s="110"/>
     </row>
-    <row r="449" spans="15:28">
+    <row r="449" ht="14.55" spans="15:28">
       <c r="O449" s="89" t="str">
         <f t="shared" si="282"/>
         <v/>
@@ -56878,7 +56878,7 @@
       </c>
       <c r="AC454" s="109"/>
     </row>
-    <row r="455" spans="15:29">
+    <row r="455" ht="14.55" spans="15:29">
       <c r="O455" s="103" t="str">
         <f t="shared" si="284"/>
         <v/>
@@ -56906,7 +56906,7 @@
       </c>
       <c r="AC455" s="110"/>
     </row>
-    <row r="456" spans="15:28">
+    <row r="456" ht="14.55" spans="15:28">
       <c r="O456" s="89" t="str">
         <f t="shared" si="284"/>
         <v/>
@@ -57054,7 +57054,7 @@
       </c>
       <c r="AC461" s="109"/>
     </row>
-    <row r="462" spans="15:29">
+    <row r="462" ht="14.55" spans="15:29">
       <c r="O462" s="103" t="str">
         <f t="shared" si="286"/>
         <v/>
@@ -57082,7 +57082,7 @@
       </c>
       <c r="AC462" s="110"/>
     </row>
-    <row r="463" spans="15:28">
+    <row r="463" ht="14.55" spans="15:28">
       <c r="O463" s="89" t="str">
         <f t="shared" si="286"/>
         <v/>
@@ -61797,12 +61797,12 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E865"/>
+  <dimension ref="A1:E871"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A611" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="C622" sqref="C622"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" outlineLevelCol="4"/>
@@ -68380,28 +68380,74 @@
       <c r="B620" s="56"/>
       <c r="C620" s="57"/>
     </row>
-    <row r="621" ht="16.95" spans="1:3">
-      <c r="A621" s="41" t="s">
+    <row r="621" ht="17.7" spans="1:3">
+      <c r="A621" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="B621" s="47"/>
+      <c r="C621" s="48"/>
+    </row>
+    <row r="622" ht="16.95" spans="1:5">
+      <c r="A622" s="49" t="str">
+        <f>CONCATENATE("&lt;loc&gt;",B622,"&lt;/loc&gt;")</f>
+        <v>&lt;loc&gt;https://eduardoherreraf.github.io/analisis-de-datos-0011_manejo-de-series-con-panda.html&lt;/loc&gt;</v>
+      </c>
+      <c r="B622" s="50" t="str">
+        <f>CONCATENATE($C$5,C622)</f>
+        <v>https://eduardoherreraf.github.io/analisis-de-datos-0011_manejo-de-series-con-panda.html</v>
+      </c>
+      <c r="C622" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="E622" s="52"/>
+    </row>
+    <row r="623" spans="1:5">
+      <c r="A623" s="49" t="str">
+        <f>CONCATENATE("&lt;lastmod&gt;",B623,"&lt;/lastmod&gt;")</f>
+        <v>&lt;lastmod&gt;2025-10-31T15:17:38-05:00&lt;/lastmod&gt;</v>
+      </c>
+      <c r="B623" s="50" t="str">
+        <f>$C$1</f>
+        <v>2025-10-31T15:17:38-05:00</v>
+      </c>
+      <c r="C623" s="53"/>
+      <c r="E623" s="52"/>
+    </row>
+    <row r="624" ht="16.95" spans="1:5">
+      <c r="A624" s="49" t="str">
+        <f>CONCATENATE("&lt;changefreq&gt;",B624,"&lt;/changefreq&gt;")</f>
+        <v>&lt;changefreq&gt;yearly&lt;/changefreq&gt;</v>
+      </c>
+      <c r="B624" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="C624" s="53"/>
+      <c r="E624" s="52"/>
+    </row>
+    <row r="625" ht="16.95" spans="1:3">
+      <c r="A625" s="49" t="str">
+        <f>CONCATENATE("&lt;priority&gt;",B625,"&lt;/priority&gt;")</f>
+        <v>&lt;priority&gt;0.6&lt;/priority&gt;</v>
+      </c>
+      <c r="B625" s="50" t="str">
+        <f>C625</f>
+        <v>0.6</v>
+      </c>
+      <c r="C625" s="54" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="626" ht="16.95" spans="1:3">
+      <c r="A626" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="B626" s="56"/>
+      <c r="C626" s="57"/>
+    </row>
+    <row r="627" ht="16.95" spans="1:3">
+      <c r="A627" s="41" t="s">
         <v>349</v>
       </c>
-      <c r="C621" s="59"/>
-    </row>
-    <row r="622" spans="3:3">
-      <c r="C622" s="59"/>
-    </row>
-    <row r="623" spans="3:3">
-      <c r="C623" s="59"/>
-    </row>
-    <row r="624" spans="3:3">
-      <c r="C624" s="59"/>
-    </row>
-    <row r="625" spans="3:3">
-      <c r="C625" s="59"/>
-    </row>
-    <row r="626" spans="3:3">
-      <c r="C626" s="59"/>
-    </row>
-    <row r="627" spans="3:3">
       <c r="C627" s="59"/>
     </row>
     <row r="628" spans="3:3">
@@ -68416,23 +68462,23 @@
     <row r="631" spans="3:3">
       <c r="C631" s="59"/>
     </row>
-    <row r="712" spans="5:5">
-      <c r="E712" s="52"/>
-    </row>
-    <row r="713" spans="5:5">
-      <c r="E713" s="52"/>
-    </row>
-    <row r="714" spans="5:5">
-      <c r="E714" s="52"/>
-    </row>
-    <row r="715" spans="5:5">
-      <c r="E715" s="52"/>
-    </row>
-    <row r="716" spans="5:5">
-      <c r="E716" s="52"/>
-    </row>
-    <row r="717" spans="5:5">
-      <c r="E717" s="52"/>
+    <row r="632" spans="3:3">
+      <c r="C632" s="59"/>
+    </row>
+    <row r="633" spans="3:3">
+      <c r="C633" s="59"/>
+    </row>
+    <row r="634" spans="3:3">
+      <c r="C634" s="59"/>
+    </row>
+    <row r="635" spans="3:3">
+      <c r="C635" s="59"/>
+    </row>
+    <row r="636" spans="3:3">
+      <c r="C636" s="59"/>
+    </row>
+    <row r="637" spans="3:3">
+      <c r="C637" s="59"/>
     </row>
     <row r="718" spans="5:5">
       <c r="E718" s="52"/>
@@ -68627,43 +68673,43 @@
       <c r="E781" s="52"/>
     </row>
     <row r="782" spans="5:5">
-      <c r="E782" s="59"/>
+      <c r="E782" s="52"/>
     </row>
     <row r="783" spans="5:5">
-      <c r="E783" s="59"/>
+      <c r="E783" s="52"/>
     </row>
     <row r="784" spans="5:5">
-      <c r="E784" s="59"/>
+      <c r="E784" s="52"/>
     </row>
     <row r="785" spans="5:5">
-      <c r="E785" s="59"/>
+      <c r="E785" s="52"/>
     </row>
     <row r="786" spans="5:5">
-      <c r="E786" s="59"/>
+      <c r="E786" s="52"/>
     </row>
     <row r="787" spans="5:5">
-      <c r="E787" s="59"/>
+      <c r="E787" s="52"/>
     </row>
     <row r="788" spans="5:5">
       <c r="E788" s="59"/>
     </row>
     <row r="789" spans="5:5">
-      <c r="E789" s="42"/>
+      <c r="E789" s="59"/>
     </row>
     <row r="790" spans="5:5">
-      <c r="E790" s="42"/>
+      <c r="E790" s="59"/>
     </row>
     <row r="791" spans="5:5">
-      <c r="E791" s="42"/>
+      <c r="E791" s="59"/>
     </row>
     <row r="792" spans="5:5">
-      <c r="E792" s="42"/>
+      <c r="E792" s="59"/>
     </row>
     <row r="793" spans="5:5">
-      <c r="E793" s="42"/>
+      <c r="E793" s="59"/>
     </row>
     <row r="794" spans="5:5">
-      <c r="E794" s="42"/>
+      <c r="E794" s="59"/>
     </row>
     <row r="795" spans="5:5">
       <c r="E795" s="42"/>
@@ -68878,429 +68924,456 @@
     <row r="865" spans="5:5">
       <c r="E865" s="42"/>
     </row>
+    <row r="866" spans="5:5">
+      <c r="E866" s="42"/>
+    </row>
+    <row r="867" spans="5:5">
+      <c r="E867" s="42"/>
+    </row>
+    <row r="868" spans="5:5">
+      <c r="E868" s="42"/>
+    </row>
+    <row r="869" spans="5:5">
+      <c r="E869" s="42"/>
+    </row>
+    <row r="870" spans="5:5">
+      <c r="E870" s="42"/>
+    </row>
+    <row r="871" spans="5:5">
+      <c r="E871" s="42"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="0" priority="336"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="339"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D109">
+    <cfRule type="duplicateValues" dxfId="0" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D232">
+    <cfRule type="duplicateValues" dxfId="0" priority="86"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E232">
+    <cfRule type="duplicateValues" dxfId="0" priority="84"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D468">
+    <cfRule type="duplicateValues" dxfId="0" priority="112"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D541">
+    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D554">
+    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C603:C608">
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C609:C614">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C615:C620">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C621:C626">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:D16">
+    <cfRule type="duplicateValues" dxfId="0" priority="263"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D22">
+    <cfRule type="duplicateValues" dxfId="0" priority="262"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:D28">
+    <cfRule type="duplicateValues" dxfId="0" priority="261"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:D34">
+    <cfRule type="duplicateValues" dxfId="0" priority="260"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:D40">
+    <cfRule type="duplicateValues" dxfId="0" priority="259"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:D46">
+    <cfRule type="duplicateValues" dxfId="0" priority="115"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47:D52">
+    <cfRule type="duplicateValues" dxfId="0" priority="258"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53:D58">
+    <cfRule type="duplicateValues" dxfId="0" priority="90"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59:D64">
+    <cfRule type="duplicateValues" dxfId="0" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66:D71">
+    <cfRule type="duplicateValues" dxfId="0" priority="251"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D72:D77">
+    <cfRule type="duplicateValues" dxfId="0" priority="250"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D79:D84">
+    <cfRule type="duplicateValues" dxfId="0" priority="247"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D85:D90">
+    <cfRule type="duplicateValues" dxfId="0" priority="245"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D91:D96">
+    <cfRule type="duplicateValues" dxfId="0" priority="246"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D97:D102">
+    <cfRule type="duplicateValues" dxfId="0" priority="244"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D110:D114">
+    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D116:D121">
+    <cfRule type="duplicateValues" dxfId="0" priority="234"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D123:D128">
+    <cfRule type="duplicateValues" dxfId="0" priority="231"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D129:D134">
+    <cfRule type="duplicateValues" dxfId="0" priority="230"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D135:D140">
+    <cfRule type="duplicateValues" dxfId="0" priority="229"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D141:D146">
+    <cfRule type="duplicateValues" dxfId="0" priority="228"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D147:D152">
+    <cfRule type="duplicateValues" dxfId="0" priority="227"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D153:D158">
+    <cfRule type="duplicateValues" dxfId="0" priority="226"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D159:D164">
+    <cfRule type="duplicateValues" dxfId="0" priority="225"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D165:D170">
+    <cfRule type="duplicateValues" dxfId="0" priority="224"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D171:D176">
+    <cfRule type="duplicateValues" dxfId="0" priority="223"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D177:D182">
+    <cfRule type="duplicateValues" dxfId="0" priority="222"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D183:D188">
+    <cfRule type="duplicateValues" dxfId="0" priority="221"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D189:D194">
+    <cfRule type="duplicateValues" dxfId="0" priority="220"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D195:D200">
+    <cfRule type="duplicateValues" dxfId="0" priority="219"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D201:D206">
+    <cfRule type="duplicateValues" dxfId="0" priority="218"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D207:D212">
+    <cfRule type="duplicateValues" dxfId="0" priority="217"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D213:D218">
+    <cfRule type="duplicateValues" dxfId="0" priority="216"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D220:D225">
+    <cfRule type="duplicateValues" dxfId="0" priority="199"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D226:D231">
+    <cfRule type="duplicateValues" dxfId="0" priority="198"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D234:D239">
+    <cfRule type="duplicateValues" dxfId="0" priority="195"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D240:D245">
+    <cfRule type="duplicateValues" dxfId="0" priority="194"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D246:D251">
+    <cfRule type="duplicateValues" dxfId="0" priority="193"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D252:D257">
+    <cfRule type="duplicateValues" dxfId="0" priority="192"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D258:D263">
+    <cfRule type="duplicateValues" dxfId="0" priority="191"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D264:D269">
+    <cfRule type="duplicateValues" dxfId="0" priority="190"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D270:D275">
+    <cfRule type="duplicateValues" dxfId="0" priority="189"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D276:D281">
+    <cfRule type="duplicateValues" dxfId="0" priority="188"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D282:D287">
+    <cfRule type="duplicateValues" dxfId="0" priority="187"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D288:D293">
+    <cfRule type="duplicateValues" dxfId="0" priority="186"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D294:D299">
+    <cfRule type="duplicateValues" dxfId="0" priority="185"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D300:D305">
+    <cfRule type="duplicateValues" dxfId="0" priority="184"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D306:D311">
+    <cfRule type="duplicateValues" dxfId="0" priority="183"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D312:D317">
+    <cfRule type="duplicateValues" dxfId="0" priority="182"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D318:D323">
+    <cfRule type="duplicateValues" dxfId="0" priority="181"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D324:D329">
+    <cfRule type="duplicateValues" dxfId="0" priority="180"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D330:D335">
+    <cfRule type="duplicateValues" dxfId="0" priority="179"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D336:D341">
+    <cfRule type="duplicateValues" dxfId="0" priority="178"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D342:D347">
+    <cfRule type="duplicateValues" dxfId="0" priority="177"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D348:D353">
+    <cfRule type="duplicateValues" dxfId="0" priority="176"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D354:D359">
+    <cfRule type="duplicateValues" dxfId="0" priority="175"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D360:D365">
+    <cfRule type="duplicateValues" dxfId="0" priority="174"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D366:D371">
+    <cfRule type="duplicateValues" dxfId="0" priority="173"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D372:D377">
+    <cfRule type="duplicateValues" dxfId="0" priority="172"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D378:D383">
+    <cfRule type="duplicateValues" dxfId="0" priority="171"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D384:D389">
+    <cfRule type="duplicateValues" dxfId="0" priority="170"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D390:D395">
+    <cfRule type="duplicateValues" dxfId="0" priority="169"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D396:D401">
+    <cfRule type="duplicateValues" dxfId="0" priority="168"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D402:D407">
+    <cfRule type="duplicateValues" dxfId="0" priority="167"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D408:D413">
+    <cfRule type="duplicateValues" dxfId="0" priority="166"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D414:D419">
+    <cfRule type="duplicateValues" dxfId="0" priority="165"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D420:D425">
+    <cfRule type="duplicateValues" dxfId="0" priority="164"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D426:D431">
+    <cfRule type="duplicateValues" dxfId="0" priority="163"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D432:D437">
+    <cfRule type="duplicateValues" dxfId="0" priority="162"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D438:D443">
+    <cfRule type="duplicateValues" dxfId="0" priority="161"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D444:D449">
+    <cfRule type="duplicateValues" dxfId="0" priority="160"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D450:D455">
+    <cfRule type="duplicateValues" dxfId="0" priority="159"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D456:D461">
+    <cfRule type="duplicateValues" dxfId="0" priority="158"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D469:D474">
+    <cfRule type="duplicateValues" dxfId="0" priority="111"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D475:D480">
+    <cfRule type="duplicateValues" dxfId="0" priority="108"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D481:D486">
+    <cfRule type="duplicateValues" dxfId="0" priority="105"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D487:D492">
+    <cfRule type="duplicateValues" dxfId="0" priority="102"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D493:D498">
+    <cfRule type="duplicateValues" dxfId="0" priority="83"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D499:D504">
+    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D505:D510">
+    <cfRule type="duplicateValues" dxfId="0" priority="79"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D511:D516">
+    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D517:D522">
+    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D523:D528">
+    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D529:D534">
+    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D535:D540">
+    <cfRule type="duplicateValues" dxfId="0" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D542:D547">
+    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D548:D553">
+    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D555:D560">
+    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D561:D566">
+    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D567:D572">
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D573:D578">
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D579:D584">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D585:D590">
+    <cfRule type="duplicateValues" dxfId="0" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D591:D596">
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D597:D602">
+    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D603:D608">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D609:D614">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D615:D620">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D621:D626">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41:E46">
+    <cfRule type="duplicateValues" dxfId="0" priority="113"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53:E58">
+    <cfRule type="duplicateValues" dxfId="0" priority="88"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59:E64">
+    <cfRule type="duplicateValues" dxfId="0" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109:E114">
     <cfRule type="duplicateValues" dxfId="0" priority="47"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D232">
-    <cfRule type="duplicateValues" dxfId="0" priority="83"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E232">
+  <conditionalFormatting sqref="E468:E474">
+    <cfRule type="duplicateValues" dxfId="0" priority="109"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E475:E480">
+    <cfRule type="duplicateValues" dxfId="0" priority="106"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E481:E486">
+    <cfRule type="duplicateValues" dxfId="0" priority="103"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E487:E492">
+    <cfRule type="duplicateValues" dxfId="0" priority="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E493:E498">
     <cfRule type="duplicateValues" dxfId="0" priority="81"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D468">
-    <cfRule type="duplicateValues" dxfId="0" priority="109"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D541">
-    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D554">
-    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C603:C608">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C609:C614">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C615:C620">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D16">
-    <cfRule type="duplicateValues" dxfId="0" priority="260"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D22">
-    <cfRule type="duplicateValues" dxfId="0" priority="259"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D28">
-    <cfRule type="duplicateValues" dxfId="0" priority="258"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D34">
-    <cfRule type="duplicateValues" dxfId="0" priority="257"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35:D40">
-    <cfRule type="duplicateValues" dxfId="0" priority="256"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:D46">
-    <cfRule type="duplicateValues" dxfId="0" priority="112"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D52">
-    <cfRule type="duplicateValues" dxfId="0" priority="255"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53:D58">
-    <cfRule type="duplicateValues" dxfId="0" priority="87"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59:D64">
+  <conditionalFormatting sqref="E499:E504">
+    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E505:E510">
+    <cfRule type="duplicateValues" dxfId="0" priority="77"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E511:E516">
+    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E517:E522">
+    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E523:E528">
+    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E529:E534">
+    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E535:E540">
+    <cfRule type="duplicateValues" dxfId="0" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E541:E547">
+    <cfRule type="duplicateValues" dxfId="0" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E548:E553">
+    <cfRule type="duplicateValues" dxfId="0" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E554:E560">
+    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E561:E566">
+    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E567:E572">
+    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E573:E578">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E579:E584">
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E585:E590">
+    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E591:E596">
+    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E597:E602">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E603:E608">
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E609:E614">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E615:E620">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E621:E626">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C602;C627:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="43"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66:D71">
-    <cfRule type="duplicateValues" dxfId="0" priority="248"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D72:D77">
-    <cfRule type="duplicateValues" dxfId="0" priority="247"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D79:D84">
-    <cfRule type="duplicateValues" dxfId="0" priority="244"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D85:D90">
-    <cfRule type="duplicateValues" dxfId="0" priority="242"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D91:D96">
-    <cfRule type="duplicateValues" dxfId="0" priority="243"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D97:D102">
-    <cfRule type="duplicateValues" dxfId="0" priority="241"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D110:D114">
-    <cfRule type="duplicateValues" dxfId="0" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D116:D121">
-    <cfRule type="duplicateValues" dxfId="0" priority="231"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D123:D128">
-    <cfRule type="duplicateValues" dxfId="0" priority="228"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D129:D134">
-    <cfRule type="duplicateValues" dxfId="0" priority="227"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D135:D140">
-    <cfRule type="duplicateValues" dxfId="0" priority="226"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D141:D146">
-    <cfRule type="duplicateValues" dxfId="0" priority="225"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D147:D152">
-    <cfRule type="duplicateValues" dxfId="0" priority="224"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D153:D158">
-    <cfRule type="duplicateValues" dxfId="0" priority="223"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D159:D164">
-    <cfRule type="duplicateValues" dxfId="0" priority="222"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D165:D170">
-    <cfRule type="duplicateValues" dxfId="0" priority="221"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D171:D176">
-    <cfRule type="duplicateValues" dxfId="0" priority="220"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D177:D182">
-    <cfRule type="duplicateValues" dxfId="0" priority="219"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D183:D188">
-    <cfRule type="duplicateValues" dxfId="0" priority="218"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D189:D194">
-    <cfRule type="duplicateValues" dxfId="0" priority="217"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D195:D200">
-    <cfRule type="duplicateValues" dxfId="0" priority="216"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D201:D206">
-    <cfRule type="duplicateValues" dxfId="0" priority="215"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D207:D212">
-    <cfRule type="duplicateValues" dxfId="0" priority="214"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D213:D218">
-    <cfRule type="duplicateValues" dxfId="0" priority="213"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D220:D225">
-    <cfRule type="duplicateValues" dxfId="0" priority="196"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D226:D231">
-    <cfRule type="duplicateValues" dxfId="0" priority="195"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D234:D239">
-    <cfRule type="duplicateValues" dxfId="0" priority="192"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D240:D245">
-    <cfRule type="duplicateValues" dxfId="0" priority="191"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D246:D251">
-    <cfRule type="duplicateValues" dxfId="0" priority="190"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D252:D257">
-    <cfRule type="duplicateValues" dxfId="0" priority="189"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D258:D263">
-    <cfRule type="duplicateValues" dxfId="0" priority="188"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D264:D269">
-    <cfRule type="duplicateValues" dxfId="0" priority="187"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D270:D275">
-    <cfRule type="duplicateValues" dxfId="0" priority="186"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D276:D281">
-    <cfRule type="duplicateValues" dxfId="0" priority="185"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D282:D287">
-    <cfRule type="duplicateValues" dxfId="0" priority="184"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D288:D293">
-    <cfRule type="duplicateValues" dxfId="0" priority="183"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D294:D299">
-    <cfRule type="duplicateValues" dxfId="0" priority="182"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D300:D305">
-    <cfRule type="duplicateValues" dxfId="0" priority="181"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D306:D311">
-    <cfRule type="duplicateValues" dxfId="0" priority="180"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D312:D317">
-    <cfRule type="duplicateValues" dxfId="0" priority="179"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D318:D323">
-    <cfRule type="duplicateValues" dxfId="0" priority="178"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D324:D329">
-    <cfRule type="duplicateValues" dxfId="0" priority="177"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D330:D335">
-    <cfRule type="duplicateValues" dxfId="0" priority="176"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D336:D341">
-    <cfRule type="duplicateValues" dxfId="0" priority="175"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D342:D347">
-    <cfRule type="duplicateValues" dxfId="0" priority="174"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D348:D353">
-    <cfRule type="duplicateValues" dxfId="0" priority="173"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D354:D359">
-    <cfRule type="duplicateValues" dxfId="0" priority="172"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D360:D365">
-    <cfRule type="duplicateValues" dxfId="0" priority="171"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D366:D371">
-    <cfRule type="duplicateValues" dxfId="0" priority="170"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D372:D377">
-    <cfRule type="duplicateValues" dxfId="0" priority="169"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D378:D383">
-    <cfRule type="duplicateValues" dxfId="0" priority="168"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D384:D389">
-    <cfRule type="duplicateValues" dxfId="0" priority="167"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D390:D395">
-    <cfRule type="duplicateValues" dxfId="0" priority="166"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D396:D401">
-    <cfRule type="duplicateValues" dxfId="0" priority="165"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D402:D407">
-    <cfRule type="duplicateValues" dxfId="0" priority="164"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D408:D413">
-    <cfRule type="duplicateValues" dxfId="0" priority="163"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D414:D419">
-    <cfRule type="duplicateValues" dxfId="0" priority="162"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D420:D425">
-    <cfRule type="duplicateValues" dxfId="0" priority="161"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D426:D431">
-    <cfRule type="duplicateValues" dxfId="0" priority="160"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D432:D437">
-    <cfRule type="duplicateValues" dxfId="0" priority="159"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D438:D443">
-    <cfRule type="duplicateValues" dxfId="0" priority="158"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D444:D449">
-    <cfRule type="duplicateValues" dxfId="0" priority="157"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D450:D455">
-    <cfRule type="duplicateValues" dxfId="0" priority="156"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D456:D461">
-    <cfRule type="duplicateValues" dxfId="0" priority="155"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D469:D474">
-    <cfRule type="duplicateValues" dxfId="0" priority="108"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D475:D480">
-    <cfRule type="duplicateValues" dxfId="0" priority="105"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D481:D486">
-    <cfRule type="duplicateValues" dxfId="0" priority="102"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D487:D492">
-    <cfRule type="duplicateValues" dxfId="0" priority="99"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D493:D498">
-    <cfRule type="duplicateValues" dxfId="0" priority="80"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D499:D504">
-    <cfRule type="duplicateValues" dxfId="0" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D505:D510">
-    <cfRule type="duplicateValues" dxfId="0" priority="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D511:D516">
-    <cfRule type="duplicateValues" dxfId="0" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D517:D522">
-    <cfRule type="duplicateValues" dxfId="0" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D523:D528">
-    <cfRule type="duplicateValues" dxfId="0" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D529:D534">
-    <cfRule type="duplicateValues" dxfId="0" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D535:D540">
-    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D542:D547">
-    <cfRule type="duplicateValues" dxfId="0" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D548:D553">
-    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D555:D560">
-    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D561:D566">
-    <cfRule type="duplicateValues" dxfId="0" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D567:D572">
-    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D573:D578">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D579:D584">
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D585:D590">
-    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D591:D596">
-    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D597:D602">
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D603:D608">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D609:D614">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D615:D620">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41:E46">
-    <cfRule type="duplicateValues" dxfId="0" priority="110"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53:E58">
-    <cfRule type="duplicateValues" dxfId="0" priority="85"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59:E64">
-    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109:E114">
-    <cfRule type="duplicateValues" dxfId="0" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E468:E474">
-    <cfRule type="duplicateValues" dxfId="0" priority="106"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E475:E480">
-    <cfRule type="duplicateValues" dxfId="0" priority="103"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E481:E486">
-    <cfRule type="duplicateValues" dxfId="0" priority="100"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E487:E492">
-    <cfRule type="duplicateValues" dxfId="0" priority="97"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E493:E498">
-    <cfRule type="duplicateValues" dxfId="0" priority="78"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E499:E504">
-    <cfRule type="duplicateValues" dxfId="0" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E505:E510">
-    <cfRule type="duplicateValues" dxfId="0" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E511:E516">
-    <cfRule type="duplicateValues" dxfId="0" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E517:E522">
-    <cfRule type="duplicateValues" dxfId="0" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E523:E528">
-    <cfRule type="duplicateValues" dxfId="0" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E529:E534">
-    <cfRule type="duplicateValues" dxfId="0" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E535:E540">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E541:E547">
-    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E548:E553">
-    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E554:E560">
-    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E561:E566">
-    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E567:E572">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E573:E578">
-    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E579:E584">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E585:E590">
-    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E591:E596">
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E597:E602">
-    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E603:E608">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E609:E614">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E615:E620">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C602;C621:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E40;E47:E52;E65:E108;E233:E467;E115:E231;E621:E1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="113"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D10;D65;D122;D462:D467;D233;D78;D103;D219;D621:D1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="338"/>
+  <conditionalFormatting sqref="E1:E40;E47:E52;E65:E108;E233:E467;E115:E231;E627:E1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="116"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D10;D65;D122;D462:D467;D233;D78;D103;D219;D627:D1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="341"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D104:D108;D115">
-    <cfRule type="duplicateValues" dxfId="0" priority="232"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="235"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
